--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="28128" windowHeight="12660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
     <sheet name="3月" sheetId="7" r:id="rId2"/>
-    <sheet name="4月" sheetId="8" r:id="rId3"/>
-    <sheet name="学习计划" sheetId="9" r:id="rId4"/>
+    <sheet name="学习计划" sheetId="9" r:id="rId3"/>
+    <sheet name="4月" sheetId="10" r:id="rId4"/>
+    <sheet name="5月" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="168">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -594,42 +595,85 @@
     <t>everyDay</t>
   </si>
   <si>
+    <t>学习内容</t>
+  </si>
+  <si>
+    <t>具体要求</t>
+  </si>
+  <si>
+    <t>计划周期</t>
+  </si>
+  <si>
+    <t>详细安排</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>1个月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>每天两节</t>
+  </si>
+  <si>
+    <t>4月21日结束</t>
+  </si>
+  <si>
     <t>小程序方面</t>
   </si>
   <si>
     <t>常见面试题，技能补缺</t>
   </si>
   <si>
-    <t>1个月</t>
-  </si>
-  <si>
-    <t>自动化部署</t>
-  </si>
-  <si>
-    <t>git操作流，打包，部署实现，运维方面</t>
+    <t>和TS穿插进行，每天两个知识点</t>
+  </si>
+  <si>
+    <t>vue3学习及项目</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基础学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一个大屏项目，一个后台项目</t>
+    </r>
+  </si>
+  <si>
+    <t>2周+ 3周 + 1月</t>
+  </si>
+  <si>
+    <t>5月，6月</t>
+  </si>
+  <si>
+    <t>vue路由</t>
   </si>
   <si>
     <t>react学习及项目</t>
   </si>
   <si>
-    <t>基础学习，两个大屏项目，一个后台项目</t>
-  </si>
-  <si>
-    <t>2周+ 3周 + 1月</t>
+    <t>基础学习，一个大屏项目，一个后台项目</t>
   </si>
   <si>
     <t>7月，8月</t>
   </si>
   <si>
-    <t>vue3学习及项目</t>
-  </si>
-  <si>
-    <t>5月，6月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
     <t>低代码平台</t>
   </si>
   <si>
@@ -642,34 +686,76 @@
     <t>10月</t>
   </si>
   <si>
+    <t>产品思维</t>
+  </si>
+  <si>
+    <t>2个月</t>
+  </si>
+  <si>
+    <t>11月，12月</t>
+  </si>
+  <si>
     <t>跨端，react-native, futter</t>
   </si>
   <si>
-    <t>2个月</t>
-  </si>
-  <si>
-    <t>产品思维</t>
-  </si>
-  <si>
-    <t>11月，12月</t>
-  </si>
-  <si>
-    <t>学习内容</t>
-  </si>
-  <si>
-    <t>具体要求</t>
-  </si>
-  <si>
-    <t>计划周期</t>
-  </si>
-  <si>
-    <t>详细安排</t>
-  </si>
-  <si>
-    <t>每天两节</t>
-  </si>
-  <si>
-    <t>和TS穿插进行，每天两个知识点</t>
+    <t>架构</t>
+  </si>
+  <si>
+    <t>自动化部署git操作流，打包，部署实现，运维方面</t>
+  </si>
+  <si>
+    <t>vue/cli和react/cli  ，vite</t>
+  </si>
+  <si>
+    <t>1周（axios原理，路由，webpack）</t>
+  </si>
+  <si>
+    <t>vue3原理</t>
+  </si>
+  <si>
+    <t>1周</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>活动清单(4月19日)</t>
+  </si>
+  <si>
+    <t>●●●●●●</t>
+  </si>
+  <si>
+    <t>活动清单(4月20日)</t>
+  </si>
+  <si>
+    <t>活动清单(4月24日)</t>
+  </si>
+  <si>
+    <t>活动清单(4月25日)</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>项目整理</t>
+  </si>
+  <si>
+    <t>活动清单(5月9日)</t>
+  </si>
+  <si>
+    <t>vue3学习</t>
+  </si>
+  <si>
+    <t>活动清单(5月10日)</t>
+  </si>
+  <si>
+    <t>活动清单(5月11日)</t>
+  </si>
+  <si>
+    <t>活动清单(5月12日)</t>
+  </si>
+  <si>
+    <t>vue3实战项目</t>
   </si>
 </sst>
 </file>
@@ -682,16 +768,8 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -717,6 +795,37 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,14 +864,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,12 +989,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1082,92 +1189,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="32">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1213,6 +1240,24 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1239,6 +1284,203 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1354,10 +1596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1366,174 +1608,243 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,52 +1856,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1599,16 +1889,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1959,1329 +2249,1329 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="31"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="47"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="1" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="49"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="50"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="56" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="38">
+      <c r="A28" s="54">
         <v>44536</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="55">
         <v>0.395833333333333</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="29">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="29">
         <v>1</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="40"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="14"/>
-      <c r="B29" s="39">
+      <c r="A29" s="37"/>
+      <c r="B29" s="55">
         <v>0.416666666666667</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="29">
         <v>2</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="29">
         <v>3</v>
       </c>
-      <c r="J29" s="40"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="14"/>
-      <c r="B30" s="39">
+      <c r="A30" s="37"/>
+      <c r="B30" s="55">
         <v>0.5625</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="29">
         <v>3</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="29">
         <v>3</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="14"/>
-      <c r="B31" s="39"/>
-      <c r="D31" s="3" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="55"/>
+      <c r="D31" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="29">
         <v>4</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="29">
         <v>4</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="14"/>
-      <c r="J32" s="40"/>
+      <c r="A32" s="37"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="34"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="29" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="9"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="49"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="34"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="50"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="6"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="34"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="10">
+      <c r="A50" s="7">
         <v>0.4375</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="9"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="10">
+      <c r="A51" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="9"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="9"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="10">
+      <c r="A53" s="7">
         <v>0.659722222222222</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="9"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="7"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="9"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="7"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="9"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="9"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="34"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="50"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="38">
+      <c r="A62" s="54">
         <v>44536</v>
       </c>
-      <c r="B62" s="39">
+      <c r="B62" s="55">
         <v>0.395833333333333</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="29">
         <v>1</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="29">
         <v>1</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="14"/>
-      <c r="B63" s="39">
+      <c r="A63" s="37"/>
+      <c r="B63" s="55">
         <v>0.416666666666667</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="29">
         <v>2</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="14"/>
-      <c r="B64" s="39">
+      <c r="A64" s="37"/>
+      <c r="B64" s="55">
         <v>0.5625</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="29">
         <v>3</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="14"/>
-      <c r="B65" s="39"/>
-      <c r="D65" s="3" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="55"/>
+      <c r="D65" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="29">
         <v>4</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="14"/>
+      <c r="A66" s="37"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="29" t="s">
+      <c r="B70" s="33"/>
+      <c r="C70" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="3" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="9"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="9"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="9"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="6"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="9"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="6"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="33"/>
+      <c r="C81" s="49"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="34"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="50"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="6"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="34"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="9"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="10"/>
-      <c r="B86" s="3" t="s">
+      <c r="A86" s="7"/>
+      <c r="B86" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="9"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="10"/>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="9"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="10">
+      <c r="A88" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="9"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="10"/>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="7"/>
+      <c r="B89" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="9"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="7"/>
-      <c r="B90" s="3" t="s">
+      <c r="A90" s="4"/>
+      <c r="B90" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="9"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="7"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="9"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="9"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C93" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="32" t="s">
+      <c r="D93" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="16"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="34"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="50"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="I97" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="38">
+      <c r="A98" s="54">
         <v>44536</v>
       </c>
-      <c r="B98" s="39">
+      <c r="B98" s="55">
         <v>0.395833333333333</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="29">
         <v>2</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="29">
         <v>4</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="14"/>
-      <c r="B99" s="39">
+      <c r="A99" s="37"/>
+      <c r="B99" s="55">
         <v>0.416666666666667</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="29">
         <v>2</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="14"/>
-      <c r="B100" s="39">
+      <c r="A100" s="37"/>
+      <c r="B100" s="55">
         <v>0.5625</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="29">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="14"/>
-      <c r="B101" s="39"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="55"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="14"/>
+      <c r="A102" s="37"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="16"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="29" t="s">
+      <c r="B105" s="33"/>
+      <c r="C105" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="10">
+      <c r="A107" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="31" t="s">
+      <c r="C107" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="3" t="s">
+      <c r="A108" s="4"/>
+      <c r="B108" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="47" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="3" t="s">
+      <c r="A109" s="4"/>
+      <c r="B109" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="47" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="3" t="s">
+      <c r="A110" s="4"/>
+      <c r="B110" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="47" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="3" t="s">
+      <c r="A111" s="4"/>
+      <c r="B111" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="9"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="6"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="9"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="6"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="9"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="6"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="9"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="6"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="33"/>
+      <c r="C116" s="49"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="17"/>
-      <c r="C117" s="34"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="50"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="6"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="34"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="9"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="10">
+      <c r="A121" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="37" t="s">
+      <c r="C121" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="9"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="10">
+      <c r="A122" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="37" t="s">
+      <c r="C122" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="9"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="37" t="s">
+      <c r="C123" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E123" s="9"/>
+      <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="10">
+      <c r="A124" s="7">
         <v>0.659722222222222</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="37" t="s">
+      <c r="C124" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="9"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="7"/>
-      <c r="B125" s="3" t="s">
+      <c r="A125" s="4"/>
+      <c r="B125" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="9"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="7"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="9"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="9"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="B128" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="32" t="s">
+      <c r="C128" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="32" t="s">
+      <c r="D128" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="33" t="s">
+      <c r="E128" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="16"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="34"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="50"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="35" t="s">
+      <c r="A131" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="36"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
+      <c r="I131" s="52"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I132" s="3" t="s">
+      <c r="I132" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="38">
+      <c r="A133" s="54">
         <v>44536</v>
       </c>
-      <c r="B133" s="39">
+      <c r="B133" s="55">
         <v>0.395833333333333</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="29">
         <v>1</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="29">
         <v>1</v>
       </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="14"/>
-      <c r="B134" s="39">
+      <c r="A134" s="37"/>
+      <c r="B134" s="55">
         <v>0.416666666666667</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="29">
         <v>2</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="29">
         <v>3</v>
       </c>
       <c r="G134">
@@ -3289,397 +3579,397 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="14"/>
-      <c r="B135" s="39">
+      <c r="A135" s="37"/>
+      <c r="B135" s="55">
         <v>0.5625</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="29">
         <v>3</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="14"/>
-      <c r="B136" s="39">
+      <c r="A136" s="37"/>
+      <c r="B136" s="55">
         <v>0.659722222222222</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="29">
         <v>4</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="14"/>
+      <c r="A137" s="37"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="16"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17">
+      <c r="A138" s="39"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="40"/>
+      <c r="F138" s="40">
         <v>11</v>
       </c>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="29" t="s">
+      <c r="B140" s="33"/>
+      <c r="C140" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="10">
+      <c r="A142" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="31" t="s">
+      <c r="C142" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="10">
+      <c r="A143" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="31" t="s">
+      <c r="C143" s="47" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="10">
+      <c r="A144" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="10">
+      <c r="A145" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="31" t="s">
+      <c r="C145" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="7"/>
-      <c r="B146" s="3" t="s">
+      <c r="A146" s="4"/>
+      <c r="B146" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="31" t="s">
+      <c r="C146" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="7"/>
-      <c r="B147" s="3" t="s">
+      <c r="A147" s="4"/>
+      <c r="B147" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="31" t="s">
+      <c r="C147" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="7"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="9"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="6"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="9"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="6"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="7"/>
-      <c r="B150" s="3" t="s">
+      <c r="A150" s="4"/>
+      <c r="B150" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="31" t="s">
+      <c r="C150" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="7"/>
-      <c r="B151" s="3" t="s">
+      <c r="A151" s="4"/>
+      <c r="B151" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C151" s="9"/>
+      <c r="C151" s="6"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="7"/>
-      <c r="B152" s="3" t="s">
+      <c r="A152" s="4"/>
+      <c r="B152" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C152" s="9"/>
+      <c r="C152" s="6"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="7"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="9"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="6"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="9"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="6"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B155" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="33"/>
+      <c r="C155" s="49"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="16"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="34"/>
+      <c r="A156" s="39"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="50"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="35" t="s">
+      <c r="A158" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="36"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="6"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="52"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="34"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E159" s="9"/>
+      <c r="E159" s="6"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="10">
+      <c r="A160" s="7">
         <v>0.440972222222222</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="37" t="s">
+      <c r="C160" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="9"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="6"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="10">
+      <c r="A161" s="7">
         <v>0.461805555555556</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="37" t="s">
+      <c r="C161" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="9"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="6"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="10">
+      <c r="A162" s="7">
         <v>0.65625</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="37" t="s">
+      <c r="C162" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D162" s="3"/>
-      <c r="E162" s="9"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="6"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="7"/>
-      <c r="B163" s="3" t="s">
+      <c r="A163" s="4"/>
+      <c r="B163" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="9"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="6"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="7"/>
-      <c r="B164" s="3" t="s">
+      <c r="A164" s="4"/>
+      <c r="B164" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="9"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="6"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="7"/>
-      <c r="B165" s="3" t="s">
+      <c r="A165" s="4"/>
+      <c r="B165" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="9"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="6"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="7"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="9"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="6"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="9"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="6"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="32" t="s">
+      <c r="B168" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="32" t="s">
+      <c r="C168" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="32" t="s">
+      <c r="D168" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="33" t="s">
+      <c r="E168" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="16"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="34"/>
+      <c r="A169" s="39"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="50"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="35" t="s">
+      <c r="A171" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="36"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="36"/>
-      <c r="H171" s="36"/>
-      <c r="I171" s="36"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="52"/>
+      <c r="D171" s="52"/>
+      <c r="E171" s="52"/>
+      <c r="F171" s="52"/>
+      <c r="G171" s="52"/>
+      <c r="H171" s="52"/>
+      <c r="I171" s="52"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="G172" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H172" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I172" s="3" t="s">
+      <c r="I172" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="38">
+      <c r="A173" s="54">
         <v>44536</v>
       </c>
-      <c r="B173" s="39">
+      <c r="B173" s="55">
         <v>0.440972222222222</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="29">
         <v>1</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="29">
         <v>1</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G173" s="29">
         <v>0</v>
       </c>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
+      <c r="H173" s="29"/>
+      <c r="I173" s="29"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="14"/>
-      <c r="B174" s="41">
+      <c r="A174" s="37"/>
+      <c r="B174" s="57">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -3699,8 +3989,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="14"/>
-      <c r="B175" s="41">
+      <c r="A175" s="37"/>
+      <c r="B175" s="57">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -3765,7 +4055,7 @@
   <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A167" sqref="A167:D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -3777,1725 +4067,1725 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>0.0416666666666667</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>0.0833333333333333</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>0.125</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>0.166666666666667</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="37"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>0.4375</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>0.541666666666667</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="14"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="37"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
     </row>
     <row r="32" ht="16.35"/>
     <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10">
+      <c r="A35" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10">
+      <c r="A36" s="7">
         <v>0.541666666666667</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10">
+      <c r="A37" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>0.541666666666667</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10">
+      <c r="A39" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10">
+      <c r="A40" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="9"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="14"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="37"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" ht="16.35"/>
     <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="10">
+      <c r="A51" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="10">
+      <c r="A52" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="10">
+      <c r="A53" s="7">
         <v>0.4375</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="10">
+      <c r="A54" s="7">
         <v>0.541666666666667</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="10">
+      <c r="A55" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="9"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="10">
+      <c r="A56" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="9"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="9"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="9"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="9"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="14"/>
-      <c r="D62" s="9"/>
+      <c r="A62" s="37"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
     </row>
     <row r="64" ht="16.35"/>
     <row r="65" spans="1:4">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="6"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="10">
+      <c r="A67" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="10">
+      <c r="A68" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="10">
+      <c r="A69" s="7">
         <v>0.4375</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="9"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="10">
+      <c r="A70" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="10">
+      <c r="A71" s="7">
         <v>0.625</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="9"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="10"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="9"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="19">
+      <c r="A77" s="24">
         <v>0.395833333333333</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="9"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="9"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" ht="16.35" spans="1:4">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="18"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="41"/>
     </row>
     <row r="80" ht="16.35"/>
     <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5" t="s">
+      <c r="B81" s="33"/>
+      <c r="C81" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="6"/>
+      <c r="D81" s="34"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="10">
+      <c r="A83" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="10">
+      <c r="A84" s="7">
         <v>0.541666666666667</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="10">
+      <c r="A85" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="9"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="10">
+      <c r="A86" s="7">
         <v>0.625</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="10">
+      <c r="A87" s="7">
         <v>0.625</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="9"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="10">
+      <c r="A88" s="7">
         <v>0.625</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="9"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="10"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="9"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="9"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="9"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="9"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="9"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="19">
+      <c r="A94" s="24">
         <v>0.395833333333333</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D94" s="9"/>
+      <c r="D94" s="6"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="19">
+      <c r="A95" s="24">
         <v>0.541666666666667</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="9"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="22">
+      <c r="A96" s="44">
         <v>0.583333333333333</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="18"/>
+      <c r="D96" s="41"/>
     </row>
     <row r="98" ht="16.35"/>
     <row r="99" spans="1:4">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="33"/>
+      <c r="C99" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="6"/>
+      <c r="D99" s="34"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="10">
+      <c r="A101" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D101" s="9"/>
+      <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="10">
+      <c r="A102" s="7">
         <v>0.541666666666667</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D102" s="9"/>
+      <c r="D102" s="6"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="10">
+      <c r="A103" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D103" s="9"/>
+      <c r="D103" s="6"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="10">
+      <c r="A104" s="7">
         <v>0.625</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D104" s="9"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="10"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="9"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="9"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="9"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="9"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D109" s="9"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="19">
+      <c r="A110" s="24">
         <v>0.395833333333333</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="9"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="19">
+      <c r="A111" s="24">
         <v>0.541666666666667</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D111" s="9"/>
+      <c r="D111" s="6"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="22">
+      <c r="A112" s="44">
         <v>0.583333333333333</v>
       </c>
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="18"/>
+      <c r="D112" s="41"/>
     </row>
     <row r="113" ht="16.35"/>
     <row r="114" spans="1:4">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="33"/>
+      <c r="C114" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="6"/>
+      <c r="D114" s="34"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="10">
+      <c r="A116" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D116" s="9"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="10">
+      <c r="A117" s="7">
         <v>0.541666666666667</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D117" s="9"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="10">
+      <c r="A118" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D118" s="9"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="10">
+      <c r="A119" s="7">
         <v>0.625</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D119" s="9"/>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="10"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="9"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="9"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="9"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="9"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="9"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="19">
+      <c r="A125" s="24">
         <v>0.395833333333333</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D125" s="9"/>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="19">
+      <c r="A126" s="24">
         <v>0.541666666666667</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="9"/>
+      <c r="D126" s="6"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="22">
+      <c r="A127" s="44">
         <v>0.583333333333333</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="18"/>
+      <c r="D127" s="41"/>
     </row>
     <row r="128" ht="16.35"/>
     <row r="129" spans="1:4">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5" t="s">
+      <c r="B129" s="33"/>
+      <c r="C129" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="6"/>
+      <c r="D129" s="34"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="10">
+      <c r="A131" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D131" s="9"/>
+      <c r="D131" s="6"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="10">
+      <c r="A132" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="9"/>
+      <c r="D132" s="6"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="10">
+      <c r="A133" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D133" s="9"/>
+      <c r="D133" s="6"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="10">
+      <c r="A134" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D134" s="9"/>
+      <c r="D134" s="6"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="10">
+      <c r="A135" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D135" s="9"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="9"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="7"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="9"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="9"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D139" s="9"/>
+      <c r="D139" s="6"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="19">
+      <c r="A140" s="24">
         <v>0.395833333333333</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D140" s="9"/>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="19">
+      <c r="A141" s="24">
         <v>0.541666666666667</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D141" s="9"/>
+      <c r="D141" s="6"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="22">
+      <c r="A142" s="44">
         <v>0.583333333333333</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="B142" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="18"/>
+      <c r="D142" s="41"/>
     </row>
     <row r="143" ht="16.35"/>
     <row r="144" spans="1:4">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5" t="s">
+      <c r="B144" s="33"/>
+      <c r="C144" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="6"/>
+      <c r="D144" s="34"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="10">
+      <c r="A146" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D146" s="9"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="10">
+      <c r="A147" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D147" s="9"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="10">
+      <c r="A148" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D148" s="9"/>
+      <c r="D148" s="6"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="10">
+      <c r="A149" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D149" s="9"/>
+      <c r="D149" s="6"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="10">
+      <c r="A150" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="9"/>
+      <c r="D150" s="6"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="9"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="7"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="9"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="9"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D154" s="9"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="19">
+      <c r="A155" s="24">
         <v>0.395833333333333</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D155" s="9"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="19">
+      <c r="A156" s="24">
         <v>0.541666666666667</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D156" s="9"/>
+      <c r="D156" s="6"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="22">
+      <c r="A157" s="44">
         <v>0.583333333333333</v>
       </c>
-      <c r="B157" s="21" t="s">
+      <c r="B157" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="18"/>
+      <c r="D157" s="41"/>
     </row>
     <row r="158" ht="16.35"/>
     <row r="159" spans="1:4">
-      <c r="A159" s="23" t="s">
+      <c r="A159" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24" t="s">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D159" s="25"/>
+      <c r="D159" s="3"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="10">
+      <c r="A161" s="7">
         <v>0.4375</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="10">
+      <c r="A162" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="10">
+      <c r="A163" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="10">
+      <c r="A164" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="165" ht="16.35" spans="1:4">
-      <c r="A165" s="26"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
-      <c r="D165" s="28"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="11"/>
     </row>
     <row r="166" ht="16.35"/>
     <row r="167" spans="1:4">
-      <c r="A167" s="23" t="s">
+      <c r="A167" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B167" s="24"/>
-      <c r="C167" s="24" t="s">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D167" s="25"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="10">
+      <c r="A169" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D169" s="9"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="10">
+      <c r="A170" s="7">
         <v>0.4375</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D170" s="9"/>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="10">
+      <c r="A171" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D171" s="9"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="10">
+      <c r="A172" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D172" s="9"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="10">
+      <c r="A173" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D173" s="9"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="174" ht="16.35" spans="1:4">
-      <c r="A174" s="26"/>
-      <c r="B174" s="27"/>
-      <c r="C174" s="27"/>
-      <c r="D174" s="28"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -5542,123 +5832,209 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.3" customWidth="1"/>
-    <col min="2" max="2" width="40.3" customWidth="1"/>
-    <col min="3" max="3" width="16.2" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="24.9" customWidth="1"/>
+    <col min="5" max="5" width="29.6" customWidth="1"/>
+    <col min="6" max="6" width="14.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D2" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E2" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F2" s="28" t="s">
         <v>128</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>133</v>
+      <c r="A6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>137</v>
+      <c r="A7" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>139</v>
+      <c r="A9" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="29"/>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="29"/>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5666,157 +6042,717 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.1" customWidth="1"/>
+    <col min="2" max="2" width="17.9" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="16.35" spans="1:4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="10" ht="16.35"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="16.35" spans="1:4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" ht="16.35"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" ht="16.35" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" ht="16.35"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="24">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" ht="16.35" spans="1:4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="22.3" customWidth="1"/>
-    <col min="4" max="4" width="16.9" customWidth="1"/>
-    <col min="5" max="5" width="29.6" customWidth="1"/>
+    <col min="1" max="1" width="16.7" customWidth="1"/>
+    <col min="2" max="2" width="16.2" customWidth="1"/>
+    <col min="3" max="3" width="17.7" customWidth="1"/>
+    <col min="4" max="4" width="16.3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A4" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="A5" s="7">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="A6" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="16.35" spans="1:4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" ht="16.35"/>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>122</v>
+      <c r="A10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="3"/>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="16.35" spans="1:4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" ht="16.35"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" ht="16.35" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" ht="16.35"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="18">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="18">
+        <v>0.5625</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" ht="16.35" spans="1:4">
+      <c r="A32" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="23"/>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12660" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="学习计划" sheetId="9" r:id="rId3"/>
     <sheet name="4月" sheetId="10" r:id="rId4"/>
     <sheet name="5月" sheetId="11" r:id="rId5"/>
+    <sheet name="8月" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="180">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -652,8 +653,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，一个大屏项目，一个后台项目</t>
+      <t>，</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个大屏项目，一个后台项目</t>
+    </r>
   </si>
   <si>
     <t>2周+ 3周 + 1月</t>
@@ -719,6 +730,30 @@
     <t>https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
+    <t>vue3课程列表</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
     <t>活动清单(4月19日)</t>
   </si>
   <si>
@@ -756,12 +791,24 @@
   </si>
   <si>
     <t>vue3实战项目</t>
+  </si>
+  <si>
+    <t>活动清单(8月1日)</t>
+  </si>
+  <si>
+    <t>需求开发</t>
+  </si>
+  <si>
+    <t>设计模式</t>
+  </si>
+  <si>
+    <t>react学习</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -841,47 +888,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,6 +932,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -971,7 +997,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,55 +1051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,31 +1075,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,6 +1111,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1130,7 +1135,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,7 +1183,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,6 +1214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,21 +1539,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1535,6 +1567,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1593,148 +1640,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1832,7 +1879,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1916,52 +1963,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -5832,10 +5879,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -6026,12 +6073,59 @@
         <v>78</v>
       </c>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E13" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A19" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A20" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A21" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A22" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A23" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A24" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A25" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6058,7 +6152,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -6124,7 +6218,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -6143,7 +6237,7 @@
     <row r="10" ht="16.35"/>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -6197,7 +6291,7 @@
         <v>114</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -6216,7 +6310,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -6274,10 +6368,10 @@
         <v>114</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6295,7 +6389,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -6322,7 +6416,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>79</v>
@@ -6346,7 +6440,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>79</v>
@@ -6361,7 +6455,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D32" s="6"/>
     </row>
@@ -6398,8 +6492,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -6412,7 +6506,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -6439,7 +6533,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>76</v>
@@ -6463,7 +6557,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>81</v>
@@ -6475,7 +6569,7 @@
         <v>0.625</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>77</v>
@@ -6497,7 +6591,7 @@
     <row r="9" ht="16.35"/>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -6524,7 +6618,7 @@
         <v>0.375</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>77</v>
@@ -6552,7 +6646,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>81</v>
@@ -6566,7 +6660,7 @@
         <v>0.625</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>77</v>
@@ -6588,7 +6682,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -6615,7 +6709,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>76</v>
@@ -6643,7 +6737,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>81</v>
@@ -6657,7 +6751,7 @@
         <v>0.625</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>77</v>
@@ -6673,7 +6767,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
@@ -6700,7 +6794,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>76</v>
@@ -6724,7 +6818,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>81</v>
@@ -6736,7 +6830,7 @@
         <v>0.625</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>77</v>
@@ -6756,4 +6850,103 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.3" customWidth="1"/>
+    <col min="2" max="2" width="17.7" customWidth="1"/>
+    <col min="3" max="3" width="18.2" customWidth="1"/>
+    <col min="4" max="4" width="15.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="16.35" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="5"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="4月" sheetId="10" r:id="rId4"/>
     <sheet name="5月" sheetId="11" r:id="rId5"/>
     <sheet name="8月" sheetId="12" r:id="rId6"/>
+    <sheet name="9月" sheetId="13" r:id="rId7"/>
+    <sheet name="10月" sheetId="15" r:id="rId8"/>
+    <sheet name="摄影学习计划" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="237">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -685,13 +688,22 @@
     <t>7月，8月</t>
   </si>
   <si>
+    <t>设计模式</t>
+  </si>
+  <si>
+    <t>2周</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1MP4y127kd?p=12</t>
+  </si>
+  <si>
     <t>低代码平台</t>
   </si>
   <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>微服务</t>
+    <t>微服务，单点登录</t>
   </si>
   <si>
     <t>10月</t>
@@ -706,6 +718,9 @@
     <t>11月，12月</t>
   </si>
   <si>
+    <t>react后台项目整合-&gt;多系统单点登录--&gt;乾坤</t>
+  </si>
+  <si>
     <t>跨端，react-native, futter</t>
   </si>
   <si>
@@ -730,6 +745,12 @@
     <t>https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
+    <t>JS插件开发，封装API,组件库</t>
+  </si>
+  <si>
+    <t>直播</t>
+  </si>
+  <si>
     <t>vue3课程列表</t>
   </si>
   <si>
@@ -754,6 +775,21 @@
     <t>https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
+    <t>react课程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>CRM课程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
     <t>活动清单(4月19日)</t>
   </si>
   <si>
@@ -799,10 +835,148 @@
     <t>需求开发</t>
   </si>
   <si>
-    <t>设计模式</t>
-  </si>
-  <si>
     <t>react学习</t>
+  </si>
+  <si>
+    <t>活动清单(9月11日)</t>
+  </si>
+  <si>
+    <t>组合模式</t>
+  </si>
+  <si>
+    <t>享元模式</t>
+  </si>
+  <si>
+    <t>观察者模式</t>
+  </si>
+  <si>
+    <t>状态模式</t>
+  </si>
+  <si>
+    <t>策略模式</t>
+  </si>
+  <si>
+    <t>14-19</t>
+  </si>
+  <si>
+    <t>20-26</t>
+  </si>
+  <si>
+    <t>27-34</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>小红书列表页实现</t>
+  </si>
+  <si>
+    <t>jquery封装</t>
+  </si>
+  <si>
+    <t>API封装</t>
+  </si>
+  <si>
+    <t>抖音视频列表播放</t>
+  </si>
+  <si>
+    <t>直播实现</t>
+  </si>
+  <si>
+    <t>摄影专业</t>
+  </si>
+  <si>
+    <t>插画专业</t>
+  </si>
+  <si>
+    <t>课程列表</t>
+  </si>
+  <si>
+    <t>大学摄影基础</t>
+  </si>
+  <si>
+    <t>慕课网</t>
+  </si>
+  <si>
+    <t>色彩与平面构成</t>
+  </si>
+  <si>
+    <t>人像摄影基础</t>
+  </si>
+  <si>
+    <t>设计素描</t>
+  </si>
+  <si>
+    <t>中国摄影历史</t>
+  </si>
+  <si>
+    <t>世界摄影史</t>
+  </si>
+  <si>
+    <t>摄影技术与技巧</t>
+  </si>
+  <si>
+    <t>摄影造型</t>
+  </si>
+  <si>
+    <t>曝光控制与影调调节</t>
+  </si>
+  <si>
+    <t>摄影构图</t>
+  </si>
+  <si>
+    <t>感光材料的原理与应用</t>
+  </si>
+  <si>
+    <t>影视画面构成</t>
+  </si>
+  <si>
+    <t>影视调色基础</t>
+  </si>
+  <si>
+    <t>影视色彩学</t>
+  </si>
+  <si>
+    <t>摄影基础</t>
+  </si>
+  <si>
+    <t>摄影构成</t>
+  </si>
+  <si>
+    <t>数码摄影</t>
+  </si>
+  <si>
+    <t>黑白摄影</t>
+  </si>
+  <si>
+    <t>影像基础</t>
+  </si>
+  <si>
+    <t>创意摄影</t>
+  </si>
+  <si>
+    <t>广告摄影</t>
+  </si>
+  <si>
+    <t>纪实摄影</t>
+  </si>
+  <si>
+    <t>黑白影像基础与感光测定</t>
+  </si>
+  <si>
+    <t>光线与彩色</t>
+  </si>
+  <si>
+    <t>摄影视觉与操作基础</t>
+  </si>
+  <si>
+    <t>短视频拍摄创作实战教程</t>
+  </si>
+  <si>
+    <t>https://www.51zxw.net/List.aspx?cid=1094</t>
+  </si>
+  <si>
+    <t>摄影艺术创作</t>
   </si>
 </sst>
 </file>
@@ -815,12 +989,34 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,11 +1064,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -886,14 +1081,6 @@
       <color theme="1"/>
       <name val="Wingdings 2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1036,12 +1223,30 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1213,12 +1418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1305,7 +1504,27 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -1315,7 +1534,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1331,7 +1550,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -1507,26 +1726,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1655,144 +1854,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1810,10 +2030,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1822,76 +2042,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1903,49 +2138,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2296,1329 +2525,1329 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="57"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" customFormat="1" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" customFormat="1" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="59"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="50"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="60"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="50"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="34"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="56" t="s">
+      <c r="J27" s="66" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="54">
+      <c r="A28" s="64">
         <v>44536</v>
       </c>
-      <c r="B28" s="55">
+      <c r="B28" s="65">
         <v>0.395833333333333</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="56"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="37"/>
-      <c r="B29" s="55">
+      <c r="A29" s="49"/>
+      <c r="B29" s="65">
         <v>0.416666666666667</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="56"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="37"/>
-      <c r="B30" s="55">
+      <c r="A30" s="49"/>
+      <c r="B30" s="65">
         <v>0.5625</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="56"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="37"/>
-      <c r="B31" s="55"/>
-      <c r="D31" s="29" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="65"/>
+      <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="1">
         <v>4</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="J31" s="56"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="37"/>
-      <c r="J32" s="56"/>
+      <c r="A32" s="49"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="50"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="45" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="55" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="29" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="29" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="59"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="50"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="60"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="34"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="7">
+      <c r="A50" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="7">
+      <c r="A51" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="7">
+      <c r="A53" s="14">
         <v>0.659722222222222</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="6"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="4"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="6"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="4"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="6"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="6"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="39"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="50"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="60"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="51" t="s">
+      <c r="A60" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="29" t="s">
+      <c r="I61" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="54">
+      <c r="A62" s="64">
         <v>44536</v>
       </c>
-      <c r="B62" s="55">
+      <c r="B62" s="65">
         <v>0.395833333333333</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="1">
         <v>1</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="1">
         <v>1</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="37"/>
-      <c r="B63" s="55">
+      <c r="A63" s="49"/>
+      <c r="B63" s="65">
         <v>0.416666666666667</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="1">
         <v>2</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="37"/>
-      <c r="B64" s="55">
+      <c r="A64" s="49"/>
+      <c r="B64" s="65">
         <v>0.5625</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="1">
         <v>3</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="37"/>
-      <c r="B65" s="55"/>
-      <c r="D65" s="29" t="s">
+      <c r="A65" s="49"/>
+      <c r="B65" s="65"/>
+      <c r="D65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="1">
         <v>4</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F65" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="37"/>
+      <c r="A66" s="49"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="39"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="45" t="s">
+      <c r="B70" s="45"/>
+      <c r="C70" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="29" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="29" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="57" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="29" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="29" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="29" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="6"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="6"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="13"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="6"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="13"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="6"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="49"/>
+      <c r="C81" s="59"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="50"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="60"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="51" t="s">
+      <c r="A84" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="34"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="46"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="6"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="7"/>
-      <c r="B86" s="29" t="s">
+      <c r="A86" s="14"/>
+      <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="53" t="s">
+      <c r="C86" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="6"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="7"/>
-      <c r="B87" s="29" t="s">
+      <c r="A87" s="14"/>
+      <c r="B87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="6"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="7">
+      <c r="A88" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="6"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="7"/>
-      <c r="B89" s="29" t="s">
+      <c r="A89" s="14"/>
+      <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="53"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="6"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="4"/>
-      <c r="B90" s="29" t="s">
+      <c r="A90" s="11"/>
+      <c r="B90" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="6"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="4"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="6"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="6"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="48" t="s">
+      <c r="C93" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="48" t="s">
+      <c r="D93" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E93" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="39"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="50"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="60"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="51" t="s">
+      <c r="A96" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="62"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="29" t="s">
+      <c r="F97" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="29" t="s">
+      <c r="H97" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I97" s="29" t="s">
+      <c r="I97" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="54">
+      <c r="A98" s="64">
         <v>44536</v>
       </c>
-      <c r="B98" s="55">
+      <c r="B98" s="65">
         <v>0.395833333333333</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="D98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E98" s="29">
+      <c r="E98" s="1">
         <v>2</v>
       </c>
-      <c r="F98" s="29">
+      <c r="F98" s="1">
         <v>4</v>
       </c>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="37"/>
-      <c r="B99" s="55">
+      <c r="A99" s="49"/>
+      <c r="B99" s="65">
         <v>0.416666666666667</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="29">
+      <c r="E99" s="1">
         <v>2</v>
       </c>
-      <c r="F99" s="29">
+      <c r="F99" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="37"/>
-      <c r="B100" s="55">
+      <c r="A100" s="49"/>
+      <c r="B100" s="65">
         <v>0.5625</v>
       </c>
-      <c r="D100" s="29" t="s">
+      <c r="D100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E100" s="29">
+      <c r="E100" s="1">
         <v>4</v>
       </c>
-      <c r="F100" s="29">
+      <c r="F100" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="37"/>
-      <c r="B101" s="55"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="65"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="37"/>
+      <c r="A102" s="49"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="39"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="40"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="45" t="s">
+      <c r="B105" s="45"/>
+      <c r="C105" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="7">
+      <c r="A107" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="47" t="s">
+      <c r="C107" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="29" t="s">
+      <c r="A108" s="11"/>
+      <c r="B108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="47" t="s">
+      <c r="C108" s="57" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="29" t="s">
+      <c r="A109" s="11"/>
+      <c r="B109" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="47" t="s">
+      <c r="C109" s="57" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="29" t="s">
+      <c r="A110" s="11"/>
+      <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="47" t="s">
+      <c r="C110" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="29" t="s">
+      <c r="A111" s="11"/>
+      <c r="B111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="47" t="s">
+      <c r="C111" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="6"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="35" t="s">
+      <c r="A113" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="6"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="6"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="13"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="29"/>
-      <c r="C115" s="6"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="13"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="48" t="s">
+      <c r="B116" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="49"/>
+      <c r="C116" s="59"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="40"/>
-      <c r="C117" s="50"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="60"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="51" t="s">
+      <c r="A119" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="52"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="34"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="46"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="29" t="s">
+      <c r="D120" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="6"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="7">
+      <c r="A121" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D121" s="29"/>
-      <c r="E121" s="6"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="13"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="7">
+      <c r="A122" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="53" t="s">
+      <c r="C122" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="6"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="13"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="53" t="s">
+      <c r="C123" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D123" s="29" t="s">
+      <c r="D123" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E123" s="6"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="7">
+      <c r="A124" s="14">
         <v>0.659722222222222</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="53" t="s">
+      <c r="C124" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="6"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="4"/>
-      <c r="B125" s="29" t="s">
+      <c r="A125" s="11"/>
+      <c r="B125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="6"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="4"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="6"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="6"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="48" t="s">
+      <c r="B128" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="48" t="s">
+      <c r="C128" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="48" t="s">
+      <c r="D128" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="49" t="s">
+      <c r="E128" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="39"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="50"/>
+      <c r="A129" s="51"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="60"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="51" t="s">
+      <c r="A131" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="52"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="52"/>
-      <c r="I131" s="52"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="62"/>
+      <c r="H131" s="62"/>
+      <c r="I131" s="62"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C132" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="29" t="s">
+      <c r="D132" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E132" s="29" t="s">
+      <c r="E132" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F132" s="29" t="s">
+      <c r="F132" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G132" s="29" t="s">
+      <c r="G132" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H132" s="29" t="s">
+      <c r="H132" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I132" s="29" t="s">
+      <c r="I132" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="54">
+      <c r="A133" s="64">
         <v>44536</v>
       </c>
-      <c r="B133" s="55">
+      <c r="B133" s="65">
         <v>0.395833333333333</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C133" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D133" s="29" t="s">
+      <c r="D133" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E133" s="29">
+      <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F133" s="29">
+      <c r="F133" s="1">
         <v>1</v>
       </c>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="37"/>
-      <c r="B134" s="55">
+      <c r="A134" s="49"/>
+      <c r="B134" s="65">
         <v>0.416666666666667</v>
       </c>
-      <c r="D134" s="29" t="s">
+      <c r="D134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E134" s="29">
+      <c r="E134" s="1">
         <v>2</v>
       </c>
-      <c r="F134" s="29">
+      <c r="F134" s="1">
         <v>3</v>
       </c>
       <c r="G134">
@@ -3626,397 +3855,397 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="37"/>
-      <c r="B135" s="55">
+      <c r="A135" s="49"/>
+      <c r="B135" s="65">
         <v>0.5625</v>
       </c>
-      <c r="D135" s="29" t="s">
+      <c r="D135" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E135" s="29">
+      <c r="E135" s="1">
         <v>3</v>
       </c>
-      <c r="F135" s="29">
+      <c r="F135" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="37"/>
-      <c r="B136" s="55">
+      <c r="A136" s="49"/>
+      <c r="B136" s="65">
         <v>0.659722222222222</v>
       </c>
-      <c r="D136" s="29" t="s">
+      <c r="D136" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="29">
+      <c r="E136" s="1">
         <v>4</v>
       </c>
-      <c r="F136" s="29">
+      <c r="F136" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="37"/>
+      <c r="A137" s="49"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="39"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="40"/>
-      <c r="F138" s="40">
+      <c r="A138" s="51"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="52">
         <v>11</v>
       </c>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52"/>
+      <c r="I138" s="52"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
-      <c r="A140" s="32" t="s">
+      <c r="A140" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="33"/>
-      <c r="C140" s="45" t="s">
+      <c r="B140" s="45"/>
+      <c r="C140" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="29" t="s">
+      <c r="B141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="7">
+      <c r="A142" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B142" s="29" t="s">
+      <c r="B142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="47" t="s">
+      <c r="C142" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="7">
+      <c r="A143" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="47" t="s">
+      <c r="C143" s="57" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="7">
+      <c r="A144" s="14">
         <v>0.458333333333333</v>
       </c>
-      <c r="B144" s="29" t="s">
+      <c r="B144" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="47" t="s">
+      <c r="C144" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="7">
+      <c r="A145" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="47" t="s">
+      <c r="C145" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="29" t="s">
+      <c r="A146" s="11"/>
+      <c r="B146" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="47" t="s">
+      <c r="C146" s="57" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="29" t="s">
+      <c r="A147" s="11"/>
+      <c r="B147" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="47" t="s">
+      <c r="C147" s="57" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="4"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="6"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="13"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="35" t="s">
+      <c r="A149" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B149" s="29"/>
-      <c r="C149" s="6"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="4"/>
-      <c r="B150" s="29" t="s">
+      <c r="A150" s="11"/>
+      <c r="B150" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="47" t="s">
+      <c r="C150" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="29" t="s">
+      <c r="A151" s="11"/>
+      <c r="B151" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C151" s="6"/>
+      <c r="C151" s="13"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="4"/>
-      <c r="B152" s="29" t="s">
+      <c r="A152" s="11"/>
+      <c r="B152" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C152" s="6"/>
+      <c r="C152" s="13"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="4"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="6"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="13"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="6"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="48" t="s">
+      <c r="B155" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="49"/>
+      <c r="C155" s="59"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="39"/>
-      <c r="B156" s="40"/>
-      <c r="C156" s="50"/>
+      <c r="A156" s="51"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="60"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="51" t="s">
+      <c r="A158" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="52"/>
-      <c r="C158" s="52"/>
-      <c r="D158" s="52"/>
-      <c r="E158" s="34"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="46"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="29" t="s">
+      <c r="B159" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C159" s="29" t="s">
+      <c r="C159" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D159" s="29" t="s">
+      <c r="D159" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E159" s="6"/>
+      <c r="E159" s="13"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="7">
+      <c r="A160" s="14">
         <v>0.440972222222222</v>
       </c>
-      <c r="B160" s="29" t="s">
+      <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="53" t="s">
+      <c r="C160" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D160" s="29"/>
-      <c r="E160" s="6"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="13"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="7">
+      <c r="A161" s="14">
         <v>0.461805555555556</v>
       </c>
-      <c r="B161" s="29" t="s">
+      <c r="B161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="53" t="s">
+      <c r="C161" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D161" s="29"/>
-      <c r="E161" s="6"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="13"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="7">
+      <c r="A162" s="14">
         <v>0.65625</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="53" t="s">
+      <c r="C162" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D162" s="29"/>
-      <c r="E162" s="6"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="13"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="4"/>
-      <c r="B163" s="29" t="s">
+      <c r="A163" s="11"/>
+      <c r="B163" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="6"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="13"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="4"/>
-      <c r="B164" s="29" t="s">
+      <c r="A164" s="11"/>
+      <c r="B164" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="6"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="13"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="4"/>
-      <c r="B165" s="29" t="s">
+      <c r="A165" s="11"/>
+      <c r="B165" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="6"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="13"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="4"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="6"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="13"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="6"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="13"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="48" t="s">
+      <c r="B168" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="48" t="s">
+      <c r="C168" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="48" t="s">
+      <c r="D168" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="49" t="s">
+      <c r="E168" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="39"/>
-      <c r="B169" s="40"/>
-      <c r="C169" s="40"/>
-      <c r="D169" s="40"/>
-      <c r="E169" s="50"/>
+      <c r="A169" s="51"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="52"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="60"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="51" t="s">
+      <c r="A171" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="52"/>
-      <c r="C171" s="52"/>
-      <c r="D171" s="52"/>
-      <c r="E171" s="52"/>
-      <c r="F171" s="52"/>
-      <c r="G171" s="52"/>
-      <c r="H171" s="52"/>
-      <c r="I171" s="52"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="62"/>
+      <c r="D171" s="62"/>
+      <c r="E171" s="62"/>
+      <c r="F171" s="62"/>
+      <c r="G171" s="62"/>
+      <c r="H171" s="62"/>
+      <c r="I171" s="62"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B172" s="29" t="s">
+      <c r="B172" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="29" t="s">
+      <c r="C172" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D172" s="29" t="s">
+      <c r="D172" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E172" s="29" t="s">
+      <c r="E172" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F172" s="29" t="s">
+      <c r="F172" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G172" s="29" t="s">
+      <c r="G172" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H172" s="29" t="s">
+      <c r="H172" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I172" s="29" t="s">
+      <c r="I172" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="54">
+      <c r="A173" s="64">
         <v>44536</v>
       </c>
-      <c r="B173" s="55">
+      <c r="B173" s="65">
         <v>0.440972222222222</v>
       </c>
-      <c r="C173" s="29" t="s">
+      <c r="C173" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D173" s="29" t="s">
+      <c r="D173" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E173" s="29">
+      <c r="E173" s="1">
         <v>1</v>
       </c>
-      <c r="F173" s="29">
+      <c r="F173" s="1">
         <v>1</v>
       </c>
-      <c r="G173" s="29">
+      <c r="G173" s="1">
         <v>0</v>
       </c>
-      <c r="H173" s="29"/>
-      <c r="I173" s="29"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="37"/>
-      <c r="B174" s="57">
+      <c r="A174" s="49"/>
+      <c r="B174" s="67">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -4036,8 +4265,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="37"/>
-      <c r="B175" s="57">
+      <c r="A175" s="49"/>
+      <c r="B175" s="67">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -4114,1725 +4343,1725 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
+      <c r="A3" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="14">
         <v>0.0416666666666667</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7">
+      <c r="A5" s="14">
         <v>0.0833333333333333</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="A6" s="14">
         <v>0.125</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7">
+      <c r="A7" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="37"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="49"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7">
+      <c r="A19" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7">
+      <c r="A20" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7">
+      <c r="A21" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7">
+      <c r="A22" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7">
+      <c r="A23" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7">
+      <c r="A24" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="37"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="49"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" ht="16.35"/>
     <row r="33" spans="1:4">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="34"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="7">
+      <c r="A35" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7">
+      <c r="A36" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7">
+      <c r="A37" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="7">
+      <c r="A38" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="7">
+      <c r="A39" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7">
+      <c r="A40" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="37"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="49"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
     </row>
     <row r="48" ht="16.35"/>
     <row r="49" spans="1:4">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33" t="s">
+      <c r="B49" s="45"/>
+      <c r="C49" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="7">
+      <c r="A51" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="7">
+      <c r="A52" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="7">
+      <c r="A53" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="7">
+      <c r="A54" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="7">
+      <c r="A55" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="7">
+      <c r="A56" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="37"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="49"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="39"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="41"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" ht="16.35"/>
     <row r="65" spans="1:4">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33" t="s">
+      <c r="B65" s="45"/>
+      <c r="C65" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="34"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="7">
+      <c r="A67" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="7">
+      <c r="A68" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="7">
+      <c r="A69" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="7">
+      <c r="A70" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="7">
+      <c r="A71" s="14">
         <v>0.625</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="7"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="24">
+      <c r="A77" s="35">
         <v>0.395833333333333</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="6"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" ht="16.35" spans="1:4">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="41"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="53"/>
     </row>
     <row r="80" ht="16.35"/>
     <row r="81" spans="1:4">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33" t="s">
+      <c r="B81" s="45"/>
+      <c r="C81" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="34"/>
+      <c r="D81" s="46"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="7">
+      <c r="A83" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="7">
+      <c r="A84" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="7">
+      <c r="A85" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="6"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="7">
+      <c r="A86" s="14">
         <v>0.625</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="7">
+      <c r="A87" s="14">
         <v>0.625</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="6"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="7">
+      <c r="A88" s="14">
         <v>0.625</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="6"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="7"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="6"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="24">
+      <c r="A94" s="35">
         <v>0.395833333333333</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D94" s="6"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="24">
+      <c r="A95" s="35">
         <v>0.541666666666667</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="44">
+      <c r="A96" s="54">
         <v>0.583333333333333</v>
       </c>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="41"/>
+      <c r="D96" s="53"/>
     </row>
     <row r="98" ht="16.35"/>
     <row r="99" spans="1:4">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33" t="s">
+      <c r="B99" s="45"/>
+      <c r="C99" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="34"/>
+      <c r="D99" s="46"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="7">
+      <c r="A101" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D101" s="6"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="7">
+      <c r="A102" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D102" s="6"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="7">
+      <c r="A103" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="7">
+      <c r="A104" s="14">
         <v>0.625</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D104" s="6"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="7"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="6"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="6"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="6"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="6"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="24">
+      <c r="A110" s="35">
         <v>0.395833333333333</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="24">
+      <c r="A111" s="35">
         <v>0.541666666666667</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D111" s="6"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="44">
+      <c r="A112" s="54">
         <v>0.583333333333333</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="43" t="s">
+      <c r="C112" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="41"/>
+      <c r="D112" s="53"/>
     </row>
     <row r="113" ht="16.35"/>
     <row r="114" spans="1:4">
-      <c r="A114" s="32" t="s">
+      <c r="A114" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33" t="s">
+      <c r="B114" s="45"/>
+      <c r="C114" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="34"/>
+      <c r="D114" s="46"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="7">
+      <c r="A116" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D116" s="6"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="7">
+      <c r="A117" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="13"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="7">
+      <c r="A118" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="7">
+      <c r="A119" s="14">
         <v>0.625</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D119" s="6"/>
+      <c r="D119" s="13"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="7"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="6"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="35" t="s">
+      <c r="A121" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="6"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="13"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="6"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="6"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="6"/>
+      <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="24">
+      <c r="A125" s="35">
         <v>0.395833333333333</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D125" s="6"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="24">
+      <c r="A126" s="35">
         <v>0.541666666666667</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="6"/>
+      <c r="D126" s="13"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="44">
+      <c r="A127" s="54">
         <v>0.583333333333333</v>
       </c>
-      <c r="B127" s="43" t="s">
+      <c r="B127" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="43" t="s">
+      <c r="C127" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="41"/>
+      <c r="D127" s="53"/>
     </row>
     <row r="128" ht="16.35"/>
     <row r="129" spans="1:4">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33" t="s">
+      <c r="B129" s="45"/>
+      <c r="C129" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="34"/>
+      <c r="D129" s="46"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="7">
+      <c r="A131" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D131" s="6"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="7">
+      <c r="A132" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="6"/>
+      <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="7">
+      <c r="A133" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D133" s="6"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="7">
+      <c r="A134" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D134" s="6"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="7">
+      <c r="A135" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D135" s="6"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="35" t="s">
+      <c r="A136" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="6"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="4"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="6"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="13"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="6"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="36" t="s">
+      <c r="C139" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D139" s="6"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="24">
+      <c r="A140" s="35">
         <v>0.395833333333333</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="24">
+      <c r="A141" s="35">
         <v>0.541666666666667</v>
       </c>
-      <c r="B141" s="29" t="s">
+      <c r="B141" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C141" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D141" s="6"/>
+      <c r="D141" s="13"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="44">
+      <c r="A142" s="54">
         <v>0.583333333333333</v>
       </c>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="43" t="s">
+      <c r="C142" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="41"/>
+      <c r="D142" s="53"/>
     </row>
     <row r="143" ht="16.35"/>
     <row r="144" spans="1:4">
-      <c r="A144" s="32" t="s">
+      <c r="A144" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33" t="s">
+      <c r="B144" s="45"/>
+      <c r="C144" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="34"/>
+      <c r="D144" s="46"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="7">
+      <c r="A146" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D146" s="6"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="7">
+      <c r="A147" s="14">
         <v>0.458333333333333</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D147" s="6"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="7">
+      <c r="A148" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D148" s="6"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="7">
+      <c r="A149" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D149" s="6"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="7">
+      <c r="A150" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="35" t="s">
+      <c r="A151" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="6"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="4"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="6"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="6"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="36" t="s">
+      <c r="C154" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D154" s="6"/>
+      <c r="D154" s="13"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="24">
+      <c r="A155" s="35">
         <v>0.395833333333333</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D155" s="6"/>
+      <c r="D155" s="13"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="24">
+      <c r="A156" s="35">
         <v>0.541666666666667</v>
       </c>
-      <c r="B156" s="29" t="s">
+      <c r="B156" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C156" s="29" t="s">
+      <c r="C156" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D156" s="6"/>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="44">
+      <c r="A157" s="54">
         <v>0.583333333333333</v>
       </c>
-      <c r="B157" s="43" t="s">
+      <c r="B157" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C157" s="43" t="s">
+      <c r="C157" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="41"/>
+      <c r="D157" s="53"/>
     </row>
     <row r="158" ht="16.35"/>
     <row r="159" spans="1:4">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2" t="s">
+      <c r="B159" s="9"/>
+      <c r="C159" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D159" s="3"/>
+      <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="7">
+      <c r="A161" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="7">
+      <c r="A162" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="7">
+      <c r="A163" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="7">
+      <c r="A164" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="165" ht="16.35" spans="1:4">
-      <c r="A165" s="9"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="11"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="18"/>
     </row>
     <row r="166" ht="16.35"/>
     <row r="167" spans="1:4">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2" t="s">
+      <c r="B167" s="9"/>
+      <c r="C167" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D167" s="3"/>
+      <c r="D167" s="10"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="7">
+      <c r="A169" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D169" s="6"/>
+      <c r="D169" s="13"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="7">
+      <c r="A170" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D170" s="6"/>
+      <c r="D170" s="13"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="7">
+      <c r="A171" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D171" s="6"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="7">
+      <c r="A172" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D172" s="6"/>
+      <c r="D172" s="13"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="7">
+      <c r="A173" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D173" s="6"/>
+      <c r="D173" s="13"/>
     </row>
     <row r="174" ht="16.35" spans="1:4">
-      <c r="A174" s="9"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="11"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -5879,10 +6108,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -5896,19 +6125,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="37" t="s">
         <v>123</v>
       </c>
       <c r="F1" t="s">
@@ -5916,34 +6145,34 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="39" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E3" t="s">
@@ -5951,22 +6180,22 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E5" t="s">
@@ -5974,158 +6203,215 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="29" t="s">
+      <c r="D8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>146</v>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="D11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="29" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="29"/>
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="29"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>155</v>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="31" t="s">
-        <v>156</v>
+      <c r="A19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="31" t="s">
-        <v>157</v>
+      <c r="A20" s="43" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="31" t="s">
-        <v>158</v>
+      <c r="A21" s="43" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="31" t="s">
-        <v>159</v>
+      <c r="A22" s="43" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="31" t="s">
-        <v>160</v>
+      <c r="A23" s="43" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="31" t="s">
-        <v>161</v>
+      <c r="A24" s="43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="31" t="s">
-        <v>162</v>
+      <c r="A25" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="43" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A19" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A20" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A21" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A22" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A23" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A24" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A25" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="E14" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A20" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A21" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A22" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A23" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A24" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A25" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A26" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A29" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A30" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="E7" r:id="rId11" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
+    <hyperlink ref="A33" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6151,325 +6437,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
+      <c r="A3" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7">
+      <c r="A5" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="A6" s="14">
         <v>0.604166666666667</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="16.35" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="10" ht="16.35"/>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7">
+      <c r="A13" s="14">
         <v>0.375</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7">
+      <c r="A14" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7">
+      <c r="A15" s="14">
         <v>0.604166666666667</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="C15" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" ht="16.35" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="A19" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7">
+      <c r="A21" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7">
+      <c r="A22" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7">
+      <c r="A23" s="14">
         <v>0.604166666666667</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>164</v>
+      <c r="C23" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" ht="16.35" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="24">
+      <c r="A29" s="35">
         <v>0.395833333333333</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7">
+      <c r="A30" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7">
+      <c r="A31" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7">
+      <c r="A32" s="14">
         <v>0.604166666666667</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="6"/>
+      <c r="C32" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" ht="16.35" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6505,337 +6791,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
+      <c r="A3" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7">
+      <c r="A5" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="A6" s="14">
         <v>0.625</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="16.35" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" ht="16.35"/>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7">
+      <c r="A12" s="14">
         <v>0.375</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7">
+      <c r="A13" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7">
+      <c r="A14" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7">
+      <c r="A15" s="14">
         <v>0.625</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" ht="16.35" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="A19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7">
+      <c r="A21" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7">
+      <c r="A22" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7">
+      <c r="A23" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7">
+      <c r="A24" s="14">
         <v>0.625</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" ht="16.35" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
-      <c r="A27" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18">
+      <c r="A29" s="29">
         <v>0.395833333333333</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18">
+      <c r="A30" s="29">
         <v>0.5625</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18">
+      <c r="A31" s="29">
         <v>0.583333333333333</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" ht="16.35" spans="1:4">
-      <c r="A32" s="20">
+      <c r="A32" s="31">
         <v>0.625</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6857,8 +7143,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -6870,76 +7156,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
+      <c r="A3" s="14">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7">
+      <c r="A5" s="14">
         <v>0.583333333333333</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" ht="16.35" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6949,4 +7235,524 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.2" customWidth="1"/>
+    <col min="2" max="2" width="18.6" customWidth="1"/>
+    <col min="3" max="3" width="17.8" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="16.35"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" ht="16.35" spans="1:4">
+      <c r="A10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="19">
+        <v>45180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20">
+        <v>45181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20">
+        <v>45182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20">
+        <v>45183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" ht="16.35"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" ht="16.35" spans="1:4">
+      <c r="A23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.2" customWidth="1"/>
+    <col min="2" max="2" width="27.4" customWidth="1"/>
+    <col min="3" max="3" width="19.6" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" ht="16.35" spans="1:4">
+      <c r="A7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="慕课网"/>
+    <hyperlink ref="B26" r:id="rId2" display="https://www.51zxw.net/List.aspx?cid=1094"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="250">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -700,13 +700,52 @@
     <t>https://www.bilibili.com/video/BV1MP4y127kd?p=12</t>
   </si>
   <si>
+    <t>微服务，单点登录</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>管理系统模板框架完成</t>
+  </si>
+  <si>
+    <t>12月，贯穿</t>
+  </si>
+  <si>
+    <t>vite</t>
+  </si>
+  <si>
+    <t>vite学习，webpack区别</t>
+  </si>
+  <si>
+    <t>12月第一周</t>
+  </si>
+  <si>
+    <t>Vue3，</t>
+  </si>
+  <si>
+    <t>复习面试点，vite项目学习</t>
+  </si>
+  <si>
+    <t>12月，第二周</t>
+  </si>
+  <si>
+    <t>qiankun</t>
+  </si>
+  <si>
+    <t>复习面试点，项目完善</t>
+  </si>
+  <si>
+    <t>12月第三周</t>
+  </si>
+  <si>
+    <t>设计模式，算法</t>
+  </si>
+  <si>
+    <t>刷题，每日两题</t>
+  </si>
+  <si>
     <t>低代码平台</t>
-  </si>
-  <si>
-    <t>微服务，单点登录</t>
-  </si>
-  <si>
-    <t>10月</t>
   </si>
   <si>
     <t>产品思维</t>
@@ -6108,10 +6147,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -6231,187 +6270,253 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="D16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="43" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="43" t="s">
-        <v>165</v>
+      <c r="A23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="43" t="s">
-        <v>167</v>
+      <c r="A24" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="43" t="s">
-        <v>168</v>
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="43" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>169</v>
+      <c r="A28" s="43" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="43" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="43" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="43" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>172</v>
+      <c r="A32" s="43" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="43" t="s">
-        <v>173</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="43" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A20" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A21" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A22" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A23" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A24" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A25" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A26" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A29" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A30" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="E21" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A27" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A28" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A29" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A30" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A31" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A32" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A33" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A36" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A37" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId11" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
-    <hyperlink ref="A33" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A40" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6438,7 +6543,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -6504,7 +6609,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -6523,7 +6628,7 @@
     <row r="10" ht="16.35"/>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -6577,7 +6682,7 @@
         <v>114</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -6596,7 +6701,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -6654,10 +6759,10 @@
         <v>114</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6675,7 +6780,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -6702,7 +6807,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>79</v>
@@ -6726,7 +6831,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>79</v>
@@ -6741,7 +6846,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D32" s="13"/>
     </row>
@@ -6792,7 +6897,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -6819,7 +6924,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -6843,7 +6948,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>81</v>
@@ -6855,7 +6960,7 @@
         <v>0.625</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>77</v>
@@ -6877,7 +6982,7 @@
     <row r="9" ht="16.35"/>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
@@ -6904,7 +7009,7 @@
         <v>0.375</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>77</v>
@@ -6932,7 +7037,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>81</v>
@@ -6946,7 +7051,7 @@
         <v>0.625</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>77</v>
@@ -6968,7 +7073,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -6995,7 +7100,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>76</v>
@@ -7023,7 +7128,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>81</v>
@@ -7037,7 +7142,7 @@
         <v>0.625</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>77</v>
@@ -7053,7 +7158,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="23" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -7080,7 +7185,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>76</v>
@@ -7104,7 +7209,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>81</v>
@@ -7116,7 +7221,7 @@
         <v>0.625</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>77</v>
@@ -7157,7 +7262,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7184,7 +7289,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -7208,10 +7313,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -7257,7 +7362,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -7284,7 +7389,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>79</v>
@@ -7296,7 +7401,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>79</v>
@@ -7308,7 +7413,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>79</v>
@@ -7318,7 +7423,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="12" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>79</v>
@@ -7330,7 +7435,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>79</v>
@@ -7342,7 +7447,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7350,7 +7455,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7358,7 +7463,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7366,13 +7471,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -7399,7 +7504,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>79</v>
@@ -7411,7 +7516,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>79</v>
@@ -7423,7 +7528,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>79</v>
@@ -7433,7 +7538,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="B22" s="12" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>79</v>
@@ -7445,7 +7550,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>79</v>
@@ -7468,7 +7573,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -7481,7 +7586,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7508,7 +7613,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>79</v>
@@ -7520,7 +7625,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -7532,7 +7637,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>79</v>
@@ -7542,7 +7647,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="12" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>79</v>
@@ -7554,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>
@@ -7588,159 +7693,159 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -1262,7 +1262,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1290,6 +1290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,7 +1905,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1923,16 +1929,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1941,89 +1947,89 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2155,6 +2161,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2564,11 +2573,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2588,7 +2597,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="57" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2597,7 +2606,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2606,14 +2615,14 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="57"/>
+      <c r="C6" s="58"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="11"/>
@@ -2621,7 +2630,7 @@
       <c r="C7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
@@ -2643,25 +2652,25 @@
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="60"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="61"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="11" t="s">
@@ -2683,7 +2692,7 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="64" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
@@ -2694,7 +2703,7 @@
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
@@ -2705,14 +2714,14 @@
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="1"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="1"/>
       <c r="E19" s="13"/>
     </row>
@@ -2743,40 +2752,40 @@
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="60"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="46"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="11" t="s">
@@ -2806,15 +2815,15 @@
       <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="66" t="s">
+      <c r="J27" s="67" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="64">
+      <c r="A28" s="65">
         <v>44536</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="66">
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2832,11 +2841,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="66"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="49"/>
-      <c r="B29" s="65">
+      <c r="A29" s="50"/>
+      <c r="B29" s="66">
         <v>0.416666666666667</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2848,11 +2857,11 @@
       <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="66"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="49"/>
-      <c r="B30" s="65">
+      <c r="A30" s="50"/>
+      <c r="B30" s="66">
         <v>0.5625</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2864,11 +2873,11 @@
       <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="66"/>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="49"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="66"/>
       <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2878,31 +2887,31 @@
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="J31" s="66"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="49"/>
-      <c r="J32" s="66"/>
+      <c r="A32" s="50"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="60"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="61"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="55" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="56" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2922,7 +2931,7 @@
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2931,7 +2940,7 @@
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="58" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2940,7 +2949,7 @@
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2949,7 +2958,7 @@
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2959,7 +2968,7 @@
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1"/>
@@ -2981,25 +2990,25 @@
       <c r="A45" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="60"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="60"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="46"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="47"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
@@ -3023,7 +3032,7 @@
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="64" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="1"/>
@@ -3036,7 +3045,7 @@
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="1"/>
@@ -3049,7 +3058,7 @@
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="63"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="1"/>
       <c r="E52" s="13"/>
     </row>
@@ -3060,7 +3069,7 @@
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="1"/>
       <c r="E53" s="13"/>
     </row>
@@ -3091,39 +3100,39 @@
       <c r="A57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E57" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="60"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="61"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
@@ -3155,10 +3164,10 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="64">
+      <c r="A62" s="65">
         <v>44536</v>
       </c>
-      <c r="B62" s="65">
+      <c r="B62" s="66">
         <v>0.395833333333333</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3178,8 +3187,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="49"/>
-      <c r="B63" s="65">
+      <c r="A63" s="50"/>
+      <c r="B63" s="66">
         <v>0.416666666666667</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3193,8 +3202,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="49"/>
-      <c r="B64" s="65">
+      <c r="A64" s="50"/>
+      <c r="B64" s="66">
         <v>0.5625</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3208,8 +3217,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="49"/>
-      <c r="B65" s="65"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="66"/>
       <c r="D65" s="1" t="s">
         <v>36</v>
       </c>
@@ -3221,26 +3230,26 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="49"/>
+      <c r="A66" s="50"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="51"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="55" t="s">
+      <c r="B70" s="46"/>
+      <c r="C70" s="56" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3260,7 +3269,7 @@
       <c r="B72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="58" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3269,7 +3278,7 @@
       <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="57" t="s">
+      <c r="C73" s="58" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3278,7 +3287,7 @@
       <c r="B74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="C74" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3287,7 +3296,7 @@
       <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3296,7 +3305,7 @@
       <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3306,7 +3315,7 @@
       <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1"/>
@@ -3328,25 +3337,25 @@
       <c r="A81" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="59"/>
+      <c r="C81" s="60"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="51"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="60"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="61"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="46"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="47"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="11" t="s">
@@ -3368,7 +3377,7 @@
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C86" s="64" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="1"/>
@@ -3379,7 +3388,7 @@
       <c r="B87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="63" t="s">
+      <c r="C87" s="64" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="1"/>
@@ -3392,7 +3401,7 @@
       <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="64" t="s">
         <v>50</v>
       </c>
       <c r="D88" s="1"/>
@@ -3403,7 +3412,7 @@
       <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="63"/>
+      <c r="C89" s="64"/>
       <c r="D89" s="1"/>
       <c r="E89" s="13"/>
     </row>
@@ -3436,39 +3445,39 @@
       <c r="A93" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="58" t="s">
+      <c r="D93" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="59" t="s">
+      <c r="E93" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="51"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="60"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="61"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="61" t="s">
+      <c r="A96" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="63"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="11" t="s">
@@ -3500,10 +3509,10 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="64">
+      <c r="A98" s="65">
         <v>44536</v>
       </c>
-      <c r="B98" s="65">
+      <c r="B98" s="66">
         <v>0.395833333333333</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3523,8 +3532,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="49"/>
-      <c r="B99" s="65">
+      <c r="A99" s="50"/>
+      <c r="B99" s="66">
         <v>0.416666666666667</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -3538,8 +3547,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="49"/>
-      <c r="B100" s="65">
+      <c r="A100" s="50"/>
+      <c r="B100" s="66">
         <v>0.5625</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -3553,33 +3562,33 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="49"/>
-      <c r="B101" s="65"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="66"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="49"/>
+      <c r="A102" s="50"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="51"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="53"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
-      <c r="A105" s="44" t="s">
+      <c r="A105" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="45"/>
-      <c r="C105" s="55" t="s">
+      <c r="B105" s="46"/>
+      <c r="C105" s="56" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3601,7 +3610,7 @@
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="C107" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3610,7 +3619,7 @@
       <c r="B108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="C108" s="58" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3619,7 +3628,7 @@
       <c r="B109" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="C109" s="58" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3628,7 +3637,7 @@
       <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="C110" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3637,7 +3646,7 @@
       <c r="B111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="57" t="s">
+      <c r="C111" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3647,7 +3656,7 @@
       <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="47" t="s">
+      <c r="A113" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="1"/>
@@ -3669,27 +3678,27 @@
       <c r="A116" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="58" t="s">
+      <c r="B116" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="59"/>
+      <c r="C116" s="60"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="51" t="s">
+      <c r="A117" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="52"/>
-      <c r="C117" s="60"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="61"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="61" t="s">
+      <c r="A119" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="62"/>
-      <c r="C119" s="62"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="46"/>
+      <c r="B119" s="63"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="47"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="11" t="s">
@@ -3713,7 +3722,7 @@
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="63" t="s">
+      <c r="C121" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="1"/>
@@ -3726,7 +3735,7 @@
       <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="63" t="s">
+      <c r="C122" s="64" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1"/>
@@ -3739,7 +3748,7 @@
       <c r="B123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="63" t="s">
+      <c r="C123" s="64" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -3754,7 +3763,7 @@
       <c r="B124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="63" t="s">
+      <c r="C124" s="64" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="1"/>
@@ -3789,39 +3798,39 @@
       <c r="A128" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="58" t="s">
+      <c r="B128" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="58" t="s">
+      <c r="C128" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="58" t="s">
+      <c r="D128" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="59" t="s">
+      <c r="E128" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="51"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="60"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="61"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="61" t="s">
+      <c r="A131" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="62"/>
-      <c r="C131" s="62"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="62"/>
-      <c r="H131" s="62"/>
-      <c r="I131" s="62"/>
+      <c r="B131" s="63"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="63"/>
+      <c r="I131" s="63"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="11" t="s">
@@ -3853,10 +3862,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="64">
+      <c r="A133" s="65">
         <v>44536</v>
       </c>
-      <c r="B133" s="65">
+      <c r="B133" s="66">
         <v>0.395833333333333</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -3876,8 +3885,8 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="49"/>
-      <c r="B134" s="65">
+      <c r="A134" s="50"/>
+      <c r="B134" s="66">
         <v>0.416666666666667</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -3894,8 +3903,8 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="49"/>
-      <c r="B135" s="65">
+      <c r="A135" s="50"/>
+      <c r="B135" s="66">
         <v>0.5625</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -3909,8 +3918,8 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="49"/>
-      <c r="B136" s="65">
+      <c r="A136" s="50"/>
+      <c r="B136" s="66">
         <v>0.659722222222222</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -3924,28 +3933,28 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="49"/>
+      <c r="A137" s="50"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="51"/>
-      <c r="B138" s="52"/>
-      <c r="C138" s="52"/>
-      <c r="D138" s="52"/>
-      <c r="E138" s="52"/>
-      <c r="F138" s="52">
+      <c r="A138" s="52"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="53"/>
+      <c r="F138" s="53">
         <v>11</v>
       </c>
-      <c r="G138" s="52"/>
-      <c r="H138" s="52"/>
-      <c r="I138" s="52"/>
+      <c r="G138" s="53"/>
+      <c r="H138" s="53"/>
+      <c r="I138" s="53"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
-      <c r="A140" s="44" t="s">
+      <c r="A140" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="45"/>
-      <c r="C140" s="55" t="s">
+      <c r="B140" s="46"/>
+      <c r="C140" s="56" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3967,7 +3976,7 @@
       <c r="B142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="57" t="s">
+      <c r="C142" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3978,7 +3987,7 @@
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="57" t="s">
+      <c r="C143" s="58" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3989,7 +3998,7 @@
       <c r="B144" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="57" t="s">
+      <c r="C144" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4000,7 +4009,7 @@
       <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="57" t="s">
+      <c r="C145" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4009,7 +4018,7 @@
       <c r="B146" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="57" t="s">
+      <c r="C146" s="58" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4018,7 +4027,7 @@
       <c r="B147" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="57" t="s">
+      <c r="C147" s="58" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4028,7 +4037,7 @@
       <c r="C148" s="13"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="47" t="s">
+      <c r="A149" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="1"/>
@@ -4039,7 +4048,7 @@
       <c r="B150" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="57" t="s">
+      <c r="C150" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4073,25 +4082,25 @@
       <c r="A155" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="58" t="s">
+      <c r="B155" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="59"/>
+      <c r="C155" s="60"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="51"/>
-      <c r="B156" s="52"/>
-      <c r="C156" s="60"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="61"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="61" t="s">
+      <c r="A158" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="62"/>
-      <c r="C158" s="62"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="46"/>
+      <c r="B158" s="63"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="47"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="11" t="s">
@@ -4115,7 +4124,7 @@
       <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="63" t="s">
+      <c r="C160" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="1"/>
@@ -4128,7 +4137,7 @@
       <c r="B161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="63" t="s">
+      <c r="C161" s="64" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="1"/>
@@ -4141,7 +4150,7 @@
       <c r="B162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="63" t="s">
+      <c r="C162" s="64" t="s">
         <v>48</v>
       </c>
       <c r="D162" s="1"/>
@@ -4194,39 +4203,39 @@
       <c r="A168" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="58" t="s">
+      <c r="B168" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="58" t="s">
+      <c r="C168" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="58" t="s">
+      <c r="D168" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="59" t="s">
+      <c r="E168" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="51"/>
-      <c r="B169" s="52"/>
-      <c r="C169" s="52"/>
-      <c r="D169" s="52"/>
-      <c r="E169" s="60"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="53"/>
+      <c r="E169" s="61"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="61" t="s">
+      <c r="A171" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="62"/>
-      <c r="C171" s="62"/>
-      <c r="D171" s="62"/>
-      <c r="E171" s="62"/>
-      <c r="F171" s="62"/>
-      <c r="G171" s="62"/>
-      <c r="H171" s="62"/>
-      <c r="I171" s="62"/>
+      <c r="B171" s="63"/>
+      <c r="C171" s="63"/>
+      <c r="D171" s="63"/>
+      <c r="E171" s="63"/>
+      <c r="F171" s="63"/>
+      <c r="G171" s="63"/>
+      <c r="H171" s="63"/>
+      <c r="I171" s="63"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="11" t="s">
@@ -4258,10 +4267,10 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="64">
+      <c r="A173" s="65">
         <v>44536</v>
       </c>
-      <c r="B173" s="65">
+      <c r="B173" s="66">
         <v>0.440972222222222</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -4283,8 +4292,8 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="49"/>
-      <c r="B174" s="67">
+      <c r="A174" s="50"/>
+      <c r="B174" s="68">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -4304,8 +4313,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="49"/>
-      <c r="B175" s="67">
+      <c r="A175" s="50"/>
+      <c r="B175" s="68">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -4382,14 +4391,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -4482,7 +4491,7 @@
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="12"/>
@@ -4507,38 +4516,38 @@
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="49"/>
+      <c r="A14" s="50"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="46"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="11" t="s">
@@ -4635,7 +4644,7 @@
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="12"/>
@@ -4660,38 +4669,38 @@
       <c r="A28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="48"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="D30" s="13"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
     </row>
     <row r="32" ht="16.35"/>
     <row r="33" spans="1:4">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="47"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
@@ -4786,7 +4795,7 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="12"/>
@@ -4811,38 +4820,38 @@
       <c r="A44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="48"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="49"/>
+      <c r="A46" s="50"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" ht="16.35"/>
     <row r="49" spans="1:4">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45" t="s">
+      <c r="B49" s="46"/>
+      <c r="C49" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="46"/>
+      <c r="D49" s="47"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="11" t="s">
@@ -4935,7 +4944,7 @@
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="12"/>
@@ -4960,38 +4969,38 @@
       <c r="A60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="48"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="49"/>
+      <c r="A62" s="50"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="51"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="53"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="54"/>
     </row>
     <row r="64" ht="16.35"/>
     <row r="65" spans="1:4">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45" t="s">
+      <c r="B65" s="46"/>
+      <c r="C65" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="46"/>
+      <c r="D65" s="47"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
@@ -5080,7 +5089,7 @@
       <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="12"/>
@@ -5108,7 +5117,7 @@
       <c r="B76" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="13"/>
@@ -5135,18 +5144,18 @@
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
-      <c r="D79" s="53"/>
+      <c r="D79" s="54"/>
     </row>
     <row r="80" ht="16.35"/>
     <row r="81" spans="1:4">
-      <c r="A81" s="44" t="s">
+      <c r="A81" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45" t="s">
+      <c r="B81" s="46"/>
+      <c r="C81" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="46"/>
+      <c r="D81" s="47"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="11" t="s">
@@ -5247,7 +5256,7 @@
       <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="12"/>
@@ -5275,7 +5284,7 @@
       <c r="B93" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="48" t="s">
+      <c r="C93" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="13"/>
@@ -5305,7 +5314,7 @@
       <c r="D95" s="13"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="54">
+      <c r="A96" s="55">
         <v>0.583333333333333</v>
       </c>
       <c r="B96" s="17" t="s">
@@ -5314,18 +5323,18 @@
       <c r="C96" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="53"/>
+      <c r="D96" s="54"/>
     </row>
     <row r="98" ht="16.35"/>
     <row r="99" spans="1:4">
-      <c r="A99" s="44" t="s">
+      <c r="A99" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45" t="s">
+      <c r="B99" s="46"/>
+      <c r="C99" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="46"/>
+      <c r="D99" s="47"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="11" t="s">
@@ -5396,7 +5405,7 @@
       <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="12"/>
@@ -5424,7 +5433,7 @@
       <c r="B109" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="48" t="s">
+      <c r="C109" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D109" s="13"/>
@@ -5454,7 +5463,7 @@
       <c r="D111" s="13"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="54">
+      <c r="A112" s="55">
         <v>0.583333333333333</v>
       </c>
       <c r="B112" s="17" t="s">
@@ -5463,18 +5472,18 @@
       <c r="C112" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="53"/>
+      <c r="D112" s="54"/>
     </row>
     <row r="113" ht="16.35"/>
     <row r="114" spans="1:4">
-      <c r="A114" s="44" t="s">
+      <c r="A114" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="45"/>
-      <c r="C114" s="45" t="s">
+      <c r="B114" s="46"/>
+      <c r="C114" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="46"/>
+      <c r="D114" s="47"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="11" t="s">
@@ -5545,7 +5554,7 @@
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="47" t="s">
+      <c r="A121" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="12"/>
@@ -5573,7 +5582,7 @@
       <c r="B124" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="48" t="s">
+      <c r="C124" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D124" s="13"/>
@@ -5603,7 +5612,7 @@
       <c r="D126" s="13"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="54">
+      <c r="A127" s="55">
         <v>0.583333333333333</v>
       </c>
       <c r="B127" s="17" t="s">
@@ -5612,18 +5621,18 @@
       <c r="C127" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="53"/>
+      <c r="D127" s="54"/>
     </row>
     <row r="128" ht="16.35"/>
     <row r="129" spans="1:4">
-      <c r="A129" s="44" t="s">
+      <c r="A129" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="45"/>
-      <c r="C129" s="45" t="s">
+      <c r="B129" s="46"/>
+      <c r="C129" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="46"/>
+      <c r="D129" s="47"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="11" t="s">
@@ -5700,7 +5709,7 @@
       <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="12"/>
@@ -5728,7 +5737,7 @@
       <c r="B139" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="48" t="s">
+      <c r="C139" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D139" s="13"/>
@@ -5758,7 +5767,7 @@
       <c r="D141" s="13"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="54">
+      <c r="A142" s="55">
         <v>0.583333333333333</v>
       </c>
       <c r="B142" s="17" t="s">
@@ -5767,18 +5776,18 @@
       <c r="C142" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="53"/>
+      <c r="D142" s="54"/>
     </row>
     <row r="143" ht="16.35"/>
     <row r="144" spans="1:4">
-      <c r="A144" s="44" t="s">
+      <c r="A144" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="45"/>
-      <c r="C144" s="45" t="s">
+      <c r="B144" s="46"/>
+      <c r="C144" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="46"/>
+      <c r="D144" s="47"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -5855,7 +5864,7 @@
       <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="47" t="s">
+      <c r="A151" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="12"/>
@@ -5883,7 +5892,7 @@
       <c r="B154" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="48" t="s">
+      <c r="C154" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D154" s="13"/>
@@ -5913,7 +5922,7 @@
       <c r="D156" s="13"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="54">
+      <c r="A157" s="55">
         <v>0.583333333333333</v>
       </c>
       <c r="B157" s="17" t="s">
@@ -5922,7 +5931,7 @@
       <c r="C157" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="53"/>
+      <c r="D157" s="54"/>
     </row>
     <row r="158" ht="16.35"/>
     <row r="159" spans="1:4">
@@ -6150,7 +6159,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -6271,14 +6280,14 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="38" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6338,7 +6347,7 @@
         <v>158</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="44" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7681,7 +7690,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -17,12 +17,25 @@
     <sheet name="10月" sheetId="15" r:id="rId8"/>
     <sheet name="摄影学习计划" sheetId="14" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="275">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -599,6 +612,9 @@
     <t>everyDay</t>
   </si>
   <si>
+    <t>2023年</t>
+  </si>
+  <si>
     <t>学习内容</t>
   </si>
   <si>
@@ -623,7 +639,7 @@
     <t>每天两节</t>
   </si>
   <si>
-    <t>4月21日结束</t>
+    <t>done</t>
   </si>
   <si>
     <t>小程序方面</t>
@@ -745,49 +761,85 @@
     <t>刷题，每日两题</t>
   </si>
   <si>
+    <t>架构</t>
+  </si>
+  <si>
+    <t>自动化部署git操作流，打包，部署实现，运维方面</t>
+  </si>
+  <si>
+    <t>vue/cli和react/cli  ，vite</t>
+  </si>
+  <si>
+    <t>1周（axios原理，路由，webpack）</t>
+  </si>
+  <si>
+    <t>vue3原理</t>
+  </si>
+  <si>
+    <t>1周</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>JS插件开发，封装API,组件库</t>
+  </si>
+  <si>
+    <t>直播</t>
+  </si>
+  <si>
+    <t>2024年</t>
+  </si>
+  <si>
+    <t>react项目</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>前三周，每天上午</t>
+  </si>
+  <si>
+    <t>Vue3项目</t>
+  </si>
+  <si>
+    <t>react基础及面试题</t>
+  </si>
+  <si>
+    <t>2月最后一周</t>
+  </si>
+  <si>
+    <t>上午react,下午Vue3</t>
+  </si>
+  <si>
     <t>低代码平台</t>
   </si>
   <si>
-    <t>产品思维</t>
+    <t>完成一个项目</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>js百炼成仙</t>
+  </si>
+  <si>
+    <t>每天下午，最后一小时</t>
+  </si>
+  <si>
+    <t>跨端，react-native, futter</t>
+  </si>
+  <si>
+    <t>完成两个项目</t>
   </si>
   <si>
     <t>2个月</t>
   </si>
   <si>
-    <t>11月，12月</t>
-  </si>
-  <si>
-    <t>react后台项目整合-&gt;多系统单点登录--&gt;乾坤</t>
-  </si>
-  <si>
-    <t>跨端，react-native, futter</t>
-  </si>
-  <si>
-    <t>架构</t>
-  </si>
-  <si>
-    <t>自动化部署git操作流，打包，部署实现，运维方面</t>
-  </si>
-  <si>
-    <t>vue/cli和react/cli  ，vite</t>
-  </si>
-  <si>
-    <t>1周（axios原理，路由，webpack）</t>
-  </si>
-  <si>
-    <t>vue3原理</t>
-  </si>
-  <si>
-    <t>1周</t>
-  </si>
-  <si>
-    <t>https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
-  </si>
-  <si>
-    <t>JS插件开发，封装API,组件库</t>
-  </si>
-  <si>
-    <t>直播</t>
+    <t>4月，5月</t>
+  </si>
+  <si>
+    <t>vue3面试题</t>
   </si>
   <si>
     <t>vue3课程列表</t>
@@ -940,25 +992,61 @@
     <t>色彩与平面构成</t>
   </si>
   <si>
+    <t>素描和色彩</t>
+  </si>
+  <si>
     <t>人像摄影基础</t>
   </si>
   <si>
-    <t>设计素描</t>
+    <t>K大幼儿园</t>
+  </si>
+  <si>
+    <t>构图</t>
   </si>
   <si>
     <t>中国摄影历史</t>
   </si>
   <si>
+    <t>作业</t>
+  </si>
+  <si>
+    <t>线条，造型</t>
+  </si>
+  <si>
+    <t>顾佳艺（造型）</t>
+  </si>
+  <si>
     <t>世界摄影史</t>
   </si>
   <si>
+    <t>基础透视与结构</t>
+  </si>
+  <si>
+    <t>结构，透视</t>
+  </si>
+  <si>
     <t>摄影技术与技巧</t>
   </si>
   <si>
+    <t>光影与色彩</t>
+  </si>
+  <si>
+    <t>构成，光影，色彩，技法</t>
+  </si>
+  <si>
+    <t>咸鱼中下游（色彩）</t>
+  </si>
+  <si>
     <t>摄影造型</t>
   </si>
   <si>
+    <t>动态与构成</t>
+  </si>
+  <si>
     <t>曝光控制与影调调节</t>
+  </si>
+  <si>
+    <t>人体课，明日方舟</t>
   </si>
   <si>
     <t>摄影构图</t>
@@ -1021,14 +1109,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1081,6 +1169,14 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1090,7 +1186,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1107,6 +1203,14 @@
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1262,7 +1366,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,7 +1393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,7 +1596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1772,6 +1888,15 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1779,6 +1904,33 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1905,52 +2057,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1962,74 +2108,80 @@
     <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2138,31 +2290,115 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2192,19 +2428,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2213,7 +2446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2222,7 +2455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2558,8 +2791,8 @@
   <sheetPr/>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167:D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
@@ -2573,11 +2806,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="83" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2597,7 +2830,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="84" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2606,7 +2839,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="85" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2615,14 +2848,14 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="85" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="58"/>
+      <c r="C6" s="85"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="11"/>
@@ -2630,7 +2863,7 @@
       <c r="C7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
@@ -2652,25 +2885,25 @@
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="87"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="88"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="75"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="11" t="s">
@@ -2692,7 +2925,7 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="91" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
@@ -2703,7 +2936,7 @@
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
@@ -2714,14 +2947,14 @@
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="1"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="64"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="1"/>
       <c r="E19" s="13"/>
     </row>
@@ -2752,40 +2985,40 @@
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="61"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="47"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="75"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="11" t="s">
@@ -2815,15 +3048,15 @@
       <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="94" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="65">
+      <c r="A28" s="92">
         <v>44536</v>
       </c>
-      <c r="B28" s="66">
+      <c r="B28" s="93">
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2841,11 +3074,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="67"/>
+      <c r="J28" s="94"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="50"/>
-      <c r="B29" s="66">
+      <c r="A29" s="78"/>
+      <c r="B29" s="93">
         <v>0.416666666666667</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2857,11 +3090,11 @@
       <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="67"/>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="50"/>
-      <c r="B30" s="66">
+      <c r="A30" s="78"/>
+      <c r="B30" s="93">
         <v>0.5625</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2873,11 +3106,11 @@
       <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="67"/>
+      <c r="J30" s="94"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="50"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="93"/>
       <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2887,31 +3120,31 @@
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="J31" s="67"/>
+      <c r="J31" s="94"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="50"/>
-      <c r="J32" s="67"/>
+      <c r="A32" s="78"/>
+      <c r="J32" s="94"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="61"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="88"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="56" t="s">
+      <c r="B35" s="74"/>
+      <c r="C35" s="83" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2931,7 +3164,7 @@
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2940,7 +3173,7 @@
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="85" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2949,7 +3182,7 @@
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2958,7 +3191,7 @@
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2968,7 +3201,7 @@
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1"/>
@@ -2990,25 +3223,25 @@
       <c r="A45" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="60"/>
+      <c r="C45" s="87"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="88"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="47"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="75"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
@@ -3032,7 +3265,7 @@
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="91" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="1"/>
@@ -3045,7 +3278,7 @@
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="1"/>
@@ -3058,7 +3291,7 @@
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="64"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="1"/>
       <c r="E52" s="13"/>
     </row>
@@ -3069,7 +3302,7 @@
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="64"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="1"/>
       <c r="E53" s="13"/>
     </row>
@@ -3100,39 +3333,39 @@
       <c r="A57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="52"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="61"/>
+      <c r="A58" s="80"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="88"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
@@ -3164,10 +3397,10 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="65">
+      <c r="A62" s="92">
         <v>44536</v>
       </c>
-      <c r="B62" s="66">
+      <c r="B62" s="93">
         <v>0.395833333333333</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3187,8 +3420,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="50"/>
-      <c r="B63" s="66">
+      <c r="A63" s="78"/>
+      <c r="B63" s="93">
         <v>0.416666666666667</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3202,8 +3435,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="50"/>
-      <c r="B64" s="66">
+      <c r="A64" s="78"/>
+      <c r="B64" s="93">
         <v>0.5625</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3217,8 +3450,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="50"/>
-      <c r="B65" s="66"/>
+      <c r="A65" s="78"/>
+      <c r="B65" s="93"/>
       <c r="D65" s="1" t="s">
         <v>36</v>
       </c>
@@ -3230,26 +3463,26 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="50"/>
+      <c r="A66" s="78"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="52"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
+      <c r="A67" s="80"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="46"/>
-      <c r="C70" s="56" t="s">
+      <c r="B70" s="74"/>
+      <c r="C70" s="83" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3269,7 +3502,7 @@
       <c r="B72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="85" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3278,7 +3511,7 @@
       <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="85" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3287,7 +3520,7 @@
       <c r="B74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3296,7 +3529,7 @@
       <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3305,7 +3538,7 @@
       <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3315,7 +3548,7 @@
       <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1"/>
@@ -3337,25 +3570,25 @@
       <c r="A81" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="59" t="s">
+      <c r="B81" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="60"/>
+      <c r="C81" s="87"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="52"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="61"/>
+      <c r="A82" s="80"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="88"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="47"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="75"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="11" t="s">
@@ -3377,7 +3610,7 @@
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="64" t="s">
+      <c r="C86" s="91" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="1"/>
@@ -3388,7 +3621,7 @@
       <c r="B87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="64" t="s">
+      <c r="C87" s="91" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="1"/>
@@ -3401,7 +3634,7 @@
       <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="64" t="s">
+      <c r="C88" s="91" t="s">
         <v>50</v>
       </c>
       <c r="D88" s="1"/>
@@ -3412,7 +3645,7 @@
       <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="64"/>
+      <c r="C89" s="91"/>
       <c r="D89" s="1"/>
       <c r="E89" s="13"/>
     </row>
@@ -3445,39 +3678,39 @@
       <c r="A93" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="59" t="s">
+      <c r="D93" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="60" t="s">
+      <c r="E93" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="52"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="61"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="88"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="62" t="s">
+      <c r="A96" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="63"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="63"/>
-      <c r="G96" s="63"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="63"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="90"/>
+      <c r="E96" s="90"/>
+      <c r="F96" s="90"/>
+      <c r="G96" s="90"/>
+      <c r="H96" s="90"/>
+      <c r="I96" s="90"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="11" t="s">
@@ -3509,10 +3742,10 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="65">
+      <c r="A98" s="92">
         <v>44536</v>
       </c>
-      <c r="B98" s="66">
+      <c r="B98" s="93">
         <v>0.395833333333333</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3532,8 +3765,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="50"/>
-      <c r="B99" s="66">
+      <c r="A99" s="78"/>
+      <c r="B99" s="93">
         <v>0.416666666666667</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -3547,8 +3780,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="50"/>
-      <c r="B100" s="66">
+      <c r="A100" s="78"/>
+      <c r="B100" s="93">
         <v>0.5625</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -3562,33 +3795,33 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="50"/>
-      <c r="B101" s="66"/>
+      <c r="A101" s="78"/>
+      <c r="B101" s="93"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="50"/>
+      <c r="A102" s="78"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="52"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
+      <c r="A103" s="80"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="H103" s="81"/>
+      <c r="I103" s="81"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
-      <c r="A105" s="45" t="s">
+      <c r="A105" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="46"/>
-      <c r="C105" s="56" t="s">
+      <c r="B105" s="74"/>
+      <c r="C105" s="83" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3610,7 +3843,7 @@
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="85" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3619,7 +3852,7 @@
       <c r="B108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="58" t="s">
+      <c r="C108" s="85" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3628,7 +3861,7 @@
       <c r="B109" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="85" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3637,7 +3870,7 @@
       <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="58" t="s">
+      <c r="C110" s="85" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3646,7 +3879,7 @@
       <c r="B111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3656,7 +3889,7 @@
       <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="48" t="s">
+      <c r="A113" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="1"/>
@@ -3678,27 +3911,27 @@
       <c r="A116" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="59" t="s">
+      <c r="B116" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="60"/>
+      <c r="C116" s="87"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="52" t="s">
+      <c r="A117" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="53"/>
-      <c r="C117" s="61"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="88"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="62" t="s">
+      <c r="A119" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="63"/>
-      <c r="C119" s="63"/>
-      <c r="D119" s="63"/>
-      <c r="E119" s="47"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="90"/>
+      <c r="E119" s="75"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="11" t="s">
@@ -3722,7 +3955,7 @@
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="64" t="s">
+      <c r="C121" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="1"/>
@@ -3735,7 +3968,7 @@
       <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="64" t="s">
+      <c r="C122" s="91" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1"/>
@@ -3748,7 +3981,7 @@
       <c r="B123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="64" t="s">
+      <c r="C123" s="91" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -3763,7 +3996,7 @@
       <c r="B124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="64" t="s">
+      <c r="C124" s="91" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="1"/>
@@ -3798,39 +4031,39 @@
       <c r="A128" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="59" t="s">
+      <c r="B128" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="59" t="s">
+      <c r="C128" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="59" t="s">
+      <c r="D128" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="60" t="s">
+      <c r="E128" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="52"/>
-      <c r="B129" s="53"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="61"/>
+      <c r="A129" s="80"/>
+      <c r="B129" s="81"/>
+      <c r="C129" s="81"/>
+      <c r="D129" s="81"/>
+      <c r="E129" s="88"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="62" t="s">
+      <c r="A131" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="63"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63"/>
-      <c r="E131" s="63"/>
-      <c r="F131" s="63"/>
-      <c r="G131" s="63"/>
-      <c r="H131" s="63"/>
-      <c r="I131" s="63"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="90"/>
+      <c r="E131" s="90"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="90"/>
+      <c r="H131" s="90"/>
+      <c r="I131" s="90"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="11" t="s">
@@ -3862,10 +4095,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="65">
+      <c r="A133" s="92">
         <v>44536</v>
       </c>
-      <c r="B133" s="66">
+      <c r="B133" s="93">
         <v>0.395833333333333</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -3885,8 +4118,8 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="50"/>
-      <c r="B134" s="66">
+      <c r="A134" s="78"/>
+      <c r="B134" s="93">
         <v>0.416666666666667</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -3903,8 +4136,8 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="50"/>
-      <c r="B135" s="66">
+      <c r="A135" s="78"/>
+      <c r="B135" s="93">
         <v>0.5625</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -3918,8 +4151,8 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="50"/>
-      <c r="B136" s="66">
+      <c r="A136" s="78"/>
+      <c r="B136" s="93">
         <v>0.659722222222222</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -3933,28 +4166,28 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="50"/>
+      <c r="A137" s="78"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="52"/>
-      <c r="B138" s="53"/>
-      <c r="C138" s="53"/>
-      <c r="D138" s="53"/>
-      <c r="E138" s="53"/>
-      <c r="F138" s="53">
+      <c r="A138" s="80"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="81"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="81"/>
+      <c r="F138" s="81">
         <v>11</v>
       </c>
-      <c r="G138" s="53"/>
-      <c r="H138" s="53"/>
-      <c r="I138" s="53"/>
+      <c r="G138" s="81"/>
+      <c r="H138" s="81"/>
+      <c r="I138" s="81"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
-      <c r="A140" s="45" t="s">
+      <c r="A140" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="46"/>
-      <c r="C140" s="56" t="s">
+      <c r="B140" s="74"/>
+      <c r="C140" s="83" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3976,7 +4209,7 @@
       <c r="B142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="58" t="s">
+      <c r="C142" s="85" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3987,7 +4220,7 @@
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="58" t="s">
+      <c r="C143" s="85" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3998,7 +4231,7 @@
       <c r="B144" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="58" t="s">
+      <c r="C144" s="85" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4009,7 +4242,7 @@
       <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="58" t="s">
+      <c r="C145" s="85" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4018,7 +4251,7 @@
       <c r="B146" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="58" t="s">
+      <c r="C146" s="85" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4027,7 +4260,7 @@
       <c r="B147" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="58" t="s">
+      <c r="C147" s="85" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4037,7 +4270,7 @@
       <c r="C148" s="13"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="48" t="s">
+      <c r="A149" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="1"/>
@@ -4048,7 +4281,7 @@
       <c r="B150" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="58" t="s">
+      <c r="C150" s="85" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4082,25 +4315,25 @@
       <c r="A155" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="59" t="s">
+      <c r="B155" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="60"/>
+      <c r="C155" s="87"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="52"/>
-      <c r="B156" s="53"/>
-      <c r="C156" s="61"/>
+      <c r="A156" s="80"/>
+      <c r="B156" s="81"/>
+      <c r="C156" s="88"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="62" t="s">
+      <c r="A158" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="63"/>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="47"/>
+      <c r="B158" s="90"/>
+      <c r="C158" s="90"/>
+      <c r="D158" s="90"/>
+      <c r="E158" s="75"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="11" t="s">
@@ -4124,7 +4357,7 @@
       <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="64" t="s">
+      <c r="C160" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="1"/>
@@ -4137,7 +4370,7 @@
       <c r="B161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="64" t="s">
+      <c r="C161" s="91" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="1"/>
@@ -4150,7 +4383,7 @@
       <c r="B162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="64" t="s">
+      <c r="C162" s="91" t="s">
         <v>48</v>
       </c>
       <c r="D162" s="1"/>
@@ -4203,39 +4436,39 @@
       <c r="A168" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="59" t="s">
+      <c r="B168" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="59" t="s">
+      <c r="C168" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="59" t="s">
+      <c r="D168" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="60" t="s">
+      <c r="E168" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="52"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="53"/>
-      <c r="E169" s="61"/>
+      <c r="A169" s="80"/>
+      <c r="B169" s="81"/>
+      <c r="C169" s="81"/>
+      <c r="D169" s="81"/>
+      <c r="E169" s="88"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="62" t="s">
+      <c r="A171" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="63"/>
-      <c r="C171" s="63"/>
-      <c r="D171" s="63"/>
-      <c r="E171" s="63"/>
-      <c r="F171" s="63"/>
-      <c r="G171" s="63"/>
-      <c r="H171" s="63"/>
-      <c r="I171" s="63"/>
+      <c r="B171" s="90"/>
+      <c r="C171" s="90"/>
+      <c r="D171" s="90"/>
+      <c r="E171" s="90"/>
+      <c r="F171" s="90"/>
+      <c r="G171" s="90"/>
+      <c r="H171" s="90"/>
+      <c r="I171" s="90"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="11" t="s">
@@ -4267,10 +4500,10 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="65">
+      <c r="A173" s="92">
         <v>44536</v>
       </c>
-      <c r="B173" s="66">
+      <c r="B173" s="93">
         <v>0.440972222222222</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -4292,8 +4525,8 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="50"/>
-      <c r="B174" s="68">
+      <c r="A174" s="78"/>
+      <c r="B174" s="95">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -4313,8 +4546,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="50"/>
-      <c r="B175" s="68">
+      <c r="A175" s="78"/>
+      <c r="B175" s="95">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -4378,8 +4611,8 @@
   <sheetPr/>
   <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167:D174"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -4391,14 +4624,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -4491,7 +4724,7 @@
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="12"/>
@@ -4516,38 +4749,38 @@
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="50"/>
+      <c r="A14" s="78"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="72"/>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="75"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="11" t="s">
@@ -4644,7 +4877,7 @@
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="12"/>
@@ -4669,38 +4902,38 @@
       <c r="A28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="50"/>
+      <c r="A30" s="78"/>
       <c r="D30" s="13"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="72"/>
     </row>
     <row r="32" ht="16.35"/>
     <row r="33" spans="1:4">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46" t="s">
+      <c r="B33" s="74"/>
+      <c r="C33" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
@@ -4795,7 +5028,7 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="12"/>
@@ -4820,38 +5053,38 @@
       <c r="A44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="50"/>
+      <c r="A46" s="78"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="72"/>
     </row>
     <row r="48" ht="16.35"/>
     <row r="49" spans="1:4">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46" t="s">
+      <c r="B49" s="74"/>
+      <c r="C49" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="47"/>
+      <c r="D49" s="75"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="11" t="s">
@@ -4944,7 +5177,7 @@
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="12"/>
@@ -4969,38 +5202,38 @@
       <c r="A60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="77"/>
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="50"/>
+      <c r="A62" s="78"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="52"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="54"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="72"/>
     </row>
     <row r="64" ht="16.35"/>
     <row r="65" spans="1:4">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46" t="s">
+      <c r="B65" s="74"/>
+      <c r="C65" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="47"/>
+      <c r="D65" s="75"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
@@ -5089,7 +5322,7 @@
       <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="12"/>
@@ -5117,7 +5350,7 @@
       <c r="B76" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="77" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="13"/>
@@ -5144,18 +5377,18 @@
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
-      <c r="D79" s="54"/>
+      <c r="D79" s="72"/>
     </row>
     <row r="80" ht="16.35"/>
     <row r="81" spans="1:4">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="46"/>
-      <c r="C81" s="46" t="s">
+      <c r="B81" s="74"/>
+      <c r="C81" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="47"/>
+      <c r="D81" s="75"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="11" t="s">
@@ -5256,7 +5489,7 @@
       <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="12"/>
@@ -5284,7 +5517,7 @@
       <c r="B93" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="77" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="13"/>
@@ -5314,7 +5547,7 @@
       <c r="D95" s="13"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="55">
+      <c r="A96" s="82">
         <v>0.583333333333333</v>
       </c>
       <c r="B96" s="17" t="s">
@@ -5323,18 +5556,18 @@
       <c r="C96" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="54"/>
+      <c r="D96" s="72"/>
     </row>
     <row r="98" ht="16.35"/>
     <row r="99" spans="1:4">
-      <c r="A99" s="45" t="s">
+      <c r="A99" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="46"/>
-      <c r="C99" s="46" t="s">
+      <c r="B99" s="74"/>
+      <c r="C99" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="47"/>
+      <c r="D99" s="75"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="11" t="s">
@@ -5405,7 +5638,7 @@
       <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="12"/>
@@ -5433,7 +5666,7 @@
       <c r="B109" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="77" t="s">
         <v>101</v>
       </c>
       <c r="D109" s="13"/>
@@ -5463,7 +5696,7 @@
       <c r="D111" s="13"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="55">
+      <c r="A112" s="82">
         <v>0.583333333333333</v>
       </c>
       <c r="B112" s="17" t="s">
@@ -5472,18 +5705,18 @@
       <c r="C112" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="54"/>
+      <c r="D112" s="72"/>
     </row>
     <row r="113" ht="16.35"/>
     <row r="114" spans="1:4">
-      <c r="A114" s="45" t="s">
+      <c r="A114" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46" t="s">
+      <c r="B114" s="74"/>
+      <c r="C114" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="47"/>
+      <c r="D114" s="75"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="11" t="s">
@@ -5554,7 +5787,7 @@
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="12"/>
@@ -5582,7 +5815,7 @@
       <c r="B124" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="49" t="s">
+      <c r="C124" s="77" t="s">
         <v>101</v>
       </c>
       <c r="D124" s="13"/>
@@ -5612,7 +5845,7 @@
       <c r="D126" s="13"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="55">
+      <c r="A127" s="82">
         <v>0.583333333333333</v>
       </c>
       <c r="B127" s="17" t="s">
@@ -5621,18 +5854,18 @@
       <c r="C127" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="54"/>
+      <c r="D127" s="72"/>
     </row>
     <row r="128" ht="16.35"/>
     <row r="129" spans="1:4">
-      <c r="A129" s="45" t="s">
+      <c r="A129" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="46"/>
-      <c r="C129" s="46" t="s">
+      <c r="B129" s="74"/>
+      <c r="C129" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="47"/>
+      <c r="D129" s="75"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="11" t="s">
@@ -5709,7 +5942,7 @@
       <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="48" t="s">
+      <c r="A136" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="12"/>
@@ -5737,7 +5970,7 @@
       <c r="B139" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="49" t="s">
+      <c r="C139" s="77" t="s">
         <v>101</v>
       </c>
       <c r="D139" s="13"/>
@@ -5767,7 +6000,7 @@
       <c r="D141" s="13"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="55">
+      <c r="A142" s="82">
         <v>0.583333333333333</v>
       </c>
       <c r="B142" s="17" t="s">
@@ -5776,18 +6009,18 @@
       <c r="C142" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="54"/>
+      <c r="D142" s="72"/>
     </row>
     <row r="143" ht="16.35"/>
     <row r="144" spans="1:4">
-      <c r="A144" s="45" t="s">
+      <c r="A144" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="46"/>
-      <c r="C144" s="46" t="s">
+      <c r="B144" s="74"/>
+      <c r="C144" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="47"/>
+      <c r="D144" s="75"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -5864,7 +6097,7 @@
       <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="48" t="s">
+      <c r="A151" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="12"/>
@@ -5892,7 +6125,7 @@
       <c r="B154" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="49" t="s">
+      <c r="C154" s="77" t="s">
         <v>101</v>
       </c>
       <c r="D154" s="13"/>
@@ -5922,7 +6155,7 @@
       <c r="D156" s="13"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="55">
+      <c r="A157" s="82">
         <v>0.583333333333333</v>
       </c>
       <c r="B157" s="17" t="s">
@@ -5931,7 +6164,7 @@
       <c r="C157" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="54"/>
+      <c r="D157" s="72"/>
     </row>
     <row r="158" ht="16.35"/>
     <row r="159" spans="1:4">
@@ -6156,376 +6389,513 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="24.9" customWidth="1"/>
+    <col min="4" max="4" width="32.6" customWidth="1"/>
     <col min="5" max="5" width="29.6" customWidth="1"/>
     <col min="6" max="6" width="14.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="29" customHeight="1" spans="1:6">
       <c r="A1" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="C2" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" s="41" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="38" t="s">
+      <c r="F2" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="E3" s="45" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="F4" s="48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="51" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="38" t="s">
+      <c r="C6" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="38" t="s">
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="44" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="38" t="s">
+      <c r="E7" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="38" t="s">
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="43" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="54" t="s">
         <v>89</v>
       </c>
+      <c r="B9" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="55" t="s">
+        <v>149</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="55" t="s">
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="55" t="s">
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" ht="16.35" spans="1:6">
+      <c r="A13" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="44" t="s">
-        <v>147</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" ht="16.35" spans="8:8">
+      <c r="H21" s="63"/>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:6">
+      <c r="A22" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="G23" s="66"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="69"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="43" t="s">
+      <c r="D26" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="43" t="s">
+      <c r="E26" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="43" t="s">
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="11" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="43" t="s">
+      <c r="B27" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="43" t="s">
+      <c r="C27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="43" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="43" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="70"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="71"/>
+    </row>
+    <row r="32" ht="16.35" spans="1:6">
+      <c r="A32" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="72"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>182</v>
+      <c r="A35" s="62" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="43" t="s">
-        <v>183</v>
+      <c r="A36" s="62" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="43" t="s">
-        <v>184</v>
+      <c r="A37" s="62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="62" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>185</v>
+      <c r="A39" s="62" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="43" t="s">
-        <v>186</v>
+      <c r="A40" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="62" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A19:A21"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A27" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A28" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A29" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A30" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A31" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A32" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A33" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A36" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A37" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="E17" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A35" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A36" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A37" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A38" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A39" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A40" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A41" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A44" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A45" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId11" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
-    <hyperlink ref="A40" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A48" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6552,7 +6922,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -6618,7 +6988,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -6637,7 +7007,7 @@
     <row r="10" ht="16.35"/>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -6691,7 +7061,7 @@
         <v>114</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -6710,7 +7080,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -6768,10 +7138,10 @@
         <v>114</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6789,7 +7159,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -6816,7 +7186,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>79</v>
@@ -6840,7 +7210,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>79</v>
@@ -6855,7 +7225,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D32" s="13"/>
     </row>
@@ -6906,7 +7276,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -6933,7 +7303,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -6957,7 +7327,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>81</v>
@@ -6969,7 +7339,7 @@
         <v>0.625</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>77</v>
@@ -6991,7 +7361,7 @@
     <row r="9" ht="16.35"/>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
@@ -7018,7 +7388,7 @@
         <v>0.375</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>77</v>
@@ -7046,7 +7416,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>81</v>
@@ -7060,7 +7430,7 @@
         <v>0.625</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>77</v>
@@ -7082,7 +7452,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -7109,7 +7479,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>76</v>
@@ -7137,7 +7507,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>81</v>
@@ -7151,7 +7521,7 @@
         <v>0.625</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>77</v>
@@ -7167,7 +7537,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="23" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -7194,7 +7564,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>76</v>
@@ -7218,7 +7588,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>81</v>
@@ -7230,7 +7600,7 @@
         <v>0.625</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>77</v>
@@ -7258,7 +7628,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -7271,7 +7641,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7298,7 +7668,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -7310,7 +7680,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -7322,10 +7692,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -7357,7 +7727,7 @@
   <dimension ref="A3:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -7371,7 +7741,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -7398,7 +7768,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>79</v>
@@ -7410,7 +7780,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>79</v>
@@ -7422,7 +7792,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>79</v>
@@ -7432,7 +7802,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="12" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>79</v>
@@ -7444,7 +7814,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>79</v>
@@ -7456,7 +7826,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7464,7 +7834,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7472,7 +7842,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7480,13 +7850,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -7513,7 +7883,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>79</v>
@@ -7525,7 +7895,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>79</v>
@@ -7537,7 +7907,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>79</v>
@@ -7547,7 +7917,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="B22" s="12" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>79</v>
@@ -7559,7 +7929,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>79</v>
@@ -7582,7 +7952,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -7595,7 +7965,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7622,7 +7992,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>79</v>
@@ -7634,7 +8004,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -7646,7 +8016,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>79</v>
@@ -7656,7 +8026,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="12" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>79</v>
@@ -7668,7 +8038,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>
@@ -7687,174 +8057,211 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.8" style="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3" customWidth="1"/>
+    <col min="5" max="5" width="27.7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>239</v>
+      </c>
+      <c r="E4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="D7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>252</v>
+      </c>
+      <c r="D8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>230</v>
+        <v>254</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="279">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -809,9 +809,6 @@
     <t>2月最后一周</t>
   </si>
   <si>
-    <t>上午react,下午Vue3</t>
-  </si>
-  <si>
     <t>低代码平台</t>
   </si>
   <si>
@@ -821,10 +818,25 @@
     <t>3月</t>
   </si>
   <si>
+    <t>仅部分完成</t>
+  </si>
+  <si>
     <t>js百炼成仙</t>
   </si>
   <si>
     <t>每天下午，最后一小时</t>
+  </si>
+  <si>
+    <t>vite,vue3复习</t>
+  </si>
+  <si>
+    <t>第一周vue3知识点</t>
+  </si>
+  <si>
+    <t>第二周vue3原理</t>
+  </si>
+  <si>
+    <t>第三周Vue3面试题</t>
   </si>
   <si>
     <t>跨端，react-native, futter</t>
@@ -1116,7 +1128,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1211,6 +1223,21 @@
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1366,7 +1393,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1400,12 +1427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,131 +2078,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2338,66 +2359,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2425,19 +2437,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2446,16 +2455,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2463,9 +2469,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -2806,11 +2809,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="79" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2830,7 +2833,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="80" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2839,7 +2842,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="81" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2848,14 +2851,14 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="81" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="85"/>
+      <c r="C6" s="81"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="11"/>
@@ -2863,7 +2866,7 @@
       <c r="C7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
@@ -2885,25 +2888,25 @@
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="83"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="88"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="75"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="72"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="11" t="s">
@@ -2925,7 +2928,7 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="86" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
@@ -2936,7 +2939,7 @@
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="86" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
@@ -2947,14 +2950,14 @@
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="1"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="91"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="1"/>
       <c r="E19" s="13"/>
     </row>
@@ -2985,40 +2988,40 @@
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="87" t="s">
+      <c r="E23" s="83" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="88"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="75"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="11" t="s">
@@ -3048,15 +3051,15 @@
       <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="94" t="s">
+      <c r="J27" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="92">
+      <c r="A28" s="87">
         <v>44536</v>
       </c>
-      <c r="B28" s="93">
+      <c r="B28" s="88">
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3074,11 +3077,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="94"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="78"/>
-      <c r="B29" s="93">
+      <c r="A29" s="75"/>
+      <c r="B29" s="88">
         <v>0.416666666666667</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3090,11 +3093,11 @@
       <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="94"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="78"/>
-      <c r="B30" s="93">
+      <c r="A30" s="75"/>
+      <c r="B30" s="88">
         <v>0.5625</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3106,11 +3109,11 @@
       <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="94"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="78"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="88"/>
       <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
@@ -3120,31 +3123,31 @@
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="J31" s="94"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="78"/>
-      <c r="J32" s="94"/>
+      <c r="A32" s="75"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="80"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="88"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="83" t="s">
+      <c r="B35" s="71"/>
+      <c r="C35" s="79" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3164,7 +3167,7 @@
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3173,7 +3176,7 @@
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="81" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3182,7 +3185,7 @@
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3191,7 +3194,7 @@
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3201,7 +3204,7 @@
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1"/>
@@ -3223,25 +3226,25 @@
       <c r="A45" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="87"/>
+      <c r="C45" s="83"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="80"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="88"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="75"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="72"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
@@ -3265,7 +3268,7 @@
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="91" t="s">
+      <c r="C50" s="86" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="1"/>
@@ -3278,7 +3281,7 @@
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="91" t="s">
+      <c r="C51" s="86" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="1"/>
@@ -3291,7 +3294,7 @@
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="91"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="1"/>
       <c r="E52" s="13"/>
     </row>
@@ -3302,7 +3305,7 @@
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="91"/>
+      <c r="C53" s="86"/>
       <c r="D53" s="1"/>
       <c r="E53" s="13"/>
     </row>
@@ -3333,39 +3336,39 @@
       <c r="A57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="86" t="s">
+      <c r="D57" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="87" t="s">
+      <c r="E57" s="83" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="80"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="88"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="59"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
@@ -3397,10 +3400,10 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="92">
+      <c r="A62" s="87">
         <v>44536</v>
       </c>
-      <c r="B62" s="93">
+      <c r="B62" s="88">
         <v>0.395833333333333</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3420,8 +3423,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="78"/>
-      <c r="B63" s="93">
+      <c r="A63" s="75"/>
+      <c r="B63" s="88">
         <v>0.416666666666667</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3435,8 +3438,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="78"/>
-      <c r="B64" s="93">
+      <c r="A64" s="75"/>
+      <c r="B64" s="88">
         <v>0.5625</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3450,8 +3453,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="78"/>
-      <c r="B65" s="93"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="88"/>
       <c r="D65" s="1" t="s">
         <v>36</v>
       </c>
@@ -3463,26 +3466,26 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="78"/>
+      <c r="A66" s="75"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="80"/>
-      <c r="B67" s="81"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="74"/>
-      <c r="C70" s="83" t="s">
+      <c r="B70" s="71"/>
+      <c r="C70" s="79" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3502,7 +3505,7 @@
       <c r="B72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="85" t="s">
+      <c r="C72" s="81" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3511,7 +3514,7 @@
       <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="81" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3520,7 +3523,7 @@
       <c r="B74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="85" t="s">
+      <c r="C74" s="81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3529,7 +3532,7 @@
       <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3538,7 +3541,7 @@
       <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="85" t="s">
+      <c r="C76" s="81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3548,7 +3551,7 @@
       <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="76" t="s">
+      <c r="A78" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1"/>
@@ -3570,25 +3573,25 @@
       <c r="A81" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="86" t="s">
+      <c r="B81" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="87"/>
+      <c r="C81" s="83"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="80"/>
-      <c r="B82" s="81"/>
-      <c r="C82" s="88"/>
+      <c r="A82" s="77"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="59"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="90"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="75"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="72"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="11" t="s">
@@ -3610,7 +3613,7 @@
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="86" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="1"/>
@@ -3621,7 +3624,7 @@
       <c r="B87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C87" s="86" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="1"/>
@@ -3634,7 +3637,7 @@
       <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C88" s="86" t="s">
         <v>50</v>
       </c>
       <c r="D88" s="1"/>
@@ -3645,7 +3648,7 @@
       <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="91"/>
+      <c r="C89" s="86"/>
       <c r="D89" s="1"/>
       <c r="E89" s="13"/>
     </row>
@@ -3678,39 +3681,39 @@
       <c r="A93" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="86" t="s">
+      <c r="B93" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="86" t="s">
+      <c r="D93" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="87" t="s">
+      <c r="E93" s="83" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="80"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="88"/>
+      <c r="A94" s="77"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="59"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="89" t="s">
+      <c r="A96" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="90"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="90"/>
-      <c r="E96" s="90"/>
-      <c r="F96" s="90"/>
-      <c r="G96" s="90"/>
-      <c r="H96" s="90"/>
-      <c r="I96" s="90"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
+      <c r="I96" s="85"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="11" t="s">
@@ -3742,10 +3745,10 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="92">
+      <c r="A98" s="87">
         <v>44536</v>
       </c>
-      <c r="B98" s="93">
+      <c r="B98" s="88">
         <v>0.395833333333333</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3765,8 +3768,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="78"/>
-      <c r="B99" s="93">
+      <c r="A99" s="75"/>
+      <c r="B99" s="88">
         <v>0.416666666666667</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -3780,8 +3783,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="78"/>
-      <c r="B100" s="93">
+      <c r="A100" s="75"/>
+      <c r="B100" s="88">
         <v>0.5625</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -3795,33 +3798,33 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="78"/>
-      <c r="B101" s="93"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="88"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="78"/>
+      <c r="A102" s="75"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="80"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="H103" s="81"/>
-      <c r="I103" s="81"/>
+      <c r="A103" s="77"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
-      <c r="A105" s="73" t="s">
+      <c r="A105" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="74"/>
-      <c r="C105" s="83" t="s">
+      <c r="B105" s="71"/>
+      <c r="C105" s="79" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3843,7 +3846,7 @@
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="85" t="s">
+      <c r="C107" s="81" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3852,7 +3855,7 @@
       <c r="B108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="85" t="s">
+      <c r="C108" s="81" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3861,7 +3864,7 @@
       <c r="B109" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="85" t="s">
+      <c r="C109" s="81" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3870,7 +3873,7 @@
       <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="85" t="s">
+      <c r="C110" s="81" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3879,7 +3882,7 @@
       <c r="B111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="85" t="s">
+      <c r="C111" s="81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3889,7 +3892,7 @@
       <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="76" t="s">
+      <c r="A113" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="1"/>
@@ -3911,27 +3914,27 @@
       <c r="A116" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="86" t="s">
+      <c r="B116" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="87"/>
+      <c r="C116" s="83"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="80" t="s">
+      <c r="A117" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="81"/>
-      <c r="C117" s="88"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="59"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="89" t="s">
+      <c r="A119" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="90"/>
-      <c r="C119" s="90"/>
-      <c r="D119" s="90"/>
-      <c r="E119" s="75"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="72"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="11" t="s">
@@ -3955,7 +3958,7 @@
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="91" t="s">
+      <c r="C121" s="86" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="1"/>
@@ -3968,7 +3971,7 @@
       <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="91" t="s">
+      <c r="C122" s="86" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1"/>
@@ -3981,7 +3984,7 @@
       <c r="B123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="91" t="s">
+      <c r="C123" s="86" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -3996,7 +3999,7 @@
       <c r="B124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="91" t="s">
+      <c r="C124" s="86" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="1"/>
@@ -4031,39 +4034,39 @@
       <c r="A128" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="86" t="s">
+      <c r="B128" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="86" t="s">
+      <c r="C128" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="86" t="s">
+      <c r="D128" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="87" t="s">
+      <c r="E128" s="83" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="80"/>
-      <c r="B129" s="81"/>
-      <c r="C129" s="81"/>
-      <c r="D129" s="81"/>
-      <c r="E129" s="88"/>
+      <c r="A129" s="77"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="59"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="89" t="s">
+      <c r="A131" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="90"/>
-      <c r="C131" s="90"/>
-      <c r="D131" s="90"/>
-      <c r="E131" s="90"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="90"/>
-      <c r="H131" s="90"/>
-      <c r="I131" s="90"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="85"/>
+      <c r="I131" s="85"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="11" t="s">
@@ -4095,10 +4098,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="92">
+      <c r="A133" s="87">
         <v>44536</v>
       </c>
-      <c r="B133" s="93">
+      <c r="B133" s="88">
         <v>0.395833333333333</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -4118,8 +4121,8 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="78"/>
-      <c r="B134" s="93">
+      <c r="A134" s="75"/>
+      <c r="B134" s="88">
         <v>0.416666666666667</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -4136,8 +4139,8 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="78"/>
-      <c r="B135" s="93">
+      <c r="A135" s="75"/>
+      <c r="B135" s="88">
         <v>0.5625</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -4151,8 +4154,8 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="78"/>
-      <c r="B136" s="93">
+      <c r="A136" s="75"/>
+      <c r="B136" s="88">
         <v>0.659722222222222</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -4166,28 +4169,28 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="78"/>
+      <c r="A137" s="75"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="80"/>
-      <c r="B138" s="81"/>
-      <c r="C138" s="81"/>
-      <c r="D138" s="81"/>
-      <c r="E138" s="81"/>
-      <c r="F138" s="81">
+      <c r="A138" s="77"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="58"/>
+      <c r="F138" s="58">
         <v>11</v>
       </c>
-      <c r="G138" s="81"/>
-      <c r="H138" s="81"/>
-      <c r="I138" s="81"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="58"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
-      <c r="A140" s="73" t="s">
+      <c r="A140" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="74"/>
-      <c r="C140" s="83" t="s">
+      <c r="B140" s="71"/>
+      <c r="C140" s="79" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4209,7 +4212,7 @@
       <c r="B142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="85" t="s">
+      <c r="C142" s="81" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4220,7 +4223,7 @@
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="85" t="s">
+      <c r="C143" s="81" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4231,7 +4234,7 @@
       <c r="B144" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="85" t="s">
+      <c r="C144" s="81" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4242,7 +4245,7 @@
       <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="85" t="s">
+      <c r="C145" s="81" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4251,7 +4254,7 @@
       <c r="B146" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="85" t="s">
+      <c r="C146" s="81" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4260,7 +4263,7 @@
       <c r="B147" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="85" t="s">
+      <c r="C147" s="81" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4270,7 +4273,7 @@
       <c r="C148" s="13"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="76" t="s">
+      <c r="A149" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="1"/>
@@ -4281,7 +4284,7 @@
       <c r="B150" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="85" t="s">
+      <c r="C150" s="81" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4315,25 +4318,25 @@
       <c r="A155" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="86" t="s">
+      <c r="B155" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="87"/>
+      <c r="C155" s="83"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="80"/>
-      <c r="B156" s="81"/>
-      <c r="C156" s="88"/>
+      <c r="A156" s="77"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="59"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="89" t="s">
+      <c r="A158" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="90"/>
-      <c r="C158" s="90"/>
-      <c r="D158" s="90"/>
-      <c r="E158" s="75"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="72"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="11" t="s">
@@ -4357,7 +4360,7 @@
       <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="91" t="s">
+      <c r="C160" s="86" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="1"/>
@@ -4370,7 +4373,7 @@
       <c r="B161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="91" t="s">
+      <c r="C161" s="86" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="1"/>
@@ -4383,7 +4386,7 @@
       <c r="B162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="91" t="s">
+      <c r="C162" s="86" t="s">
         <v>48</v>
       </c>
       <c r="D162" s="1"/>
@@ -4436,39 +4439,39 @@
       <c r="A168" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="86" t="s">
+      <c r="B168" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="86" t="s">
+      <c r="C168" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="86" t="s">
+      <c r="D168" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="87" t="s">
+      <c r="E168" s="83" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="80"/>
-      <c r="B169" s="81"/>
-      <c r="C169" s="81"/>
-      <c r="D169" s="81"/>
-      <c r="E169" s="88"/>
+      <c r="A169" s="77"/>
+      <c r="B169" s="58"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="59"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="89" t="s">
+      <c r="A171" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="90"/>
-      <c r="C171" s="90"/>
-      <c r="D171" s="90"/>
-      <c r="E171" s="90"/>
-      <c r="F171" s="90"/>
-      <c r="G171" s="90"/>
-      <c r="H171" s="90"/>
-      <c r="I171" s="90"/>
+      <c r="B171" s="85"/>
+      <c r="C171" s="85"/>
+      <c r="D171" s="85"/>
+      <c r="E171" s="85"/>
+      <c r="F171" s="85"/>
+      <c r="G171" s="85"/>
+      <c r="H171" s="85"/>
+      <c r="I171" s="85"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="11" t="s">
@@ -4500,10 +4503,10 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="92">
+      <c r="A173" s="87">
         <v>44536</v>
       </c>
-      <c r="B173" s="93">
+      <c r="B173" s="88">
         <v>0.440972222222222</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -4525,8 +4528,8 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="78"/>
-      <c r="B174" s="95">
+      <c r="A174" s="75"/>
+      <c r="B174" s="89">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -4546,8 +4549,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="78"/>
-      <c r="B175" s="95">
+      <c r="A175" s="75"/>
+      <c r="B175" s="89">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -4624,14 +4627,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="75"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -4724,7 +4727,7 @@
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="12"/>
@@ -4749,38 +4752,38 @@
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="78"/>
+      <c r="A14" s="75"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="72"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="72"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="11" t="s">
@@ -4877,7 +4880,7 @@
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="12"/>
@@ -4902,38 +4905,38 @@
       <c r="A28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="78"/>
+      <c r="A30" s="75"/>
       <c r="D30" s="13"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="80"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="72"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="69"/>
     </row>
     <row r="32" ht="16.35"/>
     <row r="33" spans="1:4">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74" t="s">
+      <c r="B33" s="71"/>
+      <c r="C33" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="72"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
@@ -5028,7 +5031,7 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="12"/>
@@ -5053,38 +5056,38 @@
       <c r="A44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="78"/>
+      <c r="A46" s="75"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="80"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="72"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="69"/>
     </row>
     <row r="48" ht="16.35"/>
     <row r="49" spans="1:4">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74" t="s">
+      <c r="B49" s="71"/>
+      <c r="C49" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="75"/>
+      <c r="D49" s="72"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="11" t="s">
@@ -5177,7 +5180,7 @@
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="12"/>
@@ -5202,38 +5205,38 @@
       <c r="A60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="77"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="78"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="78"/>
+      <c r="A62" s="75"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="80"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="72"/>
+      <c r="A63" s="77"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="69"/>
     </row>
     <row r="64" ht="16.35"/>
     <row r="65" spans="1:4">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="74"/>
-      <c r="C65" s="74" t="s">
+      <c r="B65" s="71"/>
+      <c r="C65" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="75"/>
+      <c r="D65" s="72"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
@@ -5322,7 +5325,7 @@
       <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="76" t="s">
+      <c r="A73" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="12"/>
@@ -5350,7 +5353,7 @@
       <c r="B76" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="77" t="s">
+      <c r="C76" s="74" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="13"/>
@@ -5377,18 +5380,18 @@
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
-      <c r="D79" s="72"/>
+      <c r="D79" s="69"/>
     </row>
     <row r="80" ht="16.35"/>
     <row r="81" spans="1:4">
-      <c r="A81" s="73" t="s">
+      <c r="A81" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="74"/>
-      <c r="C81" s="74" t="s">
+      <c r="B81" s="71"/>
+      <c r="C81" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="75"/>
+      <c r="D81" s="72"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="11" t="s">
@@ -5489,7 +5492,7 @@
       <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="76" t="s">
+      <c r="A90" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="12"/>
@@ -5517,7 +5520,7 @@
       <c r="B93" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="77" t="s">
+      <c r="C93" s="74" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="13"/>
@@ -5547,7 +5550,7 @@
       <c r="D95" s="13"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="82">
+      <c r="A96" s="78">
         <v>0.583333333333333</v>
       </c>
       <c r="B96" s="17" t="s">
@@ -5556,18 +5559,18 @@
       <c r="C96" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="72"/>
+      <c r="D96" s="69"/>
     </row>
     <row r="98" ht="16.35"/>
     <row r="99" spans="1:4">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74" t="s">
+      <c r="B99" s="71"/>
+      <c r="C99" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="75"/>
+      <c r="D99" s="72"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="11" t="s">
@@ -5638,7 +5641,7 @@
       <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="76" t="s">
+      <c r="A106" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="12"/>
@@ -5666,7 +5669,7 @@
       <c r="B109" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="77" t="s">
+      <c r="C109" s="74" t="s">
         <v>101</v>
       </c>
       <c r="D109" s="13"/>
@@ -5696,7 +5699,7 @@
       <c r="D111" s="13"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="82">
+      <c r="A112" s="78">
         <v>0.583333333333333</v>
       </c>
       <c r="B112" s="17" t="s">
@@ -5705,18 +5708,18 @@
       <c r="C112" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="72"/>
+      <c r="D112" s="69"/>
     </row>
     <row r="113" ht="16.35"/>
     <row r="114" spans="1:4">
-      <c r="A114" s="73" t="s">
+      <c r="A114" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="74"/>
-      <c r="C114" s="74" t="s">
+      <c r="B114" s="71"/>
+      <c r="C114" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="75"/>
+      <c r="D114" s="72"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="11" t="s">
@@ -5787,7 +5790,7 @@
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="76" t="s">
+      <c r="A121" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="12"/>
@@ -5815,7 +5818,7 @@
       <c r="B124" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="77" t="s">
+      <c r="C124" s="74" t="s">
         <v>101</v>
       </c>
       <c r="D124" s="13"/>
@@ -5845,7 +5848,7 @@
       <c r="D126" s="13"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="82">
+      <c r="A127" s="78">
         <v>0.583333333333333</v>
       </c>
       <c r="B127" s="17" t="s">
@@ -5854,18 +5857,18 @@
       <c r="C127" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="72"/>
+      <c r="D127" s="69"/>
     </row>
     <row r="128" ht="16.35"/>
     <row r="129" spans="1:4">
-      <c r="A129" s="73" t="s">
+      <c r="A129" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="74"/>
-      <c r="C129" s="74" t="s">
+      <c r="B129" s="71"/>
+      <c r="C129" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="75"/>
+      <c r="D129" s="72"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="11" t="s">
@@ -5942,7 +5945,7 @@
       <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="76" t="s">
+      <c r="A136" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="12"/>
@@ -5970,7 +5973,7 @@
       <c r="B139" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="77" t="s">
+      <c r="C139" s="74" t="s">
         <v>101</v>
       </c>
       <c r="D139" s="13"/>
@@ -6000,7 +6003,7 @@
       <c r="D141" s="13"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="82">
+      <c r="A142" s="78">
         <v>0.583333333333333</v>
       </c>
       <c r="B142" s="17" t="s">
@@ -6009,18 +6012,18 @@
       <c r="C142" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="72"/>
+      <c r="D142" s="69"/>
     </row>
     <row r="143" ht="16.35"/>
     <row r="144" spans="1:4">
-      <c r="A144" s="73" t="s">
+      <c r="A144" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="74"/>
-      <c r="C144" s="74" t="s">
+      <c r="B144" s="71"/>
+      <c r="C144" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="75"/>
+      <c r="D144" s="72"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -6097,7 +6100,7 @@
       <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="76" t="s">
+      <c r="A151" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="12"/>
@@ -6125,7 +6128,7 @@
       <c r="B154" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="77" t="s">
+      <c r="C154" s="74" t="s">
         <v>101</v>
       </c>
       <c r="D154" s="13"/>
@@ -6155,7 +6158,7 @@
       <c r="D156" s="13"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="82">
+      <c r="A157" s="78">
         <v>0.583333333333333</v>
       </c>
       <c r="B157" s="17" t="s">
@@ -6164,7 +6167,7 @@
       <c r="C157" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="72"/>
+      <c r="D157" s="69"/>
     </row>
     <row r="158" ht="16.35"/>
     <row r="159" spans="1:4">
@@ -6389,10 +6392,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -6549,58 +6552,57 @@
       <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="51" t="s">
         <v>151</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="51" t="s">
         <v>154</v>
       </c>
       <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F12" s="50"/>
     </row>
-    <row r="13" ht="16.35" spans="1:6">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -6637,7 +6639,7 @@
       <c r="C17" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="60" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6657,7 +6659,7 @@
       </c>
     </row>
     <row r="21" ht="16.35" spans="8:8">
-      <c r="H21" s="63"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:6">
       <c r="A22" s="36" t="s">
@@ -6670,7 +6672,7 @@
       <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="39" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="40" t="s">
@@ -6685,13 +6687,13 @@
       <c r="E23" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="66"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="43" t="s">
         <v>170</v>
       </c>
       <c r="B24" s="44"/>
@@ -6704,12 +6706,12 @@
       <c r="E24" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="43" t="s">
         <v>173</v>
       </c>
       <c r="B25" s="44"/>
@@ -6722,42 +6724,44 @@
       <c r="E25" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="44"/>
+      <c r="F26" s="48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="11" t="s">
@@ -6768,7 +6772,7 @@
         <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>181</v>
@@ -6776,126 +6780,165 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="68"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="6:6">
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="70"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="71"/>
-    </row>
-    <row r="32" ht="16.35" spans="1:6">
-      <c r="A32" s="16" t="s">
+      <c r="E31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="72"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B32" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="62" t="s">
+      <c r="C32" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="62" t="s">
+      <c r="D32" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" ht="16.35" spans="1:6">
+      <c r="A35" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="69"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="62" t="s">
-        <v>190</v>
+      <c r="A37" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="62" t="s">
-        <v>191</v>
+      <c r="A38" s="60" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="62" t="s">
-        <v>192</v>
+      <c r="A39" s="60" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="62" t="s">
-        <v>193</v>
+      <c r="A40" s="60" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="62" t="s">
-        <v>194</v>
+      <c r="A41" s="60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="60" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>195</v>
+      <c r="A43" s="60" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="62" t="s">
-        <v>197</v>
+      <c r="A44" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>198</v>
+      <c r="A47" s="60" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="62" t="s">
-        <v>199</v>
+      <c r="A48" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="60" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A35" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A36" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A37" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A38" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A39" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A40" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A41" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A44" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A45" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A38" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A39" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A40" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A41" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A42" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A43" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A44" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A47" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A48" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId11" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
-    <hyperlink ref="A48" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A51" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6922,7 +6965,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -6988,7 +7031,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -7007,7 +7050,7 @@
     <row r="10" ht="16.35"/>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -7061,7 +7104,7 @@
         <v>114</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -7080,7 +7123,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -7138,10 +7181,10 @@
         <v>114</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7159,7 +7202,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -7186,7 +7229,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>79</v>
@@ -7210,7 +7253,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>79</v>
@@ -7225,7 +7268,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D32" s="13"/>
     </row>
@@ -7276,7 +7319,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7303,7 +7346,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -7327,7 +7370,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>81</v>
@@ -7339,7 +7382,7 @@
         <v>0.625</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>77</v>
@@ -7361,7 +7404,7 @@
     <row r="9" ht="16.35"/>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
@@ -7388,7 +7431,7 @@
         <v>0.375</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>77</v>
@@ -7416,7 +7459,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>81</v>
@@ -7430,7 +7473,7 @@
         <v>0.625</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>77</v>
@@ -7452,7 +7495,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -7479,7 +7522,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>76</v>
@@ -7507,7 +7550,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>81</v>
@@ -7521,7 +7564,7 @@
         <v>0.625</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>77</v>
@@ -7537,7 +7580,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="23" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -7564,7 +7607,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>76</v>
@@ -7588,7 +7631,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>81</v>
@@ -7600,7 +7643,7 @@
         <v>0.625</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>77</v>
@@ -7641,7 +7684,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7668,7 +7711,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -7692,10 +7735,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -7741,7 +7784,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -7768,7 +7811,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>79</v>
@@ -7780,7 +7823,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>79</v>
@@ -7792,7 +7835,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>79</v>
@@ -7802,7 +7845,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>79</v>
@@ -7814,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>79</v>
@@ -7826,7 +7869,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7834,7 +7877,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7842,7 +7885,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7850,13 +7893,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -7883,7 +7926,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>79</v>
@@ -7895,7 +7938,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>79</v>
@@ -7907,7 +7950,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>79</v>
@@ -7917,7 +7960,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="B22" s="12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>79</v>
@@ -7929,7 +7972,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>79</v>
@@ -7965,7 +8008,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7992,7 +8035,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>79</v>
@@ -8004,7 +8047,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -8016,7 +8059,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>79</v>
@@ -8026,7 +8069,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>79</v>
@@ -8038,7 +8081,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>
@@ -8073,195 +8116,195 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="12480" windowHeight="3072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -6394,8 +6394,8 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12480" windowHeight="3072" activeTab="2"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="280">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -825,6 +825,9 @@
   </si>
   <si>
     <t>每天下午，最后一小时</t>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
   <si>
     <t>vite,vue3复习</t>
@@ -2202,7 +2205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2368,9 +2371,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2407,7 +2407,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2421,9 +2424,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="71"/>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="79" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2851,14 +2851,14 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="81"/>
+      <c r="C6" s="80"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="11"/>
@@ -2866,7 +2866,7 @@
       <c r="C7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
@@ -2888,24 +2888,24 @@
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="82"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="77"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="72"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
@@ -2928,7 +2928,7 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="85" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
@@ -2939,7 +2939,7 @@
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
@@ -2950,14 +2950,14 @@
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="86"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="1"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="14"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="86"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="1"/>
       <c r="E19" s="13"/>
     </row>
@@ -2988,39 +2988,39 @@
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="77"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="72"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
@@ -3056,10 +3056,10 @@
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="87">
+      <c r="A28" s="86">
         <v>44536</v>
       </c>
-      <c r="B28" s="88">
+      <c r="B28" s="87">
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3080,8 +3080,8 @@
       <c r="J28" s="50"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="75"/>
-      <c r="B29" s="88">
+      <c r="A29" s="74"/>
+      <c r="B29" s="87">
         <v>0.416666666666667</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3096,8 +3096,8 @@
       <c r="J29" s="50"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="75"/>
-      <c r="B30" s="88">
+      <c r="A30" s="74"/>
+      <c r="B30" s="87">
         <v>0.5625</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3112,8 +3112,8 @@
       <c r="J30" s="50"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="75"/>
-      <c r="B31" s="88"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="87"/>
       <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
@@ -3126,20 +3126,20 @@
       <c r="J31" s="50"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="75"/>
+      <c r="A32" s="74"/>
       <c r="J32" s="50"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="77"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="59"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="71"/>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="78" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="80" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="80" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="80" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="80" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1"/>
@@ -3226,24 +3226,24 @@
       <c r="A45" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="83"/>
+      <c r="C45" s="82"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="77"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
       <c r="E48" s="72"/>
     </row>
     <row r="49" spans="1:5">
@@ -3268,7 +3268,7 @@
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="85" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="1"/>
@@ -3281,7 +3281,7 @@
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="1"/>
@@ -3294,7 +3294,7 @@
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="86"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="1"/>
       <c r="E52" s="13"/>
     </row>
@@ -3305,7 +3305,7 @@
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="86"/>
+      <c r="C53" s="85"/>
       <c r="D53" s="1"/>
       <c r="E53" s="13"/>
     </row>
@@ -3336,39 +3336,39 @@
       <c r="A57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="82" t="s">
+      <c r="C57" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="82" t="s">
+      <c r="D57" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E57" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="77"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="59"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="58"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
@@ -3400,10 +3400,10 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="87">
+      <c r="A62" s="86">
         <v>44536</v>
       </c>
-      <c r="B62" s="88">
+      <c r="B62" s="87">
         <v>0.395833333333333</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3423,8 +3423,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="75"/>
-      <c r="B63" s="88">
+      <c r="A63" s="74"/>
+      <c r="B63" s="87">
         <v>0.416666666666667</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3438,8 +3438,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="75"/>
-      <c r="B64" s="88">
+      <c r="A64" s="74"/>
+      <c r="B64" s="87">
         <v>0.5625</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3453,8 +3453,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="75"/>
-      <c r="B65" s="88"/>
+      <c r="A65" s="74"/>
+      <c r="B65" s="87"/>
       <c r="D65" s="1" t="s">
         <v>36</v>
       </c>
@@ -3466,18 +3466,18 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="75"/>
+      <c r="A66" s="74"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="77"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
+      <c r="A67" s="76"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
@@ -3485,7 +3485,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="71"/>
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="78" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
       <c r="B72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="81" t="s">
+      <c r="C72" s="80" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="81" t="s">
+      <c r="C73" s="80" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       <c r="B74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="81" t="s">
+      <c r="C74" s="80" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
       <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="81" t="s">
+      <c r="C75" s="80" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="80" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1"/>
@@ -3573,24 +3573,24 @@
       <c r="A81" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="82" t="s">
+      <c r="B81" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="83"/>
+      <c r="C81" s="82"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="77"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="59"/>
+      <c r="A82" s="76"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="58"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="84" t="s">
+      <c r="A84" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
       <c r="E84" s="72"/>
     </row>
     <row r="85" spans="1:5">
@@ -3613,7 +3613,7 @@
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="86" t="s">
+      <c r="C86" s="85" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="1"/>
@@ -3624,7 +3624,7 @@
       <c r="B87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="86" t="s">
+      <c r="C87" s="85" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="1"/>
@@ -3637,7 +3637,7 @@
       <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="85" t="s">
         <v>50</v>
       </c>
       <c r="D88" s="1"/>
@@ -3648,7 +3648,7 @@
       <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="86"/>
+      <c r="C89" s="85"/>
       <c r="D89" s="1"/>
       <c r="E89" s="13"/>
     </row>
@@ -3681,39 +3681,39 @@
       <c r="A93" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="82" t="s">
+      <c r="B93" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="82" t="s">
+      <c r="D93" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="83" t="s">
+      <c r="E93" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="77"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="59"/>
+      <c r="A94" s="76"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="58"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="85"/>
-      <c r="I96" s="85"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="11" t="s">
@@ -3745,10 +3745,10 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="87">
+      <c r="A98" s="86">
         <v>44536</v>
       </c>
-      <c r="B98" s="88">
+      <c r="B98" s="87">
         <v>0.395833333333333</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3768,8 +3768,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="75"/>
-      <c r="B99" s="88">
+      <c r="A99" s="74"/>
+      <c r="B99" s="87">
         <v>0.416666666666667</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -3783,8 +3783,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="75"/>
-      <c r="B100" s="88">
+      <c r="A100" s="74"/>
+      <c r="B100" s="87">
         <v>0.5625</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -3798,25 +3798,25 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="75"/>
-      <c r="B101" s="88"/>
+      <c r="A101" s="74"/>
+      <c r="B101" s="87"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="75"/>
+      <c r="A102" s="74"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="77"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
+      <c r="A103" s="76"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
@@ -3824,7 +3824,7 @@
         <v>51</v>
       </c>
       <c r="B105" s="71"/>
-      <c r="C105" s="79" t="s">
+      <c r="C105" s="78" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="81" t="s">
+      <c r="C107" s="80" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       <c r="B108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="81" t="s">
+      <c r="C108" s="80" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3864,7 +3864,7 @@
       <c r="B109" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="81" t="s">
+      <c r="C109" s="80" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="81" t="s">
+      <c r="C110" s="80" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       <c r="B111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="81" t="s">
+      <c r="C111" s="80" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="73" t="s">
+      <c r="A113" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="1"/>
@@ -3914,26 +3914,26 @@
       <c r="A116" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="82" t="s">
+      <c r="B116" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="83"/>
+      <c r="C116" s="82"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="77" t="s">
+      <c r="A117" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="58"/>
-      <c r="C117" s="59"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="84" t="s">
+      <c r="A119" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="85"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="85"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="84"/>
+      <c r="D119" s="84"/>
       <c r="E119" s="72"/>
     </row>
     <row r="120" spans="1:5">
@@ -3958,7 +3958,7 @@
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="86" t="s">
+      <c r="C121" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="1"/>
@@ -3971,7 +3971,7 @@
       <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="86" t="s">
+      <c r="C122" s="85" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1"/>
@@ -3984,7 +3984,7 @@
       <c r="B123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="86" t="s">
+      <c r="C123" s="85" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -3999,7 +3999,7 @@
       <c r="B124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="86" t="s">
+      <c r="C124" s="85" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="1"/>
@@ -4034,39 +4034,39 @@
       <c r="A128" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="82" t="s">
+      <c r="B128" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="82" t="s">
+      <c r="C128" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="82" t="s">
+      <c r="D128" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="83" t="s">
+      <c r="E128" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="77"/>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="59"/>
+      <c r="A129" s="76"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="58"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="84" t="s">
+      <c r="A131" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="85"/>
-      <c r="C131" s="85"/>
-      <c r="D131" s="85"/>
-      <c r="E131" s="85"/>
-      <c r="F131" s="85"/>
-      <c r="G131" s="85"/>
-      <c r="H131" s="85"/>
-      <c r="I131" s="85"/>
+      <c r="B131" s="84"/>
+      <c r="C131" s="84"/>
+      <c r="D131" s="84"/>
+      <c r="E131" s="84"/>
+      <c r="F131" s="84"/>
+      <c r="G131" s="84"/>
+      <c r="H131" s="84"/>
+      <c r="I131" s="84"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="11" t="s">
@@ -4098,10 +4098,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="87">
+      <c r="A133" s="86">
         <v>44536</v>
       </c>
-      <c r="B133" s="88">
+      <c r="B133" s="87">
         <v>0.395833333333333</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -4121,8 +4121,8 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="75"/>
-      <c r="B134" s="88">
+      <c r="A134" s="74"/>
+      <c r="B134" s="87">
         <v>0.416666666666667</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -4139,8 +4139,8 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="75"/>
-      <c r="B135" s="88">
+      <c r="A135" s="74"/>
+      <c r="B135" s="87">
         <v>0.5625</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -4154,8 +4154,8 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="75"/>
-      <c r="B136" s="88">
+      <c r="A136" s="74"/>
+      <c r="B136" s="87">
         <v>0.659722222222222</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -4169,20 +4169,20 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="75"/>
+      <c r="A137" s="74"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="77"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="58"/>
-      <c r="F138" s="58">
+      <c r="A138" s="76"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="57">
         <v>11</v>
       </c>
-      <c r="G138" s="58"/>
-      <c r="H138" s="58"/>
-      <c r="I138" s="58"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="57"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
@@ -4190,7 +4190,7 @@
         <v>60</v>
       </c>
       <c r="B140" s="71"/>
-      <c r="C140" s="79" t="s">
+      <c r="C140" s="78" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       <c r="B142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="81" t="s">
+      <c r="C142" s="80" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="81" t="s">
+      <c r="C143" s="80" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       <c r="B144" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="81" t="s">
+      <c r="C144" s="80" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="81" t="s">
+      <c r="C145" s="80" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       <c r="B146" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="81" t="s">
+      <c r="C146" s="80" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
       <c r="B147" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="81" t="s">
+      <c r="C147" s="80" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
       <c r="C148" s="13"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="73" t="s">
+      <c r="A149" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="1"/>
@@ -4284,7 +4284,7 @@
       <c r="B150" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="81" t="s">
+      <c r="C150" s="80" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4318,24 +4318,24 @@
       <c r="A155" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="82" t="s">
+      <c r="B155" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="83"/>
+      <c r="C155" s="82"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="77"/>
-      <c r="B156" s="58"/>
-      <c r="C156" s="59"/>
+      <c r="A156" s="76"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="58"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="84" t="s">
+      <c r="A158" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="85"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
+      <c r="B158" s="84"/>
+      <c r="C158" s="84"/>
+      <c r="D158" s="84"/>
       <c r="E158" s="72"/>
     </row>
     <row r="159" spans="1:5">
@@ -4360,7 +4360,7 @@
       <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="86" t="s">
+      <c r="C160" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="1"/>
@@ -4373,7 +4373,7 @@
       <c r="B161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="86" t="s">
+      <c r="C161" s="85" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="1"/>
@@ -4386,7 +4386,7 @@
       <c r="B162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="86" t="s">
+      <c r="C162" s="85" t="s">
         <v>48</v>
       </c>
       <c r="D162" s="1"/>
@@ -4439,39 +4439,39 @@
       <c r="A168" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="82" t="s">
+      <c r="B168" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="82" t="s">
+      <c r="C168" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="82" t="s">
+      <c r="D168" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="83" t="s">
+      <c r="E168" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="77"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="59"/>
+      <c r="A169" s="76"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="58"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="84" t="s">
+      <c r="A171" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="85"/>
-      <c r="C171" s="85"/>
-      <c r="D171" s="85"/>
-      <c r="E171" s="85"/>
-      <c r="F171" s="85"/>
-      <c r="G171" s="85"/>
-      <c r="H171" s="85"/>
-      <c r="I171" s="85"/>
+      <c r="B171" s="84"/>
+      <c r="C171" s="84"/>
+      <c r="D171" s="84"/>
+      <c r="E171" s="84"/>
+      <c r="F171" s="84"/>
+      <c r="G171" s="84"/>
+      <c r="H171" s="84"/>
+      <c r="I171" s="84"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="11" t="s">
@@ -4503,10 +4503,10 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="87">
+      <c r="A173" s="86">
         <v>44536</v>
       </c>
-      <c r="B173" s="88">
+      <c r="B173" s="87">
         <v>0.440972222222222</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -4528,8 +4528,8 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="75"/>
-      <c r="B174" s="89">
+      <c r="A174" s="74"/>
+      <c r="B174" s="88">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -4549,8 +4549,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="75"/>
-      <c r="B175" s="89">
+      <c r="A175" s="74"/>
+      <c r="B175" s="88">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -4727,7 +4727,7 @@
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="12"/>
@@ -4752,26 +4752,26 @@
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="75"/>
+      <c r="A14" s="74"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="77"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="69"/>
     </row>
     <row r="16" ht="16.35"/>
@@ -4880,7 +4880,7 @@
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="12"/>
@@ -4905,26 +4905,26 @@
       <c r="A28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="75"/>
+      <c r="A30" s="74"/>
       <c r="D30" s="13"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="77"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="69"/>
     </row>
     <row r="32" ht="16.35"/>
@@ -5031,7 +5031,7 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="12"/>
@@ -5056,26 +5056,26 @@
       <c r="A44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="74"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="75"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="75"/>
+      <c r="A46" s="74"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="77"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="69"/>
     </row>
     <row r="48" ht="16.35"/>
@@ -5180,7 +5180,7 @@
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="12"/>
@@ -5205,26 +5205,26 @@
       <c r="A60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="74"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="75"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="75"/>
+      <c r="A62" s="74"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="77"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
+      <c r="A63" s="76"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="69"/>
     </row>
     <row r="64" ht="16.35"/>
@@ -5325,7 +5325,7 @@
       <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="12"/>
@@ -5353,7 +5353,7 @@
       <c r="B76" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="74" t="s">
+      <c r="C76" s="73" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="13"/>
@@ -5492,7 +5492,7 @@
       <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="73" t="s">
+      <c r="A90" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="12"/>
@@ -5520,7 +5520,7 @@
       <c r="B93" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="73" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="13"/>
@@ -5550,7 +5550,7 @@
       <c r="D95" s="13"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="78">
+      <c r="A96" s="77">
         <v>0.583333333333333</v>
       </c>
       <c r="B96" s="17" t="s">
@@ -5641,7 +5641,7 @@
       <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="73" t="s">
+      <c r="A106" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="12"/>
@@ -5669,7 +5669,7 @@
       <c r="B109" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="74" t="s">
+      <c r="C109" s="73" t="s">
         <v>101</v>
       </c>
       <c r="D109" s="13"/>
@@ -5699,7 +5699,7 @@
       <c r="D111" s="13"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="78">
+      <c r="A112" s="77">
         <v>0.583333333333333</v>
       </c>
       <c r="B112" s="17" t="s">
@@ -5790,7 +5790,7 @@
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="73" t="s">
+      <c r="A121" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="12"/>
@@ -5818,7 +5818,7 @@
       <c r="B124" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="74" t="s">
+      <c r="C124" s="73" t="s">
         <v>101</v>
       </c>
       <c r="D124" s="13"/>
@@ -5848,7 +5848,7 @@
       <c r="D126" s="13"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="78">
+      <c r="A127" s="77">
         <v>0.583333333333333</v>
       </c>
       <c r="B127" s="17" t="s">
@@ -5945,7 +5945,7 @@
       <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="73" t="s">
+      <c r="A136" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="12"/>
@@ -5973,7 +5973,7 @@
       <c r="B139" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="74" t="s">
+      <c r="C139" s="73" t="s">
         <v>101</v>
       </c>
       <c r="D139" s="13"/>
@@ -6003,7 +6003,7 @@
       <c r="D141" s="13"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="78">
+      <c r="A142" s="77">
         <v>0.583333333333333</v>
       </c>
       <c r="B142" s="17" t="s">
@@ -6100,7 +6100,7 @@
       <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="73" t="s">
+      <c r="A151" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="12"/>
@@ -6128,7 +6128,7 @@
       <c r="B154" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="74" t="s">
+      <c r="C154" s="73" t="s">
         <v>101</v>
       </c>
       <c r="D154" s="13"/>
@@ -6158,7 +6158,7 @@
       <c r="D156" s="13"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="78">
+      <c r="A157" s="77">
         <v>0.583333333333333</v>
       </c>
       <c r="B157" s="17" t="s">
@@ -6395,7 +6395,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -6558,12 +6558,12 @@
       <c r="B10" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
         <v>151</v>
       </c>
       <c r="F10" s="50"/>
-      <c r="G10" s="56"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="54" t="s">
@@ -6572,7 +6572,7 @@
       <c r="B11" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
         <v>154</v>
       </c>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="F12" s="50"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" ht="16.35" spans="1:6">
       <c r="A13" s="16" t="s">
         <v>158</v>
       </c>
@@ -6598,11 +6598,11 @@
         <v>159</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -6639,7 +6639,7 @@
       <c r="C17" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6659,7 +6659,7 @@
       </c>
     </row>
     <row r="21" ht="16.35" spans="8:8">
-      <c r="H21" s="61"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:6">
       <c r="A22" s="36" t="s">
@@ -6687,10 +6687,10 @@
       <c r="E23" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="63"/>
+      <c r="G23" s="62"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="43" t="s">
@@ -6727,7 +6727,7 @@
       <c r="F25" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="64"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="43" t="s">
@@ -6746,87 +6746,89 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="65" t="s">
         <v>178</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="66" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
+      <c r="A29" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>183</v>
+      <c r="E29" s="68" t="s">
+        <v>184</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="68"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>184</v>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68" t="s">
+        <v>185</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="68"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>185</v>
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68" t="s">
+        <v>186</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="13"/>
@@ -6844,7 +6846,7 @@
     </row>
     <row r="35" ht="16.35" spans="1:6">
       <c r="A35" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -6854,77 +6856,78 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="60" t="s">
-        <v>192</v>
+      <c r="A38" s="59" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="60" t="s">
-        <v>193</v>
+      <c r="A39" s="59" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="60" t="s">
-        <v>194</v>
+      <c r="A40" s="59" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="60" t="s">
-        <v>195</v>
+      <c r="A41" s="59" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="60" t="s">
-        <v>196</v>
+      <c r="A42" s="59" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="60" t="s">
-        <v>197</v>
+      <c r="A43" s="59" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="60" t="s">
-        <v>198</v>
+      <c r="A44" s="59" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="60" t="s">
-        <v>200</v>
+      <c r="A47" s="59" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="60" t="s">
-        <v>201</v>
+      <c r="A48" s="59" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="60" t="s">
-        <v>203</v>
+      <c r="A51" s="59" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="D29:D31"/>
+    <mergeCell ref="F28:F31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
@@ -6965,7 +6968,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7031,7 +7034,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -7050,7 +7053,7 @@
     <row r="10" ht="16.35"/>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -7104,7 +7107,7 @@
         <v>114</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -7123,7 +7126,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -7181,10 +7184,10 @@
         <v>114</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7202,7 +7205,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -7229,7 +7232,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>79</v>
@@ -7253,7 +7256,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>79</v>
@@ -7268,7 +7271,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D32" s="13"/>
     </row>
@@ -7319,7 +7322,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7346,7 +7349,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -7370,7 +7373,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>81</v>
@@ -7382,7 +7385,7 @@
         <v>0.625</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>77</v>
@@ -7404,7 +7407,7 @@
     <row r="9" ht="16.35"/>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
@@ -7431,7 +7434,7 @@
         <v>0.375</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>77</v>
@@ -7459,7 +7462,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>81</v>
@@ -7473,7 +7476,7 @@
         <v>0.625</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>77</v>
@@ -7495,7 +7498,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -7522,7 +7525,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>76</v>
@@ -7550,7 +7553,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>81</v>
@@ -7564,7 +7567,7 @@
         <v>0.625</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>77</v>
@@ -7580,7 +7583,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -7607,7 +7610,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>76</v>
@@ -7631,7 +7634,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>81</v>
@@ -7643,7 +7646,7 @@
         <v>0.625</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>77</v>
@@ -7684,7 +7687,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7711,7 +7714,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -7735,10 +7738,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -7784,7 +7787,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -7811,7 +7814,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>79</v>
@@ -7823,7 +7826,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>79</v>
@@ -7835,7 +7838,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>79</v>
@@ -7845,7 +7848,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>79</v>
@@ -7857,7 +7860,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>79</v>
@@ -7869,7 +7872,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7877,7 +7880,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7885,7 +7888,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7893,13 +7896,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -7926,7 +7929,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>79</v>
@@ -7938,7 +7941,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>79</v>
@@ -7950,7 +7953,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>79</v>
@@ -7960,7 +7963,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="B22" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>79</v>
@@ -7972,7 +7975,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>79</v>
@@ -8008,7 +8011,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -8035,7 +8038,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>79</v>
@@ -8047,7 +8050,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -8059,7 +8062,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>79</v>
@@ -8069,7 +8072,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>79</v>
@@ -8081,7 +8084,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>
@@ -8116,195 +8119,195 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -12,10 +12,11 @@
     <sheet name="学习计划" sheetId="9" r:id="rId3"/>
     <sheet name="4月" sheetId="10" r:id="rId4"/>
     <sheet name="5月" sheetId="11" r:id="rId5"/>
-    <sheet name="8月" sheetId="12" r:id="rId6"/>
-    <sheet name="9月" sheetId="13" r:id="rId7"/>
-    <sheet name="10月" sheetId="15" r:id="rId8"/>
-    <sheet name="摄影学习计划" sheetId="14" r:id="rId9"/>
+    <sheet name="2024.06" sheetId="16" r:id="rId6"/>
+    <sheet name="8月" sheetId="12" r:id="rId7"/>
+    <sheet name="9月" sheetId="13" r:id="rId8"/>
+    <sheet name="10月" sheetId="15" r:id="rId9"/>
+    <sheet name="摄影学习计划" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="294">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -842,6 +843,33 @@
     <t>第三周Vue3面试题</t>
   </si>
   <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>Ts复习</t>
+  </si>
+  <si>
+    <t>vue3+TS项目</t>
+  </si>
+  <si>
+    <t>第二周</t>
+  </si>
+  <si>
+    <t>使用react</t>
+  </si>
+  <si>
+    <t>第三周</t>
+  </si>
+  <si>
+    <t>第四周</t>
+  </si>
+  <si>
+    <t>TS及vite深度使用</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
     <t>跨端，react-native, futter</t>
   </si>
   <si>
@@ -851,9 +879,6 @@
     <t>2个月</t>
   </si>
   <si>
-    <t>4月，5月</t>
-  </si>
-  <si>
     <t>vue3面试题</t>
   </si>
   <si>
@@ -933,6 +958,24 @@
   </si>
   <si>
     <t>vue3实战项目</t>
+  </si>
+  <si>
+    <t>活动清单(6月3日)</t>
+  </si>
+  <si>
+    <t>可用番茄数:7</t>
+  </si>
+  <si>
+    <t>vue3知识点</t>
+  </si>
+  <si>
+    <t>活动清单(6月27日)</t>
+  </si>
+  <si>
+    <t>可用番茄数:8</t>
+  </si>
+  <si>
+    <t>everyDay（Vue3+TS面试）</t>
   </si>
   <si>
     <t>活动清单(8月1日)</t>
@@ -4609,6 +4652,230 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3" customWidth="1"/>
+    <col min="5" max="5" width="27.7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="D7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="慕课网"/>
+    <hyperlink ref="B26" r:id="rId2" display="https://www.51zxw.net/List.aspx?cid=1094"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -6392,16 +6659,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="48.2" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="32.6" customWidth="1"/>
     <col min="5" max="5" width="29.6" customWidth="1"/>
@@ -6792,7 +7059,7 @@
       <c r="D29" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="51" t="s">
         <v>184</v>
       </c>
       <c r="F29" s="13"/>
@@ -6818,99 +7085,183 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B33" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C33" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="6:6">
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" ht="16.35" spans="1:6">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="68"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="69"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="59" t="s">
+      <c r="C38" s="68" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="59" t="s">
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="59" t="s">
+      <c r="B42" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="59" t="s">
+      <c r="C42" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="59" t="s">
+      <c r="D42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="11"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" ht="16.35" spans="1:6">
+      <c r="A45" s="16" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="69"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="59" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="59" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="A50" s="59" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6919,29 +7270,71 @@
         <v>204</v>
       </c>
     </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="59" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D38"/>
     <mergeCell ref="F28:F31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A38" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A39" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A40" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A41" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A42" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A43" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A44" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A47" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A48" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A48" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A49" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A50" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A51" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A52" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A53" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A54" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A57" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A58" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId11" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
-    <hyperlink ref="A51" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A61" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6968,7 +7361,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7034,7 +7427,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -7053,7 +7446,7 @@
     <row r="10" ht="16.35"/>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -7107,7 +7500,7 @@
         <v>114</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -7126,7 +7519,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -7184,10 +7577,10 @@
         <v>114</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7205,7 +7598,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -7232,7 +7625,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>79</v>
@@ -7256,7 +7649,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>79</v>
@@ -7271,7 +7664,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D32" s="13"/>
     </row>
@@ -7309,7 +7702,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A27" sqref="A27:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -7322,7 +7715,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7349,7 +7742,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -7373,7 +7766,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>81</v>
@@ -7385,7 +7778,7 @@
         <v>0.625</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>77</v>
@@ -7407,7 +7800,7 @@
     <row r="9" ht="16.35"/>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
@@ -7434,7 +7827,7 @@
         <v>0.375</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>77</v>
@@ -7462,7 +7855,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>81</v>
@@ -7476,7 +7869,7 @@
         <v>0.625</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>77</v>
@@ -7498,7 +7891,7 @@
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
@@ -7525,7 +7918,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>76</v>
@@ -7553,7 +7946,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>81</v>
@@ -7567,7 +7960,7 @@
         <v>0.625</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>77</v>
@@ -7583,7 +7976,7 @@
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
       <c r="A27" s="23" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -7610,7 +8003,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>76</v>
@@ -7634,7 +8027,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>81</v>
@@ -7646,7 +8039,7 @@
         <v>0.625</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>77</v>
@@ -7671,6 +8064,175 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="18.1" customWidth="1"/>
+    <col min="3" max="3" width="24.4" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="20.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.35"/>
+    <row r="2" spans="2:5">
+      <c r="B2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="29">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" ht="16.35" spans="2:5">
+      <c r="B7" s="31">
+        <v>0.6875</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="9" ht="16.35"/>
+    <row r="10" spans="2:5">
+      <c r="B10" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="29">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="29">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="16.35" spans="2:5">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7687,7 +8249,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -7714,7 +8276,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -7738,10 +8300,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -7767,7 +8329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:D23"/>
@@ -7787,7 +8349,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -7814,7 +8376,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>79</v>
@@ -7826,7 +8388,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>79</v>
@@ -7838,7 +8400,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>79</v>
@@ -7848,7 +8410,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="12" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>79</v>
@@ -7860,7 +8422,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>79</v>
@@ -7872,7 +8434,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7880,7 +8442,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7888,7 +8450,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7896,13 +8458,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -7929,7 +8491,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>79</v>
@@ -7941,7 +8503,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>79</v>
@@ -7953,7 +8515,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>79</v>
@@ -7963,7 +8525,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="B22" s="12" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>79</v>
@@ -7975,7 +8537,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>79</v>
@@ -7992,7 +8554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
@@ -8011,7 +8573,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -8038,7 +8600,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>79</v>
@@ -8050,7 +8612,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -8062,7 +8624,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>79</v>
@@ -8072,7 +8634,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="12" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>79</v>
@@ -8084,7 +8646,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>
@@ -8098,228 +8660,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3" customWidth="1"/>
-    <col min="5" max="5" width="27.7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="D2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="D7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="慕课网"/>
-    <hyperlink ref="B26" r:id="rId2" display="https://www.51zxw.net/List.aspx?cid=1094"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="297">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -976,6 +976,15 @@
   </si>
   <si>
     <t>everyDay（Vue3+TS面试）</t>
+  </si>
+  <si>
+    <t>活动清单(7月25日)</t>
+  </si>
+  <si>
+    <t>浏览器原理</t>
+  </si>
+  <si>
+    <t>eslint复习</t>
   </si>
   <si>
     <t>活动清单(8月1日)</t>
@@ -4671,195 +4680,195 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -6661,8 +6670,8 @@
   <sheetPr/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -7141,11 +7150,11 @@
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51" t="s">
         <v>190</v>
       </c>
       <c r="D36" s="68" t="s">
@@ -8064,10 +8073,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -8220,10 +8229,92 @@
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
     </row>
+    <row r="17" ht="16.35"/>
+    <row r="18" spans="2:5">
+      <c r="B18" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="29">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="29">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" ht="16.35" spans="2:5">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8249,7 +8340,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -8276,7 +8367,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>76</v>
@@ -8300,7 +8391,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>214</v>
@@ -8349,7 +8440,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -8376,7 +8467,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>79</v>
@@ -8388,7 +8479,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>79</v>
@@ -8400,7 +8491,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>79</v>
@@ -8410,7 +8501,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>79</v>
@@ -8422,7 +8513,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>79</v>
@@ -8434,7 +8525,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8442,7 +8533,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8450,7 +8541,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8458,13 +8549,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -8491,7 +8582,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>79</v>
@@ -8503,7 +8594,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>79</v>
@@ -8515,7 +8606,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>79</v>
@@ -8525,7 +8616,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="B22" s="12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>79</v>
@@ -8537,7 +8628,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>79</v>
@@ -8573,7 +8664,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -8600,7 +8691,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>79</v>
@@ -8612,7 +8703,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -8624,7 +8715,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>79</v>
@@ -8634,7 +8725,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>79</v>
@@ -8646,7 +8737,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="315">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -921,6 +921,39 @@
     <t>https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
+    <t>复习准备</t>
+  </si>
+  <si>
+    <t>vue3,react模板项目，低代码平台，websocket，视频直播，组件库</t>
+  </si>
+  <si>
+    <t>部署方面；CICD,webpack,vite</t>
+  </si>
+  <si>
+    <t>JS面试题,高频考点</t>
+  </si>
+  <si>
+    <t>算法面试题HOT100</t>
+  </si>
+  <si>
+    <t>vue,react原理</t>
+  </si>
+  <si>
+    <t>项目实战</t>
+  </si>
+  <si>
+    <t>Vue3+TS+Egg.js+Nuxt3低代码全栈项目实战</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>React实战复杂低代码项目---仿问卷星</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
     <t>活动清单(4月19日)</t>
   </si>
   <si>
@@ -966,9 +999,15 @@
     <t>可用番茄数:7</t>
   </si>
   <si>
+    <t>活动清单(8月1日)</t>
+  </si>
+  <si>
     <t>vue3知识点</t>
   </si>
   <si>
+    <t>浏览器原理</t>
+  </si>
+  <si>
     <t>活动清单(6月27日)</t>
   </si>
   <si>
@@ -981,13 +1020,22 @@
     <t>活动清单(7月25日)</t>
   </si>
   <si>
-    <t>浏览器原理</t>
-  </si>
-  <si>
     <t>eslint复习</t>
   </si>
   <si>
-    <t>活动清单(8月1日)</t>
+    <t>活动清单(7月26日)</t>
+  </si>
+  <si>
+    <t>活动清单(7月29日)</t>
+  </si>
+  <si>
+    <t>可用番茄数:9</t>
+  </si>
+  <si>
+    <t>活动清单(7月30日)</t>
+  </si>
+  <si>
+    <t>活动清单(7月31日)</t>
   </si>
   <si>
     <t>需求开发</t>
@@ -1120,6 +1168,12 @@
   </si>
   <si>
     <t>感光材料的原理与应用</t>
+  </si>
+  <si>
+    <t>素描教程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Y741187Uc/?p=21&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
     <t>影视画面构成</t>
@@ -1183,7 +1237,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1294,6 +1348,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1672,7 +1732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1762,32 +1822,6 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -1926,6 +1960,58 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -2133,10 +2219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2145,119 +2228,122 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2279,9 +2365,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,58 +2413,76 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2423,7 +2533,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2432,88 +2542,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2861,107 +2968,107 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="85" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="86" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="80"/>
+      <c r="C6" s="87"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="74" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" customFormat="1" spans="1:3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" customFormat="1" spans="1:3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="89"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="72"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="80"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2973,110 +3080,110 @@
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="92" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="92" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="14"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="85"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="11"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="89" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="76"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="72"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="80"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3103,15 +3210,15 @@
       <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="86">
+      <c r="A28" s="93">
         <v>44536</v>
       </c>
-      <c r="B28" s="87">
+      <c r="B28" s="94">
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3129,11 +3236,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="74"/>
-      <c r="B29" s="87">
+      <c r="A29" s="82"/>
+      <c r="B29" s="94">
         <v>0.416666666666667</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3145,11 +3252,11 @@
       <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="50"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="74"/>
-      <c r="B30" s="87">
+      <c r="A30" s="82"/>
+      <c r="B30" s="94">
         <v>0.5625</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3161,11 +3268,11 @@
       <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="50"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="74"/>
-      <c r="B31" s="87"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="94"/>
       <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
@@ -3175,131 +3282,131 @@
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="J31" s="50"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="74"/>
-      <c r="J32" s="50"/>
+      <c r="A32" s="82"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="76"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="78" t="s">
+      <c r="B35" s="79"/>
+      <c r="C35" s="85" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="87" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="87" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="11"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="87" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="11"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="87" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="11"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="13"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="74" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="13"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="11"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="82"/>
+      <c r="C45" s="89"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="76"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="72"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="80"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3311,119 +3418,119 @@
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="13"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="14">
+      <c r="A50" s="16">
         <v>0.4375</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="92" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="13"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="14">
+      <c r="A51" s="16">
         <v>0.583333333333333</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="92" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="13"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="85"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="13"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="14">
+      <c r="A53" s="16">
         <v>0.659722222222222</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="85"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="13"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="11"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="13"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="11"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="13"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="13"/>
+      <c r="E56" s="15"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="81" t="s">
+      <c r="C57" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="81" t="s">
+      <c r="D57" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="82" t="s">
+      <c r="E57" s="89" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="76"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="58"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="66"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3452,10 +3559,10 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="86">
+      <c r="A62" s="93">
         <v>44536</v>
       </c>
-      <c r="B62" s="87">
+      <c r="B62" s="94">
         <v>0.395833333333333</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3475,8 +3582,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="74"/>
-      <c r="B63" s="87">
+      <c r="A63" s="82"/>
+      <c r="B63" s="94">
         <v>0.416666666666667</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3490,8 +3597,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="74"/>
-      <c r="B64" s="87">
+      <c r="A64" s="82"/>
+      <c r="B64" s="94">
         <v>0.5625</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3505,8 +3612,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="74"/>
-      <c r="B65" s="87"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="94"/>
       <c r="D65" s="1" t="s">
         <v>36</v>
       </c>
@@ -3518,135 +3625,135 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="74"/>
+      <c r="A66" s="82"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="76"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="71"/>
-      <c r="C70" s="78" t="s">
+      <c r="B70" s="79"/>
+      <c r="C70" s="85" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="14"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="80" t="s">
+      <c r="C72" s="87" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="11"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="87" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="11"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="87" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="11"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="87" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="11"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="80" t="s">
+      <c r="C76" s="87" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="11"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="15"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="74" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="11"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="15"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="82"/>
+      <c r="C81" s="89"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="76"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="58"/>
+      <c r="A82" s="83"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="66"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="83" t="s">
+      <c r="A84" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="72"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="80"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3658,117 +3765,117 @@
       <c r="D85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="13"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="14"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="92" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="13"/>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="14"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="92" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="1"/>
-      <c r="E87" s="13"/>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="14">
+      <c r="A88" s="16">
         <v>0.666666666666667</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="85" t="s">
+      <c r="C88" s="92" t="s">
         <v>50</v>
       </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="13"/>
+      <c r="E88" s="15"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="14"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="85"/>
+      <c r="C89" s="92"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="13"/>
+      <c r="E89" s="15"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="11"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="13"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="11"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="13"/>
+      <c r="E91" s="15"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="13"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="81" t="s">
+      <c r="B93" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="81" t="s">
+      <c r="C93" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="81" t="s">
+      <c r="D93" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="82" t="s">
+      <c r="E93" s="89" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="76"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="58"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="66"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="83" t="s">
+      <c r="A96" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -3797,10 +3904,10 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="86">
+      <c r="A98" s="93">
         <v>44536</v>
       </c>
-      <c r="B98" s="87">
+      <c r="B98" s="94">
         <v>0.395833333333333</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3820,8 +3927,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="74"/>
-      <c r="B99" s="87">
+      <c r="A99" s="82"/>
+      <c r="B99" s="94">
         <v>0.416666666666667</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -3835,8 +3942,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="74"/>
-      <c r="B100" s="87">
+      <c r="A100" s="82"/>
+      <c r="B100" s="94">
         <v>0.5625</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -3850,146 +3957,146 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="74"/>
-      <c r="B101" s="87"/>
+      <c r="A101" s="82"/>
+      <c r="B101" s="94"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="74"/>
+      <c r="A102" s="82"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="76"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57"/>
+      <c r="A103" s="83"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
-      <c r="A105" s="70" t="s">
+      <c r="A105" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="71"/>
-      <c r="C105" s="78" t="s">
+      <c r="B105" s="79"/>
+      <c r="C105" s="85" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="14">
+      <c r="A107" s="16">
         <v>0.395833333333333</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="80" t="s">
+      <c r="C107" s="87" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="11"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="80" t="s">
+      <c r="C108" s="87" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="11"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="80" t="s">
+      <c r="C109" s="87" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="11"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="80" t="s">
+      <c r="C110" s="87" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="11"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="80" t="s">
+      <c r="C111" s="87" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="11"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="15"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="67" t="s">
+      <c r="A113" s="74" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="15"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="11"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="15"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="15"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="81" t="s">
+      <c r="B116" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="82"/>
+      <c r="C116" s="89"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="76" t="s">
+      <c r="A117" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="66"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="83" t="s">
+      <c r="A119" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="84"/>
-      <c r="C119" s="84"/>
-      <c r="D119" s="84"/>
-      <c r="E119" s="72"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="80"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -4001,127 +4108,127 @@
       <c r="D120" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="13"/>
+      <c r="E120" s="15"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="14">
+      <c r="A121" s="16">
         <v>0.395833333333333</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="85" t="s">
+      <c r="C121" s="92" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="1"/>
-      <c r="E121" s="13"/>
+      <c r="E121" s="15"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="14">
+      <c r="A122" s="16">
         <v>0.416666666666667</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="85" t="s">
+      <c r="C122" s="92" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="13"/>
+      <c r="E122" s="15"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="85" t="s">
+      <c r="C123" s="92" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E123" s="13"/>
+      <c r="E123" s="15"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="14">
+      <c r="A124" s="16">
         <v>0.659722222222222</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="85" t="s">
+      <c r="C124" s="92" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="13"/>
+      <c r="E124" s="15"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="11"/>
+      <c r="A125" s="13"/>
       <c r="B125" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="13"/>
+      <c r="E125" s="15"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="11"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="13"/>
+      <c r="E126" s="15"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="13"/>
+      <c r="E127" s="15"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="81" t="s">
+      <c r="C128" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="81" t="s">
+      <c r="D128" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="82" t="s">
+      <c r="E128" s="89" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="76"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="58"/>
+      <c r="A129" s="83"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="65"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="66"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="83" t="s">
+      <c r="A131" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="84"/>
-      <c r="C131" s="84"/>
-      <c r="D131" s="84"/>
-      <c r="E131" s="84"/>
-      <c r="F131" s="84"/>
-      <c r="G131" s="84"/>
-      <c r="H131" s="84"/>
-      <c r="I131" s="84"/>
+      <c r="B131" s="91"/>
+      <c r="C131" s="91"/>
+      <c r="D131" s="91"/>
+      <c r="E131" s="91"/>
+      <c r="F131" s="91"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
+      <c r="I131" s="91"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -4150,10 +4257,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="86">
+      <c r="A133" s="93">
         <v>44536</v>
       </c>
-      <c r="B133" s="87">
+      <c r="B133" s="94">
         <v>0.395833333333333</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -4173,8 +4280,8 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="74"/>
-      <c r="B134" s="87">
+      <c r="A134" s="82"/>
+      <c r="B134" s="94">
         <v>0.416666666666667</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -4191,8 +4298,8 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="74"/>
-      <c r="B135" s="87">
+      <c r="A135" s="82"/>
+      <c r="B135" s="94">
         <v>0.5625</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -4206,8 +4313,8 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="74"/>
-      <c r="B136" s="87">
+      <c r="A136" s="82"/>
+      <c r="B136" s="94">
         <v>0.659722222222222</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -4221,177 +4328,177 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="74"/>
+      <c r="A137" s="82"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="76"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57">
+      <c r="A138" s="83"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="65"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65">
         <v>11</v>
       </c>
-      <c r="G138" s="57"/>
-      <c r="H138" s="57"/>
-      <c r="I138" s="57"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="65"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
-      <c r="A140" s="70" t="s">
+      <c r="A140" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="71"/>
-      <c r="C140" s="78" t="s">
+      <c r="B140" s="79"/>
+      <c r="C140" s="85" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="14">
+      <c r="A142" s="16">
         <v>0.395833333333333</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="80" t="s">
+      <c r="C142" s="87" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="14">
+      <c r="A143" s="16">
         <v>0.416666666666667</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="80" t="s">
+      <c r="C143" s="87" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="14">
+      <c r="A144" s="16">
         <v>0.458333333333333</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="80" t="s">
+      <c r="C144" s="87" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="14">
+      <c r="A145" s="16">
         <v>0.583333333333333</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="80" t="s">
+      <c r="C145" s="87" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="11"/>
+      <c r="A146" s="13"/>
       <c r="B146" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="80" t="s">
+      <c r="C146" s="87" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="11"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="80" t="s">
+      <c r="C147" s="87" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="11"/>
+      <c r="A148" s="13"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="13"/>
+      <c r="C148" s="15"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="67" t="s">
+      <c r="A149" s="74" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="1"/>
-      <c r="C149" s="13"/>
+      <c r="C149" s="15"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="11"/>
+      <c r="A150" s="13"/>
       <c r="B150" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="80" t="s">
+      <c r="C150" s="87" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="11"/>
+      <c r="A151" s="13"/>
       <c r="B151" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C151" s="13"/>
+      <c r="C151" s="15"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="11"/>
+      <c r="A152" s="13"/>
       <c r="B152" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C152" s="13"/>
+      <c r="C152" s="15"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="11"/>
+      <c r="A153" s="13"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="13"/>
+      <c r="C153" s="15"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B154" s="1"/>
-      <c r="C154" s="13"/>
+      <c r="C154" s="15"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="81" t="s">
+      <c r="B155" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="82"/>
+      <c r="C155" s="89"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="76"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="58"/>
+      <c r="A156" s="83"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="66"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="83" t="s">
+      <c r="A158" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="84"/>
-      <c r="C158" s="84"/>
-      <c r="D158" s="84"/>
-      <c r="E158" s="72"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="91"/>
+      <c r="D158" s="91"/>
+      <c r="E158" s="80"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -4403,130 +4510,130 @@
       <c r="D159" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E159" s="13"/>
+      <c r="E159" s="15"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="14">
+      <c r="A160" s="16">
         <v>0.440972222222222</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="85" t="s">
+      <c r="C160" s="92" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="1"/>
-      <c r="E160" s="13"/>
+      <c r="E160" s="15"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="14">
+      <c r="A161" s="16">
         <v>0.461805555555556</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="85" t="s">
+      <c r="C161" s="92" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="1"/>
-      <c r="E161" s="13"/>
+      <c r="E161" s="15"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="14">
+      <c r="A162" s="16">
         <v>0.65625</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="85" t="s">
+      <c r="C162" s="92" t="s">
         <v>48</v>
       </c>
       <c r="D162" s="1"/>
-      <c r="E162" s="13"/>
+      <c r="E162" s="15"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="11"/>
+      <c r="A163" s="13"/>
       <c r="B163" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="13"/>
+      <c r="E163" s="15"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="11"/>
+      <c r="A164" s="13"/>
       <c r="B164" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="13"/>
+      <c r="E164" s="15"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="11"/>
+      <c r="A165" s="13"/>
       <c r="B165" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="13"/>
+      <c r="E165" s="15"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="11"/>
+      <c r="A166" s="13"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="13"/>
+      <c r="E166" s="15"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="13"/>
+      <c r="E167" s="15"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="81" t="s">
+      <c r="B168" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="81" t="s">
+      <c r="C168" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="81" t="s">
+      <c r="D168" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="82" t="s">
+      <c r="E168" s="89" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="76"/>
-      <c r="B169" s="57"/>
-      <c r="C169" s="57"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="58"/>
+      <c r="A169" s="83"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="66"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="83" t="s">
+      <c r="A171" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="84"/>
-      <c r="C171" s="84"/>
-      <c r="D171" s="84"/>
-      <c r="E171" s="84"/>
-      <c r="F171" s="84"/>
-      <c r="G171" s="84"/>
-      <c r="H171" s="84"/>
-      <c r="I171" s="84"/>
+      <c r="B171" s="91"/>
+      <c r="C171" s="91"/>
+      <c r="D171" s="91"/>
+      <c r="E171" s="91"/>
+      <c r="F171" s="91"/>
+      <c r="G171" s="91"/>
+      <c r="H171" s="91"/>
+      <c r="I171" s="91"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -4555,10 +4662,10 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="86">
+      <c r="A173" s="93">
         <v>44536</v>
       </c>
-      <c r="B173" s="87">
+      <c r="B173" s="94">
         <v>0.440972222222222</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -4580,8 +4687,8 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="74"/>
-      <c r="B174" s="88">
+      <c r="A174" s="82"/>
+      <c r="B174" s="95">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -4601,8 +4708,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="74"/>
-      <c r="B175" s="88">
+      <c r="A175" s="82"/>
+      <c r="B175" s="95">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -4664,10 +4771,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -4680,196 +4787,205 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>279</v>
+        <v>295</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4879,6 +4995,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="慕课网"/>
     <hyperlink ref="B26" r:id="rId2" display="https://www.51zxw.net/List.aspx?cid=1094"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://www.bilibili.com/video/BV1Y741187Uc/?p=21&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4903,918 +5020,918 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="72"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14">
+      <c r="A3" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14">
+      <c r="A4" s="16">
         <v>0.0416666666666667</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>0.0833333333333333</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>0.125</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>0.166666666666667</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="74"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="82"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="76"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="69"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="72"/>
+      <c r="D17" s="80"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14">
+      <c r="A19" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <v>0.416666666666667</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14">
+      <c r="A22" s="16">
         <v>0.541666666666667</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14">
+      <c r="A23" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="74"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="82"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="76"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="69"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="76"/>
     </row>
     <row r="32" ht="16.35"/>
     <row r="33" spans="1:4">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71" t="s">
+      <c r="B33" s="79"/>
+      <c r="C33" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="72"/>
+      <c r="D33" s="80"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="14">
+      <c r="A35" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="14">
+      <c r="A36" s="16">
         <v>0.541666666666667</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="14">
+      <c r="A37" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="14">
+      <c r="A38" s="16">
         <v>0.541666666666667</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="14">
+      <c r="A39" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="14">
+      <c r="A40" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="13"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="13"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="74"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="13"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="74"/>
-      <c r="D46" s="13"/>
+      <c r="A46" s="82"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="76"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="69"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="76"/>
     </row>
     <row r="48" ht="16.35"/>
     <row r="49" spans="1:4">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71" t="s">
+      <c r="B49" s="79"/>
+      <c r="C49" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="72"/>
+      <c r="D49" s="80"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="14">
+      <c r="A51" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="14">
+      <c r="A52" s="16">
         <v>0.416666666666667</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="14">
+      <c r="A53" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="13"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="14">
+      <c r="A54" s="16">
         <v>0.541666666666667</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="14">
+      <c r="A55" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="13"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="14">
+      <c r="A56" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="13"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="74"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="13"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="74"/>
-      <c r="D62" s="13"/>
+      <c r="A62" s="82"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="76"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="69"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="76"/>
     </row>
     <row r="64" ht="16.35"/>
     <row r="65" spans="1:4">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71" t="s">
+      <c r="B65" s="79"/>
+      <c r="C65" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="72"/>
+      <c r="D65" s="80"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="14">
+      <c r="A67" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="14">
+      <c r="A68" s="16">
         <v>0.416666666666667</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="14">
+      <c r="A69" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="13"/>
+      <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="14">
+      <c r="A70" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="14">
+      <c r="A71" s="16">
         <v>0.625</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="13"/>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="14"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="67" t="s">
+      <c r="A73" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="13"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="35">
+      <c r="A77" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="13"/>
+      <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="11"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="13"/>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" ht="16.35" spans="1:4">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="69"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="76"/>
     </row>
     <row r="80" ht="16.35"/>
     <row r="81" spans="1:4">
-      <c r="A81" s="70" t="s">
+      <c r="A81" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71" t="s">
+      <c r="B81" s="79"/>
+      <c r="C81" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="72"/>
+      <c r="D81" s="80"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="14">
+      <c r="A83" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="14">
+      <c r="A84" s="16">
         <v>0.541666666666667</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="14">
+      <c r="A85" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="13"/>
+      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="14">
+      <c r="A86" s="16">
         <v>0.625</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="14">
+      <c r="A87" s="16">
         <v>0.625</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="13"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="14">
+      <c r="A88" s="16">
         <v>0.625</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="13"/>
+      <c r="D88" s="15"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="14"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="67" t="s">
+      <c r="A90" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="13"/>
+      <c r="D93" s="15"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="35">
+      <c r="A94" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D94" s="13"/>
+      <c r="D94" s="15"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="35">
+      <c r="A95" s="43">
         <v>0.541666666666667</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -5823,147 +5940,147 @@
       <c r="C95" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="13"/>
+      <c r="D95" s="15"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="77">
+      <c r="A96" s="84">
         <v>0.583333333333333</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="69"/>
+      <c r="D96" s="76"/>
     </row>
     <row r="98" ht="16.35"/>
     <row r="99" spans="1:4">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71" t="s">
+      <c r="B99" s="79"/>
+      <c r="C99" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="72"/>
+      <c r="D99" s="80"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D100" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="14">
+      <c r="A101" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D101" s="13"/>
+      <c r="D101" s="15"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="14">
+      <c r="A102" s="16">
         <v>0.541666666666667</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D102" s="13"/>
+      <c r="D102" s="15"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="14">
+      <c r="A103" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D103" s="13"/>
+      <c r="D103" s="15"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="14">
+      <c r="A104" s="16">
         <v>0.625</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D104" s="13"/>
+      <c r="D104" s="15"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="14"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="67" t="s">
+      <c r="A106" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="13"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="73" t="s">
+      <c r="C109" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D109" s="13"/>
+      <c r="D109" s="15"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="35">
+      <c r="A110" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="13"/>
+      <c r="D110" s="15"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="35">
+      <c r="A111" s="43">
         <v>0.541666666666667</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -5972,147 +6089,147 @@
       <c r="C111" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D111" s="13"/>
+      <c r="D111" s="15"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="77">
+      <c r="A112" s="84">
         <v>0.583333333333333</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="69"/>
+      <c r="D112" s="76"/>
     </row>
     <row r="113" ht="16.35"/>
     <row r="114" spans="1:4">
-      <c r="A114" s="70" t="s">
+      <c r="A114" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="71"/>
-      <c r="C114" s="71" t="s">
+      <c r="B114" s="79"/>
+      <c r="C114" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="72"/>
+      <c r="D114" s="80"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="D115" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="14">
+      <c r="A116" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D116" s="13"/>
+      <c r="D116" s="15"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="14">
+      <c r="A117" s="16">
         <v>0.541666666666667</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D117" s="13"/>
+      <c r="D117" s="15"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="14">
+      <c r="A118" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D118" s="13"/>
+      <c r="D118" s="15"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="14">
+      <c r="A119" s="16">
         <v>0.625</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D119" s="13"/>
+      <c r="D119" s="15"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="14"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="67" t="s">
+      <c r="A121" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="73" t="s">
+      <c r="C124" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="13"/>
+      <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="35">
+      <c r="A125" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D125" s="13"/>
+      <c r="D125" s="15"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="35">
+      <c r="A126" s="43">
         <v>0.541666666666667</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -6121,153 +6238,153 @@
       <c r="C126" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="13"/>
+      <c r="D126" s="15"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="77">
+      <c r="A127" s="84">
         <v>0.583333333333333</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="69"/>
+      <c r="D127" s="76"/>
     </row>
     <row r="128" ht="16.35"/>
     <row r="129" spans="1:4">
-      <c r="A129" s="70" t="s">
+      <c r="A129" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="71"/>
-      <c r="C129" s="71" t="s">
+      <c r="B129" s="79"/>
+      <c r="C129" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="72"/>
+      <c r="D129" s="80"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="14">
+      <c r="A131" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D131" s="13"/>
+      <c r="D131" s="15"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="14">
+      <c r="A132" s="16">
         <v>0.416666666666667</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="13"/>
+      <c r="D132" s="15"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="14">
+      <c r="A133" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D133" s="13"/>
+      <c r="D133" s="15"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="14">
+      <c r="A134" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D134" s="13"/>
+      <c r="D134" s="15"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="14">
+      <c r="A135" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D135" s="13"/>
+      <c r="D135" s="15"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="67" t="s">
+      <c r="A136" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="13"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="73" t="s">
+      <c r="C139" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D139" s="13"/>
+      <c r="D139" s="15"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="35">
+      <c r="A140" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C140" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D140" s="13"/>
+      <c r="D140" s="15"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="35">
+      <c r="A141" s="43">
         <v>0.541666666666667</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -6276,153 +6393,153 @@
       <c r="C141" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D141" s="13"/>
+      <c r="D141" s="15"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="77">
+      <c r="A142" s="84">
         <v>0.583333333333333</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="69"/>
+      <c r="D142" s="76"/>
     </row>
     <row r="143" ht="16.35"/>
     <row r="144" spans="1:4">
-      <c r="A144" s="70" t="s">
+      <c r="A144" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="71"/>
-      <c r="C144" s="71" t="s">
+      <c r="B144" s="79"/>
+      <c r="C144" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="72"/>
+      <c r="D144" s="80"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="D145" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="14">
+      <c r="A146" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D146" s="13"/>
+      <c r="D146" s="15"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="14">
+      <c r="A147" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D147" s="13"/>
+      <c r="D147" s="15"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="14">
+      <c r="A148" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D148" s="13"/>
+      <c r="D148" s="15"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="14">
+      <c r="A149" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D149" s="13"/>
+      <c r="D149" s="15"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="14">
+      <c r="A150" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D150" s="13"/>
+      <c r="D150" s="15"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="67" t="s">
+      <c r="A151" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="13"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="11"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="13"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="13"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B154" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="73" t="s">
+      <c r="C154" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D154" s="13"/>
+      <c r="D154" s="15"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="35">
+      <c r="A155" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D155" s="13"/>
+      <c r="D155" s="15"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="35">
+      <c r="A156" s="43">
         <v>0.541666666666667</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -6431,197 +6548,197 @@
       <c r="C156" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D156" s="13"/>
+      <c r="D156" s="15"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="77">
+      <c r="A157" s="84">
         <v>0.583333333333333</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="69"/>
+      <c r="D157" s="76"/>
     </row>
     <row r="158" ht="16.35"/>
     <row r="159" spans="1:4">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9" t="s">
+      <c r="B159" s="11"/>
+      <c r="C159" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D159" s="10"/>
+      <c r="D159" s="12"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="13" t="s">
+      <c r="D160" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="14">
+      <c r="A161" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C161" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D161" s="13" t="s">
+      <c r="D161" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="14">
+      <c r="A162" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="B162" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C162" s="15" t="s">
+      <c r="C162" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="D162" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="14">
+      <c r="A163" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="14">
+      <c r="A164" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C164" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D164" s="13" t="s">
+      <c r="D164" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="165" ht="16.35" spans="1:4">
-      <c r="A165" s="21"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="18"/>
+      <c r="A165" s="41"/>
+      <c r="B165" s="42"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="20"/>
     </row>
     <row r="166" ht="16.35"/>
     <row r="167" spans="1:4">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9" t="s">
+      <c r="B167" s="11"/>
+      <c r="C167" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D167" s="10"/>
+      <c r="D167" s="12"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="13" t="s">
+      <c r="D168" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="14">
+      <c r="A169" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C169" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D169" s="13"/>
+      <c r="D169" s="15"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="14">
+      <c r="A170" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B170" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C170" s="15" t="s">
+      <c r="C170" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D170" s="13"/>
+      <c r="D170" s="15"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="14">
+      <c r="A171" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="C171" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D171" s="13"/>
+      <c r="D171" s="15"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="14">
+      <c r="A172" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="C172" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D172" s="13"/>
+      <c r="D172" s="15"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="14">
+      <c r="A173" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D173" s="13"/>
+      <c r="D173" s="15"/>
     </row>
     <row r="174" ht="16.35" spans="1:4">
-      <c r="A174" s="21"/>
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="18"/>
+      <c r="A174" s="41"/>
+      <c r="B174" s="42"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -6668,10 +6785,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -6685,177 +6802,177 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="50" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="54" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="56" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6864,21 +6981,21 @@
       <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" ht="16.35" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="56" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -6915,7 +7032,7 @@
       <c r="C17" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="7" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6935,290 +7052,290 @@
       </c>
     </row>
     <row r="21" ht="16.35" spans="8:8">
-      <c r="H21" s="60"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:6">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="69"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="56" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="63"/>
+      <c r="H25" s="70"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="48" t="s">
+      <c r="E26" s="52"/>
+      <c r="F26" s="56" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="72" t="s">
         <v>178</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="73" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68" t="s">
+      <c r="B28" s="75"/>
+      <c r="C28" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="75"/>
+      <c r="C29" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68" t="s">
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="75"/>
+      <c r="C32" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="13"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68" t="s">
+      <c r="B35" s="75"/>
+      <c r="C35" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="13"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51" t="s">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68" t="s">
+      <c r="B37" s="75"/>
+      <c r="C37" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="13"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="13"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="13"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="13"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="13"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -7231,28 +7348,28 @@
         <v>140</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="13"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="13"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="11"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" ht="16.35" spans="1:6">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="69"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="76"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
@@ -7260,37 +7377,37 @@
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7300,12 +7417,12 @@
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7315,8 +7432,59 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="7" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" ht="18.6" spans="1:2">
+      <c r="A73" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7344,6 +7512,8 @@
     <hyperlink ref="A58" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId11" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
     <hyperlink ref="A61" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B72" r:id="rId13" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B73" r:id="rId14" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7369,325 +7539,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14">
+      <c r="A3" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14">
+      <c r="A4" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>0.604166666666667</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="C6" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" ht="16.35" spans="1:4">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="10" ht="16.35"/>
     <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <v>0.375</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14">
+      <c r="A14" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14">
+      <c r="A15" s="16">
         <v>0.604166666666667</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" ht="16.35" spans="1:4">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="18"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14">
+      <c r="A22" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14">
+      <c r="A23" s="16">
         <v>0.604166666666667</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>214</v>
+      <c r="C23" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" ht="16.35" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35">
+      <c r="A29" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="14">
+      <c r="A30" s="16">
         <v>0.416666666666667</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14">
+      <c r="A31" s="16">
         <v>0.541666666666667</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="14">
+      <c r="A32" s="16">
         <v>0.604166666666667</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="13"/>
+      <c r="C32" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" ht="16.35" spans="1:4">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="18"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7723,337 +7893,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14">
+      <c r="A3" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14">
+      <c r="A4" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>0.625</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" ht="16.35" spans="1:4">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" ht="16.35"/>
     <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>0.375</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14">
+      <c r="A14" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14">
+      <c r="A15" s="16">
         <v>0.625</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" ht="16.35" spans="1:4">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="18"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14">
+      <c r="A22" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14">
+      <c r="A23" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <v>0.625</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" ht="16.35" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" ht="16.35"/>
     <row r="27" spans="1:4">
-      <c r="A27" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="29">
+      <c r="A29" s="33">
         <v>0.395833333333333</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="29">
+      <c r="A30" s="33">
         <v>0.5625</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="29">
+      <c r="A31" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" ht="16.35" spans="1:4">
-      <c r="A32" s="31">
+      <c r="A32" s="35">
         <v>0.625</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="33" t="s">
+      <c r="B32" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8073,248 +8243,612 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E24"/>
+  <dimension ref="B1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18.1" customWidth="1"/>
     <col min="3" max="3" width="24.4" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="20.2" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="21.7" customWidth="1"/>
+    <col min="11" max="11" width="15.4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.35"/>
-    <row r="2" spans="2:5">
-      <c r="B2" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="26" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="H2" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="29">
+      <c r="H3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="33">
         <v>0.416666666666667</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="32" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="29">
+      <c r="H4" s="33">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="29">
+      <c r="E5" s="32"/>
+      <c r="H5" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" ht="16.35" spans="2:5">
-      <c r="B7" s="31">
+      <c r="E6" s="32"/>
+      <c r="H6" s="33">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" ht="16.35" spans="2:11">
+      <c r="B7" s="35">
         <v>0.6875</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="38"/>
+      <c r="H7" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="38"/>
     </row>
     <row r="9" ht="16.35"/>
     <row r="10" spans="2:5">
-      <c r="B10" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="25"/>
+      <c r="B10" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="29">
+      <c r="B12" s="33">
         <v>0.395833333333333</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="29">
+      <c r="B13" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="29">
+      <c r="B14" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" ht="16.35" spans="2:5">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="17" ht="16.35"/>
     <row r="18" spans="2:5">
-      <c r="B18" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" s="25"/>
+      <c r="B18" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="29">
+      <c r="B20" s="33">
         <v>0.395833333333333</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="29">
+      <c r="B21" s="33">
         <v>0.458333333333333</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="29">
+      <c r="B22" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="32" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="29">
+      <c r="B23" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" ht="16.35" spans="2:5">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="26" customFormat="1" ht="16.35"/>
+    <row r="27" spans="2:5">
+      <c r="B27" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="33"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" ht="16.35" spans="2:5">
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+    </row>
+    <row r="35" ht="16.35"/>
+    <row r="36" spans="2:5">
+      <c r="B36" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" ht="16.35" spans="2:5">
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+    </row>
+    <row r="43" ht="16.35"/>
+    <row r="44" spans="2:5">
+      <c r="B44" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="29"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" ht="16.35" spans="2:5">
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+    </row>
+    <row r="51" ht="16.35"/>
+    <row r="52" spans="2:5">
+      <c r="B52" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" s="29"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="32"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" ht="16.35" spans="2:5">
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8327,7 +8861,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -8339,76 +8873,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14">
+      <c r="A3" s="25">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14">
+      <c r="A4" s="25">
         <v>0.541666666666667</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14">
+      <c r="A5" s="25">
         <v>0.583333333333333</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" ht="16.35" spans="1:4">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="18"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="26"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8439,201 +8971,201 @@
   <sheetData>
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14">
+      <c r="A8" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" ht="16.35" spans="1:4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="19">
+      <c r="A12" s="21">
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="20">
+      <c r="A13" s="22">
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20">
+      <c r="A14" s="22">
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20">
+      <c r="A15" s="22">
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14">
+      <c r="A19" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" ht="16.35" spans="1:4">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8663,86 +9195,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14">
+      <c r="A3" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14">
+      <c r="A4" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" ht="16.35" spans="1:4">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="5"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
     <sheet name="3月" sheetId="7" r:id="rId2"/>
     <sheet name="学习计划" sheetId="9" r:id="rId3"/>
-    <sheet name="4月" sheetId="10" r:id="rId4"/>
-    <sheet name="5月" sheetId="11" r:id="rId5"/>
-    <sheet name="2024.06" sheetId="16" r:id="rId6"/>
-    <sheet name="8月" sheetId="12" r:id="rId7"/>
-    <sheet name="9月" sheetId="13" r:id="rId8"/>
-    <sheet name="10月" sheetId="15" r:id="rId9"/>
-    <sheet name="摄影学习计划" sheetId="14" r:id="rId10"/>
+    <sheet name="2024第二季度" sheetId="11" r:id="rId4"/>
+    <sheet name="2024第三季度" sheetId="16" r:id="rId5"/>
+    <sheet name="8月" sheetId="12" r:id="rId6"/>
+    <sheet name="9月" sheetId="13" r:id="rId7"/>
+    <sheet name="10月" sheetId="15" r:id="rId8"/>
+    <sheet name="摄影学习计划" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="334">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -870,6 +869,63 @@
     <t>7月</t>
   </si>
   <si>
+    <t>第一周上午</t>
+  </si>
+  <si>
+    <t>8月-复习专题</t>
+  </si>
+  <si>
+    <t>第一周下午</t>
+  </si>
+  <si>
+    <t>react原理</t>
+  </si>
+  <si>
+    <t>第二周上午</t>
+  </si>
+  <si>
+    <t>devops；CICD,webpack,vite</t>
+  </si>
+  <si>
+    <t>第二周下午</t>
+  </si>
+  <si>
+    <t>JS面试题,高频考点</t>
+  </si>
+  <si>
+    <t>第一二周中午</t>
+  </si>
+  <si>
+    <t>算法面试题HOT100</t>
+  </si>
+  <si>
+    <t>vue，ts面试题</t>
+  </si>
+  <si>
+    <t>第三周上午</t>
+  </si>
+  <si>
+    <t>websocket，视频直播，</t>
+  </si>
+  <si>
+    <t>第三周下午</t>
+  </si>
+  <si>
+    <t>react，ts面试题</t>
+  </si>
+  <si>
+    <t>第四周上午</t>
+  </si>
+  <si>
+    <t>JSBridge</t>
+  </si>
+  <si>
+    <t>第四周下午</t>
+  </si>
+  <si>
+    <t>vue3,react模板项目，组件库</t>
+  </si>
+  <si>
     <t>跨端，react-native, futter</t>
   </si>
   <si>
@@ -930,12 +986,6 @@
     <t>部署方面；CICD,webpack,vite</t>
   </si>
   <si>
-    <t>JS面试题,高频考点</t>
-  </si>
-  <si>
-    <t>算法面试题HOT100</t>
-  </si>
-  <si>
     <t>vue,react原理</t>
   </si>
   <si>
@@ -957,79 +1007,85 @@
     <t>活动清单(4月19日)</t>
   </si>
   <si>
+    <t>活动清单(5月9日)</t>
+  </si>
+  <si>
+    <t>活动清单(6月3日)</t>
+  </si>
+  <si>
+    <t>可用番茄数:7</t>
+  </si>
+  <si>
+    <t>vue3学习</t>
+  </si>
+  <si>
+    <t>vue3知识点</t>
+  </si>
+  <si>
     <t>●●●●●●</t>
   </si>
   <si>
+    <t>活动清单(6月27日)</t>
+  </si>
+  <si>
+    <t>可用番茄数:8</t>
+  </si>
+  <si>
+    <t>活动清单(5月10日)</t>
+  </si>
+  <si>
     <t>活动清单(4月20日)</t>
   </si>
   <si>
+    <t>everyDay（Vue3+TS面试）</t>
+  </si>
+  <si>
     <t>活动清单(4月24日)</t>
   </si>
   <si>
+    <t>活动清单(5月11日)</t>
+  </si>
+  <si>
     <t>活动清单(4月25日)</t>
   </si>
   <si>
+    <t>活动清单(5月12日)</t>
+  </si>
+  <si>
     <t>开发</t>
   </si>
   <si>
+    <t>vue3实战项目</t>
+  </si>
+  <si>
     <t>项目整理</t>
   </si>
   <si>
-    <t>活动清单(5月9日)</t>
-  </si>
-  <si>
-    <t>vue3学习</t>
-  </si>
-  <si>
-    <t>活动清单(5月10日)</t>
-  </si>
-  <si>
-    <t>活动清单(5月11日)</t>
-  </si>
-  <si>
-    <t>活动清单(5月12日)</t>
-  </si>
-  <si>
-    <t>vue3实战项目</t>
-  </si>
-  <si>
-    <t>活动清单(6月3日)</t>
-  </si>
-  <si>
-    <t>可用番茄数:7</t>
+    <t>活动清单(7月25日)</t>
   </si>
   <si>
     <t>活动清单(8月1日)</t>
   </si>
   <si>
-    <t>vue3知识点</t>
+    <t>可用番茄数:9</t>
   </si>
   <si>
     <t>浏览器原理</t>
   </si>
   <si>
-    <t>活动清单(6月27日)</t>
-  </si>
-  <si>
-    <t>可用番茄数:8</t>
-  </si>
-  <si>
-    <t>everyDay（Vue3+TS面试）</t>
-  </si>
-  <si>
-    <t>活动清单(7月25日)</t>
-  </si>
-  <si>
     <t>eslint复习</t>
   </si>
   <si>
+    <t>活动清单(8月2日)</t>
+  </si>
+  <si>
     <t>活动清单(7月26日)</t>
   </si>
   <si>
+    <t>活动清单(8月5日)</t>
+  </si>
+  <si>
     <t>活动清单(7月29日)</t>
-  </si>
-  <si>
-    <t>可用番茄数:9</t>
   </si>
   <si>
     <t>活动清单(7月30日)</t>
@@ -2343,7 +2399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2475,6 +2531,45 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2953,8 +3048,8 @@
   <sheetPr/>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167:D167"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
@@ -2968,11 +3063,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="85" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="98" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2992,7 +3087,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="99" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3001,7 +3096,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="100" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3010,14 +3105,14 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="100" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="13"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="87"/>
+      <c r="C6" s="100"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="13"/>
@@ -3025,7 +3120,7 @@
       <c r="C7" s="15"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
@@ -3047,25 +3142,25 @@
       <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="102"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="80"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="93"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="13" t="s">
@@ -3087,7 +3182,7 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="105" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
@@ -3098,7 +3193,7 @@
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="105" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
@@ -3109,14 +3204,14 @@
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="1"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="92"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="1"/>
       <c r="E19" s="15"/>
     </row>
@@ -3147,40 +3242,40 @@
       <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="102" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="83"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="80"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="93"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="13" t="s">
@@ -3210,15 +3305,15 @@
       <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="58" t="s">
+      <c r="J27" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="93">
+      <c r="A28" s="106">
         <v>44536</v>
       </c>
-      <c r="B28" s="94">
+      <c r="B28" s="107">
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3236,11 +3331,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="58"/>
+      <c r="J28" s="71"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="82"/>
-      <c r="B29" s="94">
+      <c r="A29" s="95"/>
+      <c r="B29" s="107">
         <v>0.416666666666667</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3252,11 +3347,11 @@
       <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="58"/>
+      <c r="J29" s="71"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="82"/>
-      <c r="B30" s="94">
+      <c r="A30" s="95"/>
+      <c r="B30" s="107">
         <v>0.5625</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3268,11 +3363,11 @@
       <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="58"/>
+      <c r="J30" s="71"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="82"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="107"/>
       <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
@@ -3282,31 +3377,31 @@
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="J31" s="58"/>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="82"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="95"/>
+      <c r="J32" s="71"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="83"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="79"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="85" t="s">
+      <c r="B35" s="92"/>
+      <c r="C35" s="98" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3326,7 +3421,7 @@
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="100" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3335,7 +3430,7 @@
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="100" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3344,7 +3439,7 @@
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="100" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3353,7 +3448,7 @@
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="100" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3363,7 +3458,7 @@
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1"/>
@@ -3385,25 +3480,25 @@
       <c r="A45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="89"/>
+      <c r="C45" s="102"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="83"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="79"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="80"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="93"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="13" t="s">
@@ -3427,7 +3522,7 @@
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="105" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="1"/>
@@ -3440,7 +3535,7 @@
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="105" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="1"/>
@@ -3453,7 +3548,7 @@
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="92"/>
+      <c r="C52" s="105"/>
       <c r="D52" s="1"/>
       <c r="E52" s="15"/>
     </row>
@@ -3464,7 +3559,7 @@
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="92"/>
+      <c r="C53" s="105"/>
       <c r="D53" s="1"/>
       <c r="E53" s="15"/>
     </row>
@@ -3495,39 +3590,39 @@
       <c r="A57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="88" t="s">
+      <c r="C57" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="D57" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="89" t="s">
+      <c r="E57" s="102" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="83"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="66"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="79"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="13" t="s">
@@ -3559,10 +3654,10 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="93">
+      <c r="A62" s="106">
         <v>44536</v>
       </c>
-      <c r="B62" s="94">
+      <c r="B62" s="107">
         <v>0.395833333333333</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3582,8 +3677,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="82"/>
-      <c r="B63" s="94">
+      <c r="A63" s="95"/>
+      <c r="B63" s="107">
         <v>0.416666666666667</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3597,8 +3692,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="82"/>
-      <c r="B64" s="94">
+      <c r="A64" s="95"/>
+      <c r="B64" s="107">
         <v>0.5625</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3612,8 +3707,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="82"/>
-      <c r="B65" s="94"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="107"/>
       <c r="D65" s="1" t="s">
         <v>36</v>
       </c>
@@ -3625,26 +3720,26 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="82"/>
+      <c r="A66" s="95"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="83"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="85" t="s">
+      <c r="B70" s="92"/>
+      <c r="C70" s="98" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3664,7 +3759,7 @@
       <c r="B72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="100" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3673,7 +3768,7 @@
       <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="87" t="s">
+      <c r="C73" s="100" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3682,7 +3777,7 @@
       <c r="B74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="87" t="s">
+      <c r="C74" s="100" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3691,7 +3786,7 @@
       <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="87" t="s">
+      <c r="C75" s="100" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3700,7 +3795,7 @@
       <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="87" t="s">
+      <c r="C76" s="100" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3710,7 +3805,7 @@
       <c r="C77" s="15"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="74" t="s">
+      <c r="A78" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1"/>
@@ -3732,25 +3827,25 @@
       <c r="A81" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="88" t="s">
+      <c r="B81" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="89"/>
+      <c r="C81" s="102"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="83"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="66"/>
+      <c r="A82" s="96"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="79"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="91"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="80"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="93"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="13" t="s">
@@ -3772,7 +3867,7 @@
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="92" t="s">
+      <c r="C86" s="105" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="1"/>
@@ -3783,7 +3878,7 @@
       <c r="B87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="92" t="s">
+      <c r="C87" s="105" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="1"/>
@@ -3796,7 +3891,7 @@
       <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="92" t="s">
+      <c r="C88" s="105" t="s">
         <v>50</v>
       </c>
       <c r="D88" s="1"/>
@@ -3807,7 +3902,7 @@
       <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="92"/>
+      <c r="C89" s="105"/>
       <c r="D89" s="1"/>
       <c r="E89" s="15"/>
     </row>
@@ -3840,39 +3935,39 @@
       <c r="A93" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="88" t="s">
+      <c r="B93" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="88" t="s">
+      <c r="C93" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="88" t="s">
+      <c r="D93" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="89" t="s">
+      <c r="E93" s="102" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="83"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="66"/>
+      <c r="A94" s="96"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="79"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="90" t="s">
+      <c r="A96" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="104"/>
+      <c r="E96" s="104"/>
+      <c r="F96" s="104"/>
+      <c r="G96" s="104"/>
+      <c r="H96" s="104"/>
+      <c r="I96" s="104"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="13" t="s">
@@ -3904,10 +3999,10 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="93">
+      <c r="A98" s="106">
         <v>44536</v>
       </c>
-      <c r="B98" s="94">
+      <c r="B98" s="107">
         <v>0.395833333333333</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3927,8 +4022,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="82"/>
-      <c r="B99" s="94">
+      <c r="A99" s="95"/>
+      <c r="B99" s="107">
         <v>0.416666666666667</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -3942,8 +4037,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="82"/>
-      <c r="B100" s="94">
+      <c r="A100" s="95"/>
+      <c r="B100" s="107">
         <v>0.5625</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -3957,33 +4052,33 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="82"/>
-      <c r="B101" s="94"/>
+      <c r="A101" s="95"/>
+      <c r="B101" s="107"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="82"/>
+      <c r="A102" s="95"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="83"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
+      <c r="A103" s="96"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
-      <c r="A105" s="78" t="s">
+      <c r="A105" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="79"/>
-      <c r="C105" s="85" t="s">
+      <c r="B105" s="92"/>
+      <c r="C105" s="98" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4005,7 +4100,7 @@
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="87" t="s">
+      <c r="C107" s="100" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4014,7 +4109,7 @@
       <c r="B108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="87" t="s">
+      <c r="C108" s="100" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4023,7 +4118,7 @@
       <c r="B109" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="87" t="s">
+      <c r="C109" s="100" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4032,7 +4127,7 @@
       <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="87" t="s">
+      <c r="C110" s="100" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4041,7 +4136,7 @@
       <c r="B111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="87" t="s">
+      <c r="C111" s="100" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4051,7 +4146,7 @@
       <c r="C112" s="15"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="74" t="s">
+      <c r="A113" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="1"/>
@@ -4073,27 +4168,27 @@
       <c r="A116" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="88" t="s">
+      <c r="B116" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="89"/>
+      <c r="C116" s="102"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="83" t="s">
+      <c r="A117" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="65"/>
-      <c r="C117" s="66"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="79"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="90" t="s">
+      <c r="A119" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="91"/>
-      <c r="C119" s="91"/>
-      <c r="D119" s="91"/>
-      <c r="E119" s="80"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="104"/>
+      <c r="D119" s="104"/>
+      <c r="E119" s="93"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="13" t="s">
@@ -4117,7 +4212,7 @@
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="92" t="s">
+      <c r="C121" s="105" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="1"/>
@@ -4130,7 +4225,7 @@
       <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="92" t="s">
+      <c r="C122" s="105" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1"/>
@@ -4143,7 +4238,7 @@
       <c r="B123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="92" t="s">
+      <c r="C123" s="105" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -4158,7 +4253,7 @@
       <c r="B124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="92" t="s">
+      <c r="C124" s="105" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="1"/>
@@ -4193,39 +4288,39 @@
       <c r="A128" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="88" t="s">
+      <c r="B128" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="88" t="s">
+      <c r="C128" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="88" t="s">
+      <c r="D128" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="89" t="s">
+      <c r="E128" s="102" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="83"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="66"/>
+      <c r="A129" s="96"/>
+      <c r="B129" s="78"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="78"/>
+      <c r="E129" s="79"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="90" t="s">
+      <c r="A131" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="91"/>
-      <c r="C131" s="91"/>
-      <c r="D131" s="91"/>
-      <c r="E131" s="91"/>
-      <c r="F131" s="91"/>
-      <c r="G131" s="91"/>
-      <c r="H131" s="91"/>
-      <c r="I131" s="91"/>
+      <c r="B131" s="104"/>
+      <c r="C131" s="104"/>
+      <c r="D131" s="104"/>
+      <c r="E131" s="104"/>
+      <c r="F131" s="104"/>
+      <c r="G131" s="104"/>
+      <c r="H131" s="104"/>
+      <c r="I131" s="104"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="13" t="s">
@@ -4257,10 +4352,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="93">
+      <c r="A133" s="106">
         <v>44536</v>
       </c>
-      <c r="B133" s="94">
+      <c r="B133" s="107">
         <v>0.395833333333333</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -4280,8 +4375,8 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="82"/>
-      <c r="B134" s="94">
+      <c r="A134" s="95"/>
+      <c r="B134" s="107">
         <v>0.416666666666667</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -4298,8 +4393,8 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="82"/>
-      <c r="B135" s="94">
+      <c r="A135" s="95"/>
+      <c r="B135" s="107">
         <v>0.5625</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -4313,8 +4408,8 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="82"/>
-      <c r="B136" s="94">
+      <c r="A136" s="95"/>
+      <c r="B136" s="107">
         <v>0.659722222222222</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -4328,28 +4423,28 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="82"/>
+      <c r="A137" s="95"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="83"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65">
+      <c r="A138" s="96"/>
+      <c r="B138" s="78"/>
+      <c r="C138" s="78"/>
+      <c r="D138" s="78"/>
+      <c r="E138" s="78"/>
+      <c r="F138" s="78">
         <v>11</v>
       </c>
-      <c r="G138" s="65"/>
-      <c r="H138" s="65"/>
-      <c r="I138" s="65"/>
+      <c r="G138" s="78"/>
+      <c r="H138" s="78"/>
+      <c r="I138" s="78"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
-      <c r="A140" s="78" t="s">
+      <c r="A140" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="79"/>
-      <c r="C140" s="85" t="s">
+      <c r="B140" s="92"/>
+      <c r="C140" s="98" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4371,7 +4466,7 @@
       <c r="B142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="87" t="s">
+      <c r="C142" s="100" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4382,7 +4477,7 @@
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="87" t="s">
+      <c r="C143" s="100" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4393,7 +4488,7 @@
       <c r="B144" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="87" t="s">
+      <c r="C144" s="100" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4404,7 +4499,7 @@
       <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="87" t="s">
+      <c r="C145" s="100" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4413,7 +4508,7 @@
       <c r="B146" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="87" t="s">
+      <c r="C146" s="100" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4422,7 +4517,7 @@
       <c r="B147" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="87" t="s">
+      <c r="C147" s="100" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4432,7 +4527,7 @@
       <c r="C148" s="15"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="74" t="s">
+      <c r="A149" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="1"/>
@@ -4443,7 +4538,7 @@
       <c r="B150" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="87" t="s">
+      <c r="C150" s="100" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4477,25 +4572,25 @@
       <c r="A155" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="88" t="s">
+      <c r="B155" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="89"/>
+      <c r="C155" s="102"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="83"/>
-      <c r="B156" s="65"/>
-      <c r="C156" s="66"/>
+      <c r="A156" s="96"/>
+      <c r="B156" s="78"/>
+      <c r="C156" s="79"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="90" t="s">
+      <c r="A158" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="91"/>
-      <c r="C158" s="91"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="80"/>
+      <c r="B158" s="104"/>
+      <c r="C158" s="104"/>
+      <c r="D158" s="104"/>
+      <c r="E158" s="93"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="13" t="s">
@@ -4519,7 +4614,7 @@
       <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="92" t="s">
+      <c r="C160" s="105" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="1"/>
@@ -4532,7 +4627,7 @@
       <c r="B161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="92" t="s">
+      <c r="C161" s="105" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="1"/>
@@ -4545,7 +4640,7 @@
       <c r="B162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="92" t="s">
+      <c r="C162" s="105" t="s">
         <v>48</v>
       </c>
       <c r="D162" s="1"/>
@@ -4598,39 +4693,39 @@
       <c r="A168" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="88" t="s">
+      <c r="B168" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="88" t="s">
+      <c r="C168" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="88" t="s">
+      <c r="D168" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="89" t="s">
+      <c r="E168" s="102" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="83"/>
-      <c r="B169" s="65"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="66"/>
+      <c r="A169" s="96"/>
+      <c r="B169" s="78"/>
+      <c r="C169" s="78"/>
+      <c r="D169" s="78"/>
+      <c r="E169" s="79"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="90" t="s">
+      <c r="A171" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="91"/>
-      <c r="C171" s="91"/>
-      <c r="D171" s="91"/>
-      <c r="E171" s="91"/>
-      <c r="F171" s="91"/>
-      <c r="G171" s="91"/>
-      <c r="H171" s="91"/>
-      <c r="I171" s="91"/>
+      <c r="B171" s="104"/>
+      <c r="C171" s="104"/>
+      <c r="D171" s="104"/>
+      <c r="E171" s="104"/>
+      <c r="F171" s="104"/>
+      <c r="G171" s="104"/>
+      <c r="H171" s="104"/>
+      <c r="I171" s="104"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="13" t="s">
@@ -4662,10 +4757,10 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="93">
+      <c r="A173" s="106">
         <v>44536</v>
       </c>
-      <c r="B173" s="94">
+      <c r="B173" s="107">
         <v>0.440972222222222</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -4687,8 +4782,8 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="82"/>
-      <c r="B174" s="95">
+      <c r="A174" s="95"/>
+      <c r="B174" s="108">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -4708,8 +4803,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="82"/>
-      <c r="B175" s="95">
+      <c r="A175" s="95"/>
+      <c r="B175" s="108">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -4768,247 +4863,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3" customWidth="1"/>
-    <col min="5" max="5" width="27.7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="D2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="D7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="慕课网"/>
-    <hyperlink ref="B26" r:id="rId2" display="https://www.51zxw.net/List.aspx?cid=1094"/>
-    <hyperlink ref="E11" r:id="rId3" display="https://www.bilibili.com/video/BV1Y741187Uc/?p=21&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -5020,14 +4881,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="80"/>
+      <c r="D1" s="93"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
@@ -5120,7 +4981,7 @@
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
@@ -5145,38 +5006,38 @@
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="82"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="82"/>
+      <c r="A14" s="95"/>
       <c r="D14" s="15"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="83"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="76"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="80"/>
+      <c r="D17" s="93"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
@@ -5273,7 +5134,7 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="14"/>
@@ -5298,38 +5159,38 @@
       <c r="A28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="81"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="82"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="82"/>
+      <c r="A30" s="95"/>
       <c r="D30" s="15"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="83"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="76"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="89"/>
     </row>
     <row r="32" ht="16.35"/>
     <row r="33" spans="1:4">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79" t="s">
+      <c r="B33" s="92"/>
+      <c r="C33" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="D33" s="93"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="13" t="s">
@@ -5424,7 +5285,7 @@
       <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="14"/>
@@ -5449,38 +5310,38 @@
       <c r="A44" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="81"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="82"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
       <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="82"/>
+      <c r="A46" s="95"/>
       <c r="D46" s="15"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="83"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="76"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="89"/>
     </row>
     <row r="48" ht="16.35"/>
     <row r="49" spans="1:4">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79" t="s">
+      <c r="B49" s="92"/>
+      <c r="C49" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="80"/>
+      <c r="D49" s="93"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="13" t="s">
@@ -5573,7 +5434,7 @@
       <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="14"/>
@@ -5598,38 +5459,38 @@
       <c r="A60" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="81"/>
+      <c r="C60" s="94"/>
       <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="82"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="82"/>
+      <c r="A62" s="95"/>
       <c r="D62" s="15"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="83"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="76"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="89"/>
     </row>
     <row r="64" ht="16.35"/>
     <row r="65" spans="1:4">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79" t="s">
+      <c r="B65" s="92"/>
+      <c r="C65" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="80"/>
+      <c r="D65" s="93"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="13" t="s">
@@ -5718,7 +5579,7 @@
       <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="14"/>
@@ -5746,7 +5607,7 @@
       <c r="B76" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="94" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="15"/>
@@ -5773,18 +5634,18 @@
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="76"/>
+      <c r="D79" s="89"/>
     </row>
     <row r="80" ht="16.35"/>
     <row r="81" spans="1:4">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="79"/>
-      <c r="C81" s="79" t="s">
+      <c r="B81" s="92"/>
+      <c r="C81" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="80"/>
+      <c r="D81" s="93"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="13" t="s">
@@ -5885,7 +5746,7 @@
       <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="74" t="s">
+      <c r="A90" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="14"/>
@@ -5913,7 +5774,7 @@
       <c r="B93" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="81" t="s">
+      <c r="C93" s="94" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="15"/>
@@ -5943,7 +5804,7 @@
       <c r="D95" s="15"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="84">
+      <c r="A96" s="97">
         <v>0.583333333333333</v>
       </c>
       <c r="B96" s="19" t="s">
@@ -5952,18 +5813,18 @@
       <c r="C96" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="76"/>
+      <c r="D96" s="89"/>
     </row>
     <row r="98" ht="16.35"/>
     <row r="99" spans="1:4">
-      <c r="A99" s="78" t="s">
+      <c r="A99" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="79"/>
-      <c r="C99" s="79" t="s">
+      <c r="B99" s="92"/>
+      <c r="C99" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="80"/>
+      <c r="D99" s="93"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="13" t="s">
@@ -6034,7 +5895,7 @@
       <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="74" t="s">
+      <c r="A106" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="14"/>
@@ -6062,7 +5923,7 @@
       <c r="B109" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="81" t="s">
+      <c r="C109" s="94" t="s">
         <v>101</v>
       </c>
       <c r="D109" s="15"/>
@@ -6092,7 +5953,7 @@
       <c r="D111" s="15"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="84">
+      <c r="A112" s="97">
         <v>0.583333333333333</v>
       </c>
       <c r="B112" s="19" t="s">
@@ -6101,18 +5962,18 @@
       <c r="C112" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="76"/>
+      <c r="D112" s="89"/>
     </row>
     <row r="113" ht="16.35"/>
     <row r="114" spans="1:4">
-      <c r="A114" s="78" t="s">
+      <c r="A114" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="79"/>
-      <c r="C114" s="79" t="s">
+      <c r="B114" s="92"/>
+      <c r="C114" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="80"/>
+      <c r="D114" s="93"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="13" t="s">
@@ -6183,7 +6044,7 @@
       <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="74" t="s">
+      <c r="A121" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="14"/>
@@ -6211,7 +6072,7 @@
       <c r="B124" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="81" t="s">
+      <c r="C124" s="94" t="s">
         <v>101</v>
       </c>
       <c r="D124" s="15"/>
@@ -6241,7 +6102,7 @@
       <c r="D126" s="15"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="84">
+      <c r="A127" s="97">
         <v>0.583333333333333</v>
       </c>
       <c r="B127" s="19" t="s">
@@ -6250,18 +6111,18 @@
       <c r="C127" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="76"/>
+      <c r="D127" s="89"/>
     </row>
     <row r="128" ht="16.35"/>
     <row r="129" spans="1:4">
-      <c r="A129" s="78" t="s">
+      <c r="A129" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="79"/>
-      <c r="C129" s="79" t="s">
+      <c r="B129" s="92"/>
+      <c r="C129" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="80"/>
+      <c r="D129" s="93"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="13" t="s">
@@ -6338,7 +6199,7 @@
       <c r="D135" s="15"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="74" t="s">
+      <c r="A136" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="14"/>
@@ -6366,7 +6227,7 @@
       <c r="B139" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="81" t="s">
+      <c r="C139" s="94" t="s">
         <v>101</v>
       </c>
       <c r="D139" s="15"/>
@@ -6396,7 +6257,7 @@
       <c r="D141" s="15"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="84">
+      <c r="A142" s="97">
         <v>0.583333333333333</v>
       </c>
       <c r="B142" s="19" t="s">
@@ -6405,18 +6266,18 @@
       <c r="C142" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="76"/>
+      <c r="D142" s="89"/>
     </row>
     <row r="143" ht="16.35"/>
     <row r="144" spans="1:4">
-      <c r="A144" s="78" t="s">
+      <c r="A144" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="79"/>
-      <c r="C144" s="79" t="s">
+      <c r="B144" s="92"/>
+      <c r="C144" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="80"/>
+      <c r="D144" s="93"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="13" t="s">
@@ -6493,7 +6354,7 @@
       <c r="D150" s="15"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="74" t="s">
+      <c r="A151" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="14"/>
@@ -6521,7 +6382,7 @@
       <c r="B154" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="81" t="s">
+      <c r="C154" s="94" t="s">
         <v>101</v>
       </c>
       <c r="D154" s="15"/>
@@ -6551,7 +6412,7 @@
       <c r="D156" s="15"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="84">
+      <c r="A157" s="97">
         <v>0.583333333333333</v>
       </c>
       <c r="B157" s="19" t="s">
@@ -6560,7 +6421,7 @@
       <c r="C157" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="76"/>
+      <c r="D157" s="89"/>
     </row>
     <row r="158" ht="16.35"/>
     <row r="159" spans="1:4">
@@ -6785,10 +6646,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -6802,174 +6663,174 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="63" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="67" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="69" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="63"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="71"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
@@ -6981,7 +6842,7 @@
       <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" ht="16.35" spans="1:6">
       <c r="A13" s="18" t="s">
@@ -6991,11 +6852,11 @@
         <v>159</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -7052,122 +6913,122 @@
       </c>
     </row>
     <row r="21" ht="16.35" spans="8:8">
-      <c r="H21" s="67"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:6">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="69"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="69" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="70"/>
+      <c r="H25" s="83"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="56" t="s">
+      <c r="E26" s="65"/>
+      <c r="F26" s="69" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="85" t="s">
         <v>178</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="86" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75" t="s">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="88" t="s">
         <v>181</v>
       </c>
       <c r="F28" s="15" t="s">
@@ -7175,345 +7036,507 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75" t="s">
+      <c r="B29" s="88"/>
+      <c r="C29" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="72" t="s">
         <v>184</v>
       </c>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="74"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88" t="s">
         <v>185</v>
       </c>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="74"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88" t="s">
         <v>186</v>
       </c>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="88" t="s">
         <v>181</v>
       </c>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59" t="s">
+      <c r="B36" s="72"/>
+      <c r="C36" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="88"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75" t="s">
+      <c r="B37" s="88"/>
+      <c r="C37" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
       <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="74"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="88"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="87"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="13"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" ht="16.35" spans="1:6">
-      <c r="A45" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="76"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
+      <c r="E56" s="1"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="13"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" ht="16.35" spans="1:6">
+      <c r="A59" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="89"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="7" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>220</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" ht="18.6" spans="1:2">
-      <c r="A73" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>223</v>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" ht="18.6" spans="1:2">
+      <c r="A87" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D35"/>
     <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D42:D53"/>
     <mergeCell ref="F28:F31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A48" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A49" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A50" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A51" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A52" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A53" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A54" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A57" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A58" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A62" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A63" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A64" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A65" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A66" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A67" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A68" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A71" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A72" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId11" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
-    <hyperlink ref="A61" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B72" r:id="rId13" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B73" r:id="rId14" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A75" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B86" r:id="rId13" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B87" r:id="rId14" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7524,351 +7547,765 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.1" customWidth="1"/>
-    <col min="2" max="2" width="17.9" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="20.2" customWidth="1"/>
+    <col min="3" max="3" width="13.8" customWidth="1"/>
+    <col min="4" max="4" width="21.8" customWidth="1"/>
+    <col min="5" max="5" width="19.6" customWidth="1"/>
+    <col min="8" max="8" width="16.7" customWidth="1"/>
+    <col min="9" max="9" width="16.2" customWidth="1"/>
+    <col min="10" max="10" width="17.7" customWidth="1"/>
+    <col min="11" max="11" width="16.3" customWidth="1"/>
+    <col min="13" max="13" width="12.9" customWidth="1"/>
+    <col min="14" max="14" width="14.9" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="15.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="E2" s="12"/>
+      <c r="H2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="M2" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" s="46"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="16">
+      <c r="H3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="16">
+      <c r="E4" s="15"/>
+      <c r="H4" s="16">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="M4" s="50">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="16">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="16">
+      <c r="E5" s="15"/>
+      <c r="H5" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="16">
+      <c r="K5" s="15"/>
+      <c r="M5" s="50">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="49"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="H6" s="16">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="M6" s="50">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="O6" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="49"/>
+    </row>
+    <row r="7" ht="16.35" spans="2:16">
+      <c r="B7" s="16">
         <v>0.604166666666667</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" ht="16.35" spans="1:4">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="10" ht="16.35"/>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="D7" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="H7" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="M7" s="52">
+        <v>0.6875</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="55"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+    </row>
+    <row r="9" ht="16.35" spans="2:16">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="20"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="20"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+    </row>
+    <row r="10" ht="16.35" spans="13:16">
+      <c r="M10" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="P10" s="46"/>
+    </row>
+    <row r="11" ht="16.35" spans="8:16">
+      <c r="H11" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13" t="s">
+      <c r="K11" s="12"/>
+      <c r="M11" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="N11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="O11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="P11" s="49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="16">
+    <row r="12" spans="2:16">
+      <c r="B12" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="H12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="50">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="O12" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="49"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="16">
         <v>0.375</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="I13" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="50">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="O13" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="49"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="16">
+      <c r="E14" s="15"/>
+      <c r="H14" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="J14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="16">
+      <c r="K14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="50">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="O14" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="49"/>
+    </row>
+    <row r="15" ht="16.35" spans="2:16">
+      <c r="B15" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="H15" s="16">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="55"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="16">
         <v>0.604166666666667</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" ht="16.35" spans="1:4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" ht="16.35"/>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="D16" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="H16" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" ht="16.35" spans="2:11">
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="20"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="13" t="s">
+      <c r="E20" s="12"/>
+      <c r="H20" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="16">
+      <c r="H21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="16">
+      <c r="H22" s="16">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="16">
         <v>0.5625</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E23" s="15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="16">
+      <c r="H23" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="16">
         <v>0.604166666666667</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" ht="16.35" spans="1:4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" ht="16.35"/>
-    <row r="27" spans="1:4">
-      <c r="A27" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11" t="s">
+      <c r="D24" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="H25" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" ht="16.35" spans="2:11">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="20"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="13" t="s">
+      <c r="E28" s="12"/>
+      <c r="H28" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="43">
+      <c r="H29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="43">
         <v>0.395833333333333</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="16">
+      <c r="E30" s="15"/>
+      <c r="H30" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="16">
         <v>0.416666666666667</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="16">
+      <c r="E31" s="15"/>
+      <c r="H31" s="33">
+        <v>0.5625</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="16">
         <v>0.541666666666667</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="16">
+      <c r="E32" s="15"/>
+      <c r="H32" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" ht="16.35" spans="2:11">
+      <c r="B33" s="16">
         <v>0.604166666666667</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" ht="16.35" spans="1:4">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="20"/>
+      <c r="D33" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="H33" s="35">
+        <v>0.625</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="38"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" ht="16.35" spans="2:5">
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A34:C34"/>
+  <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7878,375 +8315,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.7" customWidth="1"/>
-    <col min="2" max="2" width="16.2" customWidth="1"/>
-    <col min="3" max="3" width="17.7" customWidth="1"/>
-    <col min="4" max="4" width="16.3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="16">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="16">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" ht="16.35" spans="1:4">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" ht="16.35"/>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="16">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" ht="16.35" spans="1:4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" ht="16.35"/>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="16">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="16">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="16">
-        <v>0.625</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" ht="16.35" spans="1:4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" ht="16.35"/>
-    <row r="27" spans="1:4">
-      <c r="A27" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="33">
-        <v>0.5625</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" ht="16.35" spans="1:4">
-      <c r="A32" s="35">
-        <v>0.625</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:B27"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:K57"/>
+  <dimension ref="B2:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
@@ -8261,22 +8333,21 @@
     <col min="11" max="11" width="15.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.35"/>
     <row r="2" spans="2:11">
       <c r="B2" s="27" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E2" s="29"/>
       <c r="H2" s="27" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="K2" s="29"/>
     </row>
@@ -8308,22 +8379,22 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="33">
-        <v>0.416666666666667</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H4" s="33">
         <v>0.416666666666667</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>76</v>
@@ -8334,10 +8405,10 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="33">
-        <v>0.541666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>79</v>
@@ -8358,15 +8429,17 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="33">
-        <v>0.583333333333333</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="32"/>
+        <v>79</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="H6" s="33">
         <v>0.645833333333333</v>
       </c>
@@ -8376,19 +8449,23 @@
       <c r="J6" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" ht="16.35" spans="2:11">
-      <c r="B7" s="35">
-        <v>0.6875</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="38"/>
+      <c r="B7" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="H7" s="35">
         <v>0.708333333333333</v>
       </c>
@@ -8400,214 +8477,417 @@
       </c>
       <c r="K7" s="38"/>
     </row>
-    <row r="9" ht="16.35"/>
-    <row r="10" spans="2:5">
-      <c r="B10" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="30" t="s">
+    <row r="8" ht="16.35" spans="2:5">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="10" ht="16.35" spans="8:11">
+      <c r="H10" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="H11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="I11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="J11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="K11" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="33">
+    <row r="12" spans="2:11">
+      <c r="B12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="33">
         <v>0.395833333333333</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="34" t="s">
+      <c r="I12" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="H14" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="33">
+      <c r="K14" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" ht="16.35" spans="2:11">
+      <c r="B15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="32"/>
+      <c r="H15" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" ht="16.35" spans="2:5">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="H20" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="I21" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" ht="16.35" spans="2:11">
+      <c r="B23" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="H23" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" ht="16.35" spans="2:5">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" ht="16.35" spans="8:11">
+      <c r="H27" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="H28" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="K29" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="33">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="I30" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" ht="16.35" spans="2:5">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="17" ht="16.35"/>
-    <row r="18" spans="2:5">
-      <c r="B18" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="34" t="s">
+      <c r="J30" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="33">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="K30" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="33">
+    </row>
+    <row r="31" ht="16.35" spans="2:11">
+      <c r="B31" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="34" t="s">
+      <c r="C31" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E31" s="32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" ht="16.35" spans="2:5">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="26" customFormat="1" ht="16.35"/>
-    <row r="27" spans="2:5">
-      <c r="B27" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="33">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="34" t="s">
+      <c r="H31" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="33"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="32"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="33">
@@ -8619,9 +8899,7 @@
       <c r="D32" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" ht="16.35" spans="2:5">
       <c r="B33" s="35"/>
@@ -8629,14 +8907,13 @@
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="35" ht="16.35"/>
     <row r="36" spans="2:5">
       <c r="B36" s="27" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E36" s="29"/>
     </row>
@@ -8659,14 +8936,12 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="33">
@@ -8690,9 +8965,7 @@
       <c r="D40" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" ht="16.35" spans="2:5">
       <c r="B41" s="35"/>
@@ -8700,168 +8973,31 @@
       <c r="D41" s="37"/>
       <c r="E41" s="38"/>
     </row>
-    <row r="43" ht="16.35"/>
-    <row r="44" spans="2:5">
-      <c r="B44" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E44" s="29"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="33">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="32"/>
-    </row>
-    <row r="49" ht="16.35" spans="2:5">
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-    </row>
-    <row r="51" ht="16.35"/>
-    <row r="52" spans="2:5">
-      <c r="B52" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52" s="29"/>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="32"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="33">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="32"/>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="32"/>
-    </row>
-    <row r="57" ht="16.35" spans="2:5">
-      <c r="B57" s="35"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -8899,7 +9035,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>76</v>
@@ -8923,10 +9059,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="D5" s="14"/>
     </row>
@@ -8952,7 +9088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:D23"/>
@@ -8972,7 +9108,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
@@ -8999,7 +9135,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>79</v>
@@ -9011,7 +9147,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>
@@ -9023,7 +9159,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>79</v>
@@ -9033,7 +9169,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="16"/>
       <c r="B9" s="14" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>79</v>
@@ -9045,7 +9181,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>79</v>
@@ -9057,7 +9193,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9065,7 +9201,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9073,7 +9209,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9081,13 +9217,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -9114,7 +9250,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>79</v>
@@ -9126,7 +9262,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>79</v>
@@ -9138,7 +9274,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>79</v>
@@ -9148,7 +9284,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="16"/>
       <c r="B22" s="14" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>79</v>
@@ -9160,7 +9296,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>79</v>
@@ -9177,7 +9313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
@@ -9196,7 +9332,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
@@ -9223,7 +9359,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>79</v>
@@ -9235,7 +9371,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>79</v>
@@ -9247,7 +9383,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>79</v>
@@ -9257,7 +9393,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="16"/>
       <c r="B6" s="14" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>79</v>
@@ -9269,7 +9405,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>79</v>
@@ -9283,4 +9419,238 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3" customWidth="1"/>
+    <col min="5" max="5" width="27.7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="D7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="慕课网"/>
+    <hyperlink ref="B26" r:id="rId2" display="https://www.51zxw.net/List.aspx?cid=1094"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://www.bilibili.com/video/BV1Y741187Uc/?p=21&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="336">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -1088,7 +1088,13 @@
     <t>活动清单(7月29日)</t>
   </si>
   <si>
+    <t>活动清单(8月6日)</t>
+  </si>
+  <si>
     <t>活动清单(7月30日)</t>
+  </si>
+  <si>
+    <t>活动清单(8月8日)</t>
   </si>
   <si>
     <t>活动清单(7月31日)</t>
@@ -4868,7 +4874,7 @@
   <sheetPr/>
   <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -6649,7 +6655,7 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -8317,8 +8323,8 @@
   <sheetPr/>
   <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
@@ -8769,7 +8775,7 @@
     </row>
     <row r="26" spans="8:11">
       <c r="H26" s="27" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="28" t="s">
@@ -8793,7 +8799,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="28" t="s">
@@ -8907,17 +8913,53 @@
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="34" spans="8:11">
+      <c r="H34" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K34" s="29"/>
+    </row>
+    <row r="35" ht="16.35" spans="8:11">
+      <c r="H35" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="27" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28" t="s">
         <v>262</v>
       </c>
       <c r="E36" s="29"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="H36" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="30" t="s">
         <v>2</v>
       </c>
@@ -8930,8 +8972,20 @@
       <c r="E37" s="32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="H37" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" s="33">
         <v>0.395833333333333</v>
       </c>
@@ -8942,8 +8996,20 @@
         <v>76</v>
       </c>
       <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="H38" s="33">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" ht="16.35" spans="2:11">
       <c r="B39" s="33">
         <v>0.541666666666667</v>
       </c>
@@ -8954,6 +9020,16 @@
         <v>79</v>
       </c>
       <c r="E39" s="32"/>
+      <c r="H39" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="33">
@@ -8974,7 +9050,7 @@
       <c r="E41" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H10:I10"/>
@@ -8984,6 +9060,7 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9035,7 +9112,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>76</v>
@@ -9059,7 +9136,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>247</v>
@@ -9108,7 +9185,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
@@ -9135,7 +9212,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>79</v>
@@ -9147,7 +9224,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>
@@ -9159,7 +9236,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>79</v>
@@ -9169,7 +9246,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="16"/>
       <c r="B9" s="14" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>79</v>
@@ -9181,7 +9258,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>79</v>
@@ -9193,7 +9270,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9201,7 +9278,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9209,7 +9286,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9217,13 +9294,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -9250,7 +9327,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>79</v>
@@ -9262,7 +9339,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>79</v>
@@ -9274,7 +9351,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>79</v>
@@ -9284,7 +9361,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="16"/>
       <c r="B22" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>79</v>
@@ -9296,7 +9373,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>79</v>
@@ -9332,7 +9409,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
@@ -9359,7 +9436,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>79</v>
@@ -9371,7 +9448,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>79</v>
@@ -9383,7 +9460,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>79</v>
@@ -9393,7 +9470,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="16"/>
       <c r="B6" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>79</v>
@@ -9405,7 +9482,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>79</v>
@@ -9440,201 +9517,201 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:1">

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="341">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -926,6 +926,15 @@
     <t>vue3,react模板项目，组件库</t>
   </si>
   <si>
+    <t>ts面试题</t>
+  </si>
+  <si>
+    <t>第二三周</t>
+  </si>
+  <si>
+    <t>第一二三周中午</t>
+  </si>
+  <si>
     <t>跨端，react-native, futter</t>
   </si>
   <si>
@@ -1070,34 +1079,40 @@
     <t>可用番茄数:9</t>
   </si>
   <si>
+    <t>活动清单(9月9日)</t>
+  </si>
+  <si>
     <t>浏览器原理</t>
   </si>
   <si>
     <t>eslint复习</t>
   </si>
   <si>
+    <t>活动清单(7月26日)</t>
+  </si>
+  <si>
     <t>活动清单(8月2日)</t>
   </si>
   <si>
-    <t>活动清单(7月26日)</t>
+    <t>活动清单(7月29日)</t>
   </si>
   <si>
     <t>活动清单(8月5日)</t>
   </si>
   <si>
-    <t>活动清单(7月29日)</t>
+    <t>活动清单(7月30日)</t>
   </si>
   <si>
     <t>活动清单(8月6日)</t>
   </si>
   <si>
-    <t>活动清单(7月30日)</t>
+    <t>活动清单(7月31日)</t>
   </si>
   <si>
     <t>活动清单(8月8日)</t>
   </si>
   <si>
-    <t>活动清单(7月31日)</t>
+    <t>活动清单(8月12日)</t>
   </si>
   <si>
     <t>需求开发</t>
@@ -2405,7 +2420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2523,6 +2538,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2725,9 +2746,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -3054,8 +3072,8 @@
   <sheetPr/>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
@@ -3069,11 +3087,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="100" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3093,7 +3111,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="101" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3102,7 +3120,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="102" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3111,14 +3129,14 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="102" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="13"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="100"/>
+      <c r="C6" s="102"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="13"/>
@@ -3126,7 +3144,7 @@
       <c r="C7" s="15"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
@@ -3148,25 +3166,25 @@
       <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="104"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="96"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="93"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="95"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="13" t="s">
@@ -3188,7 +3206,7 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
@@ -3199,7 +3217,7 @@
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
@@ -3210,14 +3228,14 @@
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="1"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="105"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="1"/>
       <c r="E19" s="15"/>
     </row>
@@ -3248,40 +3266,40 @@
       <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="104" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="96"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="93"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="95"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="13" t="s">
@@ -3311,15 +3329,15 @@
       <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="73" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="106">
+      <c r="A28" s="108">
         <v>44536</v>
       </c>
-      <c r="B28" s="107">
+      <c r="B28" s="39">
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3337,11 +3355,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="71"/>
+      <c r="J28" s="73"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="95"/>
-      <c r="B29" s="107">
+      <c r="A29" s="97"/>
+      <c r="B29" s="39">
         <v>0.416666666666667</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3353,11 +3371,11 @@
       <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="71"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="95"/>
-      <c r="B30" s="107">
+      <c r="A30" s="97"/>
+      <c r="B30" s="39">
         <v>0.5625</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3369,11 +3387,11 @@
       <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="71"/>
+      <c r="J30" s="73"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="95"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="39"/>
       <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
@@ -3383,31 +3401,31 @@
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="J31" s="71"/>
+      <c r="J31" s="73"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="95"/>
-      <c r="J32" s="71"/>
+      <c r="A32" s="97"/>
+      <c r="J32" s="73"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="96"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="79"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="81"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="98" t="s">
+      <c r="B35" s="94"/>
+      <c r="C35" s="100" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3427,7 +3445,7 @@
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="100" t="s">
+      <c r="C37" s="102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3436,7 +3454,7 @@
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C38" s="102" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3445,7 +3463,7 @@
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C39" s="102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3454,7 +3472,7 @@
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3464,7 +3482,7 @@
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1"/>
@@ -3486,25 +3504,25 @@
       <c r="A45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="102"/>
+      <c r="C45" s="104"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="96"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="79"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="93"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="95"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="13" t="s">
@@ -3528,7 +3546,7 @@
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="1"/>
@@ -3541,7 +3559,7 @@
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="105" t="s">
+      <c r="C51" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="1"/>
@@ -3554,7 +3572,7 @@
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="105"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="1"/>
       <c r="E52" s="15"/>
     </row>
@@ -3565,7 +3583,7 @@
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="105"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="1"/>
       <c r="E53" s="15"/>
     </row>
@@ -3596,39 +3614,39 @@
       <c r="A57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="101" t="s">
+      <c r="C57" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="101" t="s">
+      <c r="D57" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="102" t="s">
+      <c r="E57" s="104" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="96"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="81"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="103" t="s">
+      <c r="A60" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="104"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="13" t="s">
@@ -3660,10 +3678,10 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="106">
+      <c r="A62" s="108">
         <v>44536</v>
       </c>
-      <c r="B62" s="107">
+      <c r="B62" s="39">
         <v>0.395833333333333</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3683,8 +3701,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="95"/>
-      <c r="B63" s="107">
+      <c r="A63" s="97"/>
+      <c r="B63" s="39">
         <v>0.416666666666667</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3698,8 +3716,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="95"/>
-      <c r="B64" s="107">
+      <c r="A64" s="97"/>
+      <c r="B64" s="39">
         <v>0.5625</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3713,8 +3731,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="95"/>
-      <c r="B65" s="107"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="39"/>
       <c r="D65" s="1" t="s">
         <v>36</v>
       </c>
@@ -3726,26 +3744,26 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="95"/>
+      <c r="A66" s="97"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="96"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
-      <c r="A70" s="91" t="s">
+      <c r="A70" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="92"/>
-      <c r="C70" s="98" t="s">
+      <c r="B70" s="94"/>
+      <c r="C70" s="100" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3765,7 +3783,7 @@
       <c r="B72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="100" t="s">
+      <c r="C72" s="102" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3774,7 +3792,7 @@
       <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="100" t="s">
+      <c r="C73" s="102" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3783,7 +3801,7 @@
       <c r="B74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="100" t="s">
+      <c r="C74" s="102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3792,7 +3810,7 @@
       <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="100" t="s">
+      <c r="C75" s="102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3801,7 +3819,7 @@
       <c r="B76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="100" t="s">
+      <c r="C76" s="102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3811,7 +3829,7 @@
       <c r="C77" s="15"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1"/>
@@ -3833,25 +3851,25 @@
       <c r="A81" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="101" t="s">
+      <c r="B81" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="102"/>
+      <c r="C81" s="104"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="96"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="79"/>
+      <c r="A82" s="98"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="81"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="103" t="s">
+      <c r="A84" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="104"/>
-      <c r="C84" s="104"/>
-      <c r="D84" s="104"/>
-      <c r="E84" s="93"/>
+      <c r="B84" s="106"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="106"/>
+      <c r="E84" s="95"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="13" t="s">
@@ -3873,7 +3891,7 @@
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="105" t="s">
+      <c r="C86" s="107" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="1"/>
@@ -3884,7 +3902,7 @@
       <c r="B87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="105" t="s">
+      <c r="C87" s="107" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="1"/>
@@ -3897,7 +3915,7 @@
       <c r="B88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="105" t="s">
+      <c r="C88" s="107" t="s">
         <v>50</v>
       </c>
       <c r="D88" s="1"/>
@@ -3908,7 +3926,7 @@
       <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="105"/>
+      <c r="C89" s="107"/>
       <c r="D89" s="1"/>
       <c r="E89" s="15"/>
     </row>
@@ -3941,39 +3959,39 @@
       <c r="A93" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="101" t="s">
+      <c r="B93" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="101" t="s">
+      <c r="C93" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="101" t="s">
+      <c r="D93" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="102" t="s">
+      <c r="E93" s="104" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="96"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="79"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="81"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="103" t="s">
+      <c r="A96" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="104"/>
-      <c r="C96" s="104"/>
-      <c r="D96" s="104"/>
-      <c r="E96" s="104"/>
-      <c r="F96" s="104"/>
-      <c r="G96" s="104"/>
-      <c r="H96" s="104"/>
-      <c r="I96" s="104"/>
+      <c r="B96" s="106"/>
+      <c r="C96" s="106"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="106"/>
+      <c r="G96" s="106"/>
+      <c r="H96" s="106"/>
+      <c r="I96" s="106"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="13" t="s">
@@ -4005,10 +4023,10 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="106">
+      <c r="A98" s="108">
         <v>44536</v>
       </c>
-      <c r="B98" s="107">
+      <c r="B98" s="39">
         <v>0.395833333333333</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4028,8 +4046,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="95"/>
-      <c r="B99" s="107">
+      <c r="A99" s="97"/>
+      <c r="B99" s="39">
         <v>0.416666666666667</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -4043,8 +4061,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="95"/>
-      <c r="B100" s="107">
+      <c r="A100" s="97"/>
+      <c r="B100" s="39">
         <v>0.5625</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -4058,33 +4076,33 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="95"/>
-      <c r="B101" s="107"/>
+      <c r="A101" s="97"/>
+      <c r="B101" s="39"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="95"/>
+      <c r="A102" s="97"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="96"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="78"/>
-      <c r="D103" s="78"/>
-      <c r="E103" s="78"/>
-      <c r="F103" s="78"/>
-      <c r="G103" s="78"/>
-      <c r="H103" s="78"/>
-      <c r="I103" s="78"/>
+      <c r="A103" s="98"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="H103" s="80"/>
+      <c r="I103" s="80"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
-      <c r="A105" s="91" t="s">
+      <c r="A105" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="92"/>
-      <c r="C105" s="98" t="s">
+      <c r="B105" s="94"/>
+      <c r="C105" s="100" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4106,7 +4124,7 @@
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="100" t="s">
+      <c r="C107" s="102" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4115,7 +4133,7 @@
       <c r="B108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="100" t="s">
+      <c r="C108" s="102" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4124,7 +4142,7 @@
       <c r="B109" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="100" t="s">
+      <c r="C109" s="102" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4133,7 +4151,7 @@
       <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="100" t="s">
+      <c r="C110" s="102" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4142,7 +4160,7 @@
       <c r="B111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="100" t="s">
+      <c r="C111" s="102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4152,7 +4170,7 @@
       <c r="C112" s="15"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="87" t="s">
+      <c r="A113" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="1"/>
@@ -4174,27 +4192,27 @@
       <c r="A116" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="101" t="s">
+      <c r="B116" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="102"/>
+      <c r="C116" s="104"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="96" t="s">
+      <c r="A117" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="78"/>
-      <c r="C117" s="79"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="81"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="103" t="s">
+      <c r="A119" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="104"/>
-      <c r="C119" s="104"/>
-      <c r="D119" s="104"/>
-      <c r="E119" s="93"/>
+      <c r="B119" s="106"/>
+      <c r="C119" s="106"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="95"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="13" t="s">
@@ -4218,7 +4236,7 @@
       <c r="B121" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="105" t="s">
+      <c r="C121" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="1"/>
@@ -4231,7 +4249,7 @@
       <c r="B122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="105" t="s">
+      <c r="C122" s="107" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1"/>
@@ -4244,7 +4262,7 @@
       <c r="B123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="105" t="s">
+      <c r="C123" s="107" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -4259,7 +4277,7 @@
       <c r="B124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="105" t="s">
+      <c r="C124" s="107" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="1"/>
@@ -4294,39 +4312,39 @@
       <c r="A128" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="101" t="s">
+      <c r="B128" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="101" t="s">
+      <c r="C128" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="101" t="s">
+      <c r="D128" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="102" t="s">
+      <c r="E128" s="104" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="96"/>
-      <c r="B129" s="78"/>
-      <c r="C129" s="78"/>
-      <c r="D129" s="78"/>
-      <c r="E129" s="79"/>
+      <c r="A129" s="98"/>
+      <c r="B129" s="80"/>
+      <c r="C129" s="80"/>
+      <c r="D129" s="80"/>
+      <c r="E129" s="81"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="103" t="s">
+      <c r="A131" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="104"/>
-      <c r="C131" s="104"/>
-      <c r="D131" s="104"/>
-      <c r="E131" s="104"/>
-      <c r="F131" s="104"/>
-      <c r="G131" s="104"/>
-      <c r="H131" s="104"/>
-      <c r="I131" s="104"/>
+      <c r="B131" s="106"/>
+      <c r="C131" s="106"/>
+      <c r="D131" s="106"/>
+      <c r="E131" s="106"/>
+      <c r="F131" s="106"/>
+      <c r="G131" s="106"/>
+      <c r="H131" s="106"/>
+      <c r="I131" s="106"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="13" t="s">
@@ -4358,10 +4376,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="106">
+      <c r="A133" s="108">
         <v>44536</v>
       </c>
-      <c r="B133" s="107">
+      <c r="B133" s="39">
         <v>0.395833333333333</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -4381,8 +4399,8 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="95"/>
-      <c r="B134" s="107">
+      <c r="A134" s="97"/>
+      <c r="B134" s="39">
         <v>0.416666666666667</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -4399,8 +4417,8 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="95"/>
-      <c r="B135" s="107">
+      <c r="A135" s="97"/>
+      <c r="B135" s="39">
         <v>0.5625</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -4414,8 +4432,8 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="95"/>
-      <c r="B136" s="107">
+      <c r="A136" s="97"/>
+      <c r="B136" s="39">
         <v>0.659722222222222</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -4429,28 +4447,28 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="95"/>
+      <c r="A137" s="97"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="96"/>
-      <c r="B138" s="78"/>
-      <c r="C138" s="78"/>
-      <c r="D138" s="78"/>
-      <c r="E138" s="78"/>
-      <c r="F138" s="78">
+      <c r="A138" s="98"/>
+      <c r="B138" s="80"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="80">
         <v>11</v>
       </c>
-      <c r="G138" s="78"/>
-      <c r="H138" s="78"/>
-      <c r="I138" s="78"/>
+      <c r="G138" s="80"/>
+      <c r="H138" s="80"/>
+      <c r="I138" s="80"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
-      <c r="A140" s="91" t="s">
+      <c r="A140" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="92"/>
-      <c r="C140" s="98" t="s">
+      <c r="B140" s="94"/>
+      <c r="C140" s="100" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4472,7 +4490,7 @@
       <c r="B142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="100" t="s">
+      <c r="C142" s="102" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4483,7 +4501,7 @@
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="100" t="s">
+      <c r="C143" s="102" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4494,7 +4512,7 @@
       <c r="B144" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="100" t="s">
+      <c r="C144" s="102" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4505,7 +4523,7 @@
       <c r="B145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="100" t="s">
+      <c r="C145" s="102" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4514,7 +4532,7 @@
       <c r="B146" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="100" t="s">
+      <c r="C146" s="102" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4523,7 +4541,7 @@
       <c r="B147" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="100" t="s">
+      <c r="C147" s="102" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4533,7 +4551,7 @@
       <c r="C148" s="15"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="87" t="s">
+      <c r="A149" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="1"/>
@@ -4544,7 +4562,7 @@
       <c r="B150" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="100" t="s">
+      <c r="C150" s="102" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4578,25 +4596,25 @@
       <c r="A155" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="101" t="s">
+      <c r="B155" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="102"/>
+      <c r="C155" s="104"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="96"/>
-      <c r="B156" s="78"/>
-      <c r="C156" s="79"/>
+      <c r="A156" s="98"/>
+      <c r="B156" s="80"/>
+      <c r="C156" s="81"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="103" t="s">
+      <c r="A158" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
-      <c r="D158" s="104"/>
-      <c r="E158" s="93"/>
+      <c r="B158" s="106"/>
+      <c r="C158" s="106"/>
+      <c r="D158" s="106"/>
+      <c r="E158" s="95"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="13" t="s">
@@ -4620,7 +4638,7 @@
       <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="105" t="s">
+      <c r="C160" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="1"/>
@@ -4633,7 +4651,7 @@
       <c r="B161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="105" t="s">
+      <c r="C161" s="107" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="1"/>
@@ -4646,7 +4664,7 @@
       <c r="B162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="105" t="s">
+      <c r="C162" s="107" t="s">
         <v>48</v>
       </c>
       <c r="D162" s="1"/>
@@ -4699,39 +4717,39 @@
       <c r="A168" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="101" t="s">
+      <c r="B168" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="101" t="s">
+      <c r="C168" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="101" t="s">
+      <c r="D168" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="102" t="s">
+      <c r="E168" s="104" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="96"/>
-      <c r="B169" s="78"/>
-      <c r="C169" s="78"/>
-      <c r="D169" s="78"/>
-      <c r="E169" s="79"/>
+      <c r="A169" s="98"/>
+      <c r="B169" s="80"/>
+      <c r="C169" s="80"/>
+      <c r="D169" s="80"/>
+      <c r="E169" s="81"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="103" t="s">
+      <c r="A171" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="104"/>
-      <c r="C171" s="104"/>
-      <c r="D171" s="104"/>
-      <c r="E171" s="104"/>
-      <c r="F171" s="104"/>
-      <c r="G171" s="104"/>
-      <c r="H171" s="104"/>
-      <c r="I171" s="104"/>
+      <c r="B171" s="106"/>
+      <c r="C171" s="106"/>
+      <c r="D171" s="106"/>
+      <c r="E171" s="106"/>
+      <c r="F171" s="106"/>
+      <c r="G171" s="106"/>
+      <c r="H171" s="106"/>
+      <c r="I171" s="106"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="13" t="s">
@@ -4763,10 +4781,10 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="106">
+      <c r="A173" s="108">
         <v>44536</v>
       </c>
-      <c r="B173" s="107">
+      <c r="B173" s="39">
         <v>0.440972222222222</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -4788,8 +4806,8 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="95"/>
-      <c r="B174" s="108">
+      <c r="A174" s="97"/>
+      <c r="B174" s="109">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -4809,8 +4827,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="95"/>
-      <c r="B175" s="108">
+      <c r="A175" s="97"/>
+      <c r="B175" s="109">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -4874,8 +4892,8 @@
   <sheetPr/>
   <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -4887,14 +4905,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="93"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
@@ -4987,7 +5005,7 @@
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
@@ -5012,38 +5030,38 @@
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="94"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="95"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="95"/>
+      <c r="A14" s="97"/>
       <c r="D14" s="15"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="96"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="89"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="91"/>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
@@ -5140,7 +5158,7 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="14"/>
@@ -5165,38 +5183,38 @@
       <c r="A28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="94"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="95"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="95"/>
+      <c r="A30" s="97"/>
       <c r="D30" s="15"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="96"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="89"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="91"/>
     </row>
     <row r="32" ht="16.35"/>
     <row r="33" spans="1:4">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92" t="s">
+      <c r="B33" s="94"/>
+      <c r="C33" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="93"/>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="13" t="s">
@@ -5291,7 +5309,7 @@
       <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="14"/>
@@ -5316,38 +5334,38 @@
       <c r="A44" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="94"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="95"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
       <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="95"/>
+      <c r="A46" s="97"/>
       <c r="D46" s="15"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="96"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="89"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="91"/>
     </row>
     <row r="48" ht="16.35"/>
     <row r="49" spans="1:4">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92" t="s">
+      <c r="B49" s="94"/>
+      <c r="C49" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="93"/>
+      <c r="D49" s="95"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="13" t="s">
@@ -5440,7 +5458,7 @@
       <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="14"/>
@@ -5465,38 +5483,38 @@
       <c r="A60" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="94"/>
+      <c r="C60" s="96"/>
       <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="95"/>
+      <c r="A61" s="97"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="95"/>
+      <c r="A62" s="97"/>
       <c r="D62" s="15"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="96"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="89"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="91"/>
     </row>
     <row r="64" ht="16.35"/>
     <row r="65" spans="1:4">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92" t="s">
+      <c r="B65" s="94"/>
+      <c r="C65" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="93"/>
+      <c r="D65" s="95"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="13" t="s">
@@ -5585,7 +5603,7 @@
       <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="14"/>
@@ -5613,13 +5631,13 @@
       <c r="B76" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="94" t="s">
+      <c r="C76" s="96" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="43">
+      <c r="A77" s="45">
         <v>0.395833333333333</v>
       </c>
       <c r="B77" s="14" t="s">
@@ -5640,18 +5658,18 @@
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="89"/>
+      <c r="D79" s="91"/>
     </row>
     <row r="80" ht="16.35"/>
     <row r="81" spans="1:4">
-      <c r="A81" s="91" t="s">
+      <c r="A81" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92" t="s">
+      <c r="B81" s="94"/>
+      <c r="C81" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="93"/>
+      <c r="D81" s="95"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="13" t="s">
@@ -5752,7 +5770,7 @@
       <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="87" t="s">
+      <c r="A90" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="14"/>
@@ -5780,13 +5798,13 @@
       <c r="B93" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="94" t="s">
+      <c r="C93" s="96" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="15"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="43">
+      <c r="A94" s="45">
         <v>0.395833333333333</v>
       </c>
       <c r="B94" s="14" t="s">
@@ -5798,7 +5816,7 @@
       <c r="D94" s="15"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="43">
+      <c r="A95" s="45">
         <v>0.541666666666667</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -5810,7 +5828,7 @@
       <c r="D95" s="15"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="97">
+      <c r="A96" s="99">
         <v>0.583333333333333</v>
       </c>
       <c r="B96" s="19" t="s">
@@ -5819,18 +5837,18 @@
       <c r="C96" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="89"/>
+      <c r="D96" s="91"/>
     </row>
     <row r="98" ht="16.35"/>
     <row r="99" spans="1:4">
-      <c r="A99" s="91" t="s">
+      <c r="A99" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92" t="s">
+      <c r="B99" s="94"/>
+      <c r="C99" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="93"/>
+      <c r="D99" s="95"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="13" t="s">
@@ -5901,7 +5919,7 @@
       <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="87" t="s">
+      <c r="A106" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="14"/>
@@ -5929,13 +5947,13 @@
       <c r="B109" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="94" t="s">
+      <c r="C109" s="96" t="s">
         <v>101</v>
       </c>
       <c r="D109" s="15"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="43">
+      <c r="A110" s="45">
         <v>0.395833333333333</v>
       </c>
       <c r="B110" s="14" t="s">
@@ -5947,7 +5965,7 @@
       <c r="D110" s="15"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="43">
+      <c r="A111" s="45">
         <v>0.541666666666667</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -5959,7 +5977,7 @@
       <c r="D111" s="15"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="97">
+      <c r="A112" s="99">
         <v>0.583333333333333</v>
       </c>
       <c r="B112" s="19" t="s">
@@ -5968,18 +5986,18 @@
       <c r="C112" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="89"/>
+      <c r="D112" s="91"/>
     </row>
     <row r="113" ht="16.35"/>
     <row r="114" spans="1:4">
-      <c r="A114" s="91" t="s">
+      <c r="A114" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="92"/>
-      <c r="C114" s="92" t="s">
+      <c r="B114" s="94"/>
+      <c r="C114" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="93"/>
+      <c r="D114" s="95"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="13" t="s">
@@ -6050,7 +6068,7 @@
       <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="87" t="s">
+      <c r="A121" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="14"/>
@@ -6078,13 +6096,13 @@
       <c r="B124" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="94" t="s">
+      <c r="C124" s="96" t="s">
         <v>101</v>
       </c>
       <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="43">
+      <c r="A125" s="45">
         <v>0.395833333333333</v>
       </c>
       <c r="B125" s="14" t="s">
@@ -6096,7 +6114,7 @@
       <c r="D125" s="15"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="43">
+      <c r="A126" s="45">
         <v>0.541666666666667</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -6108,7 +6126,7 @@
       <c r="D126" s="15"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="97">
+      <c r="A127" s="99">
         <v>0.583333333333333</v>
       </c>
       <c r="B127" s="19" t="s">
@@ -6117,18 +6135,18 @@
       <c r="C127" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="89"/>
+      <c r="D127" s="91"/>
     </row>
     <row r="128" ht="16.35"/>
     <row r="129" spans="1:4">
-      <c r="A129" s="91" t="s">
+      <c r="A129" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="92"/>
-      <c r="C129" s="92" t="s">
+      <c r="B129" s="94"/>
+      <c r="C129" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="93"/>
+      <c r="D129" s="95"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="13" t="s">
@@ -6205,7 +6223,7 @@
       <c r="D135" s="15"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="87" t="s">
+      <c r="A136" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="14"/>
@@ -6233,13 +6251,13 @@
       <c r="B139" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="94" t="s">
+      <c r="C139" s="96" t="s">
         <v>101</v>
       </c>
       <c r="D139" s="15"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="43">
+      <c r="A140" s="45">
         <v>0.395833333333333</v>
       </c>
       <c r="B140" s="14" t="s">
@@ -6251,7 +6269,7 @@
       <c r="D140" s="15"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="43">
+      <c r="A141" s="45">
         <v>0.541666666666667</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -6263,7 +6281,7 @@
       <c r="D141" s="15"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="97">
+      <c r="A142" s="99">
         <v>0.583333333333333</v>
       </c>
       <c r="B142" s="19" t="s">
@@ -6272,18 +6290,18 @@
       <c r="C142" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="89"/>
+      <c r="D142" s="91"/>
     </row>
     <row r="143" ht="16.35"/>
     <row r="144" spans="1:4">
-      <c r="A144" s="91" t="s">
+      <c r="A144" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="92"/>
-      <c r="C144" s="92" t="s">
+      <c r="B144" s="94"/>
+      <c r="C144" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="93"/>
+      <c r="D144" s="95"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="13" t="s">
@@ -6360,7 +6378,7 @@
       <c r="D150" s="15"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="87" t="s">
+      <c r="A151" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="14"/>
@@ -6388,13 +6406,13 @@
       <c r="B154" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="94" t="s">
+      <c r="C154" s="96" t="s">
         <v>101</v>
       </c>
       <c r="D154" s="15"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="43">
+      <c r="A155" s="45">
         <v>0.395833333333333</v>
       </c>
       <c r="B155" s="14" t="s">
@@ -6406,7 +6424,7 @@
       <c r="D155" s="15"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="43">
+      <c r="A156" s="45">
         <v>0.541666666666667</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -6418,7 +6436,7 @@
       <c r="D156" s="15"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="97">
+      <c r="A157" s="99">
         <v>0.583333333333333</v>
       </c>
       <c r="B157" s="19" t="s">
@@ -6427,7 +6445,7 @@
       <c r="C157" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="89"/>
+      <c r="D157" s="91"/>
     </row>
     <row r="158" ht="16.35"/>
     <row r="159" spans="1:4">
@@ -6511,9 +6529,9 @@
       </c>
     </row>
     <row r="165" ht="16.35" spans="1:4">
-      <c r="A165" s="41"/>
-      <c r="B165" s="42"/>
-      <c r="C165" s="42"/>
+      <c r="A165" s="43"/>
+      <c r="B165" s="44"/>
+      <c r="C165" s="44"/>
       <c r="D165" s="20"/>
     </row>
     <row r="166" ht="16.35"/>
@@ -6602,9 +6620,9 @@
       <c r="D173" s="15"/>
     </row>
     <row r="174" ht="16.35" spans="1:4">
-      <c r="A174" s="41"/>
-      <c r="B174" s="42"/>
-      <c r="C174" s="42"/>
+      <c r="A174" s="43"/>
+      <c r="B174" s="44"/>
+      <c r="C174" s="44"/>
       <c r="D174" s="20"/>
     </row>
   </sheetData>
@@ -6652,10 +6670,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -6669,174 +6687,174 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="65" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="69" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="71" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="76"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="76"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
@@ -6848,7 +6866,7 @@
       <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" ht="16.35" spans="1:6">
       <c r="A13" s="18" t="s">
@@ -6858,11 +6876,11 @@
         <v>159</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -6919,122 +6937,122 @@
       </c>
     </row>
     <row r="21" ht="16.35" spans="8:8">
-      <c r="H21" s="80"/>
+      <c r="H21" s="82"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:6">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="82"/>
+      <c r="G23" s="84"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="71" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="83"/>
+      <c r="H25" s="85"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="69" t="s">
+      <c r="E26" s="67"/>
+      <c r="F26" s="71" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="87" t="s">
         <v>178</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="86" t="s">
+      <c r="F27" s="88" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88" t="s">
+      <c r="B28" s="90"/>
+      <c r="C28" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D28" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="90" t="s">
         <v>181</v>
       </c>
       <c r="F28" s="15" t="s">
@@ -7042,475 +7060,559 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="74" t="s">
         <v>184</v>
       </c>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="87"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88" t="s">
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90" t="s">
         <v>185</v>
       </c>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="87"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88" t="s">
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90" t="s">
         <v>186</v>
       </c>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="88" t="s">
+      <c r="E32" s="90" t="s">
         <v>181</v>
       </c>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72" t="s">
+      <c r="B36" s="74"/>
+      <c r="C36" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="90"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88" t="s">
+      <c r="B37" s="90"/>
+      <c r="C37" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
       <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="87"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="87"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88" t="s">
+      <c r="B42" s="90"/>
+      <c r="C42" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="E42" s="88"/>
+      <c r="E42" s="90"/>
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88" t="s">
+      <c r="B44" s="90"/>
+      <c r="C44" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88" t="s">
+      <c r="B45" s="90"/>
+      <c r="C45" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
       <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88" t="s">
+      <c r="B46" s="90"/>
+      <c r="C46" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
       <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88" t="s">
+      <c r="B48" s="90"/>
+      <c r="C48" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
       <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88" t="s">
+      <c r="B49" s="90"/>
+      <c r="C49" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
       <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88" t="s">
+      <c r="B50" s="90"/>
+      <c r="C50" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88" t="s">
+      <c r="B51" s="90"/>
+      <c r="C51" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
       <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="87"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="87"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
+      <c r="A55" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
       <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="89"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="89"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="89"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="6:6">
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="13"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="15"/>
-    </row>
-    <row r="59" ht="16.35" spans="1:6">
-      <c r="A59" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="89"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="7" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="13"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" ht="16.35" spans="1:6">
+      <c r="A67" s="18" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="7" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="91"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>230</v>
+      <c r="A74" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>234</v>
+      <c r="A79" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>205</v>
+      <c r="A80" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>212</v>
+      <c r="A83" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
         <v>237</v>
       </c>
-      <c r="B86" s="7" t="s">
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="87" ht="18.6" spans="1:2">
-      <c r="A87" s="90" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
         <v>239</v>
       </c>
-      <c r="B87" s="7" t="s">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>240</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" ht="18.6" spans="1:2">
+      <c r="A95" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7530,19 +7632,19 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A62" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A63" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A64" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A65" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A66" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A67" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A68" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A71" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A72" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A70" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A71" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A72" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A73" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A74" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A75" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A76" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A79" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A80" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId11" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
-    <hyperlink ref="A75" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B86" r:id="rId13" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B87" r:id="rId14" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A83" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B94" r:id="rId13" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B95" r:id="rId14" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7553,7 +7655,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:P35"/>
+  <dimension ref="B1:P35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -7575,9 +7677,10 @@
     <col min="16" max="16" width="15.7" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="16.35"/>
     <row r="2" spans="2:16">
       <c r="B2" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
@@ -7585,21 +7688,21 @@
       </c>
       <c r="E2" s="12"/>
       <c r="H2" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="12"/>
-      <c r="M2" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="P2" s="46"/>
+      <c r="M2" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="13" t="s">
@@ -7626,16 +7729,16 @@
       <c r="K3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="51" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7654,22 +7757,22 @@
         <v>0.395833333333333</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="M4" s="50">
+      <c r="M4" s="52">
         <v>0.416666666666667</v>
       </c>
-      <c r="N4" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="O4" s="51" t="s">
+      <c r="N4" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="O4" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="51" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7694,16 +7797,16 @@
         <v>79</v>
       </c>
       <c r="K5" s="15"/>
-      <c r="M5" s="50">
+      <c r="M5" s="52">
         <v>0.541666666666667</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" s="49"/>
+      <c r="O5" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="51"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="16">
@@ -7720,22 +7823,22 @@
         <v>0.583333333333333</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="15"/>
-      <c r="M6" s="50">
+      <c r="M6" s="52">
         <v>0.583333333333333</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="49"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" ht="16.35" spans="2:16">
       <c r="B7" s="16">
@@ -7745,29 +7848,29 @@
         <v>114</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E7" s="15"/>
       <c r="H7" s="16">
         <v>0.625</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>77</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="M7" s="52">
+      <c r="M7" s="54">
         <v>0.6875</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="55"/>
+      <c r="P7" s="57"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="16"/>
@@ -7778,60 +7881,60 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" ht="16.35" spans="2:16">
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="20"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="20"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" ht="16.35" spans="13:16">
-      <c r="M10" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="P10" s="46"/>
+      <c r="M10" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" ht="16.35" spans="8:16">
       <c r="H11" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="12"/>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="48" t="s">
+      <c r="N11" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="48" t="s">
+      <c r="O11" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="49" t="s">
+      <c r="P11" s="51" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
@@ -7850,16 +7953,16 @@
       <c r="K12" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="52">
         <v>0.395833333333333</v>
       </c>
-      <c r="N12" s="48" t="s">
+      <c r="N12" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="O12" s="51" t="s">
+      <c r="O12" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="49"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="13" t="s">
@@ -7878,7 +7981,7 @@
         <v>0.375</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>77</v>
@@ -7886,16 +7989,16 @@
       <c r="K13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="52">
         <v>0.541666666666667</v>
       </c>
-      <c r="N13" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="O13" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="49"/>
+      <c r="N13" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="O13" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="16">
@@ -7920,16 +8023,16 @@
       <c r="K14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="52">
         <v>0.583333333333333</v>
       </c>
-      <c r="N14" s="48" t="s">
+      <c r="N14" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="O14" s="51" t="s">
+      <c r="O14" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="49"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" ht="16.35" spans="2:16">
       <c r="B15" s="16">
@@ -7946,7 +8049,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>81</v>
@@ -7954,10 +8057,10 @@
       <c r="K15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="16">
@@ -7967,14 +8070,14 @@
         <v>114</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E16" s="15"/>
       <c r="H16" s="16">
         <v>0.625</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>77</v>
@@ -7992,18 +8095,19 @@
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="16.35" spans="2:11">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="20"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="20"/>
     </row>
+    <row r="19" ht="16.35"/>
     <row r="20" spans="2:11">
       <c r="B20" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
@@ -8011,7 +8115,7 @@
       </c>
       <c r="E20" s="12"/>
       <c r="H20" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
@@ -8062,7 +8166,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>76</v>
@@ -8105,16 +8209,16 @@
         <v>114</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H24" s="16">
         <v>0.583333333333333</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>81</v>
@@ -8132,7 +8236,7 @@
         <v>0.625</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>77</v>
@@ -8140,18 +8244,19 @@
       <c r="K25" s="15"/>
     </row>
     <row r="26" ht="16.35" spans="2:11">
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="20"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="20"/>
     </row>
+    <row r="27" ht="16.35"/>
     <row r="28" spans="2:11">
       <c r="B28" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
@@ -8159,7 +8264,7 @@
       </c>
       <c r="E28" s="12"/>
       <c r="H28" s="27" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="28" t="s">
@@ -8194,11 +8299,11 @@
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="43">
+      <c r="B30" s="45">
         <v>0.395833333333333</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>79</v>
@@ -8208,7 +8313,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>76</v>
@@ -8242,7 +8347,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>79</v>
@@ -8252,7 +8357,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J32" s="34" t="s">
         <v>81</v>
@@ -8267,14 +8372,14 @@
         <v>114</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E33" s="15"/>
       <c r="H33" s="35">
         <v>0.625</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J33" s="37" t="s">
         <v>77</v>
@@ -8288,9 +8393,9 @@
       <c r="E34" s="15"/>
     </row>
     <row r="35" ht="16.35" spans="2:5">
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="20"/>
     </row>
   </sheetData>
@@ -8321,43 +8426,55 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K41"/>
+  <dimension ref="B2:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="18.1" customWidth="1"/>
-    <col min="3" max="3" width="24.4" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="20.2" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="21.7" customWidth="1"/>
-    <col min="11" max="11" width="15.4" customWidth="1"/>
+    <col min="2" max="2" width="12.9" customWidth="1"/>
+    <col min="3" max="3" width="18.1" customWidth="1"/>
+    <col min="4" max="4" width="19.2" customWidth="1"/>
+    <col min="5" max="5" width="16.3" customWidth="1"/>
+    <col min="7" max="7" width="11.4" customWidth="1"/>
+    <col min="8" max="8" width="21.2" customWidth="1"/>
+    <col min="9" max="9" width="18.1" customWidth="1"/>
+    <col min="10" max="10" width="14.2" customWidth="1"/>
+    <col min="12" max="12" width="10.9" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="17.2" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:15">
       <c r="B2" s="27" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E2" s="29"/>
-      <c r="H2" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="G2" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="L2" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
@@ -8370,25 +8487,37 @@
       <c r="E3" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="30" t="s">
         <v>2</v>
       </c>
+      <c r="H3" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="O3" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:15">
       <c r="B4" s="33">
         <v>0.395833333333333</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>87</v>
@@ -8396,49 +8525,73 @@
       <c r="E4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="33">
+      <c r="G4" s="33">
         <v>0.416666666666667</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4" s="34" t="s">
+      <c r="H4" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="L4" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="33">
         <v>0.458333333333333</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="32"/>
-      <c r="H5" s="33">
+      <c r="G5" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="I5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="33">
         <v>0.541666666666667</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>79</v>
@@ -8446,271 +8599,315 @@
       <c r="E6" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="33">
+      <c r="G6" s="33">
         <v>0.645833333333333</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="H6" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="J6" s="32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" ht="16.35" spans="2:11">
-      <c r="B7" s="33">
+      <c r="L6" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="M6" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" ht="16.35" spans="2:15">
+      <c r="B7" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="35">
+      <c r="G7" s="35">
         <v>0.708333333333333</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="H7" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" ht="16.35" spans="2:5">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="10" ht="16.35" spans="8:11">
-      <c r="H10" s="27" t="s">
+      <c r="I7" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="L7" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="39"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="10" ht="16.35" spans="2:10">
+      <c r="B10" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="G10" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="H11" s="30" t="s">
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="30" t="s">
         <v>2</v>
       </c>
+      <c r="C11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="G13" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" ht="16.35" spans="2:10">
+      <c r="B15" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="38"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="G18" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" ht="16.35" spans="2:10">
+      <c r="B19" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="D19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="E19" s="32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="H19" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="I19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="J19" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="33">
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="33">
         <v>0.395833333333333</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="J12" s="34" t="s">
+      <c r="C20" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="E20" s="32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="33">
+      <c r="G20" s="33">
         <v>0.395833333333333</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="34" t="s">
+      <c r="H20" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="J20" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="33">
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="C21" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="33">
+      <c r="D21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="G21" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="H14" s="33">
+      <c r="H21" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="C22" s="31" t="s">
         <v>176</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" ht="16.35" spans="2:11">
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="32"/>
-      <c r="H15" s="35">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" ht="16.35" spans="2:5">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="8:11">
-      <c r="H18" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="K18" s="29"/>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="H20" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="33">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>263</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>76</v>
@@ -8718,350 +8915,396 @@
       <c r="E22" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="33">
+      <c r="G22" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="H22" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="I22" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" ht="16.35" spans="2:11">
-      <c r="B23" s="33">
+      <c r="J22" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" ht="16.35" spans="2:10">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="G23" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="G26" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C29" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="H23" s="35">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="38"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="33">
+      <c r="D29" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C30" s="31" t="s">
         <v>176</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" ht="16.35" spans="2:5">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="8:11">
-      <c r="H26" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="K26" s="29"/>
-    </row>
-    <row r="27" ht="16.35" spans="8:11">
-      <c r="H27" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="H28" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="33">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>263</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="E30" s="32"/>
+      <c r="G30" s="33">
         <v>0.604166666666667</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="H30" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="I30" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" ht="16.35" spans="2:11">
-      <c r="B31" s="33">
+      <c r="J30" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" ht="16.35" spans="2:10">
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="G31" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="G34" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="G36" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C37" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="35">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="38"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="33">
+      <c r="D37" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="G37" s="33">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C38" s="31" t="s">
         <v>176</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" ht="16.35" spans="2:5">
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="8:11">
-      <c r="H34" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="K34" s="29"/>
-    </row>
-    <row r="35" ht="16.35" spans="8:11">
-      <c r="H35" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="H36" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="33">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="33">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>263</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>76</v>
       </c>
       <c r="E38" s="32"/>
-      <c r="H38" s="33">
+      <c r="G38" s="33">
         <v>0.604166666666667</v>
       </c>
-      <c r="I38" s="31" t="s">
+      <c r="H38" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="I38" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" ht="16.35" spans="2:11">
-      <c r="B39" s="33">
+      <c r="J38" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" ht="16.35" spans="2:10">
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="G39" s="35">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="42" spans="7:10">
+      <c r="G42" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="7:10">
+      <c r="G43" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10">
+      <c r="G44" s="33">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10">
+      <c r="G45" s="33">
         <v>0.541666666666667</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="H39" s="35">
+      <c r="H45" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10">
+      <c r="G46" s="33">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="J46" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10">
+      <c r="G47" s="35">
         <v>0.708333333333333</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="H47" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J39" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="38"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="32"/>
-    </row>
-    <row r="41" ht="16.35" spans="2:5">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
+      <c r="I47" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9112,7 +9355,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>76</v>
@@ -9136,10 +9379,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D5" s="14"/>
     </row>
@@ -9185,7 +9428,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
@@ -9212,7 +9455,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>79</v>
@@ -9224,7 +9467,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>
@@ -9236,7 +9479,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>79</v>
@@ -9246,7 +9489,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="16"/>
       <c r="B9" s="14" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>79</v>
@@ -9258,7 +9501,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>79</v>
@@ -9270,7 +9513,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9278,7 +9521,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9286,7 +9529,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9294,13 +9537,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -9327,7 +9570,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>79</v>
@@ -9339,7 +9582,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>79</v>
@@ -9351,7 +9594,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>79</v>
@@ -9361,7 +9604,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="16"/>
       <c r="B22" s="14" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>79</v>
@@ -9373,7 +9616,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>79</v>
@@ -9409,7 +9652,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
@@ -9436,7 +9679,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>79</v>
@@ -9448,7 +9691,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>79</v>
@@ -9460,7 +9703,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>79</v>
@@ -9470,7 +9713,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="16"/>
       <c r="B6" s="14" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>79</v>
@@ -9482,7 +9725,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>79</v>
@@ -9517,201 +9760,201 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:1">

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="4"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="344">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -899,7 +899,19 @@
     <t>算法面试题HOT100</t>
   </si>
   <si>
-    <t>vue，ts面试题</t>
+    <r>
+      <t>vue，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ts面试题</t>
+    </r>
   </si>
   <si>
     <t>第三周上午</t>
@@ -911,7 +923,19 @@
     <t>第三周下午</t>
   </si>
   <si>
-    <t>react，ts面试题</t>
+    <r>
+      <t>react，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ts面试题</t>
+    </r>
   </si>
   <si>
     <t>第四周上午</t>
@@ -929,10 +953,16 @@
     <t>ts面试题</t>
   </si>
   <si>
-    <t>第二三周</t>
-  </si>
-  <si>
-    <t>第一二三周中午</t>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>vue3组件库</t>
+  </si>
+  <si>
+    <t>vue3面试题</t>
+  </si>
+  <si>
+    <t>第三四周中午</t>
   </si>
   <si>
     <t>跨端，react-native, futter</t>
@@ -944,9 +974,6 @@
     <t>2个月</t>
   </si>
   <si>
-    <t>vue3面试题</t>
-  </si>
-  <si>
     <t>vue3课程列表</t>
   </si>
   <si>
@@ -1011,6 +1038,12 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>web面试题</t>
+  </si>
+  <si>
+    <t>https://vue3js.cn/interview/vue3/modal_component.html</t>
   </si>
   <si>
     <t>活动清单(4月19日)</t>
@@ -6670,10 +6703,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -7366,11 +7399,11 @@
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="77" t="s">
         <v>215</v>
       </c>
       <c r="B55" s="90"/>
-      <c r="C55" s="90" t="s">
+      <c r="C55" s="74" t="s">
         <v>196</v>
       </c>
       <c r="D55" s="90"/>
@@ -7378,241 +7411,293 @@
       <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="89" t="s">
-        <v>176</v>
-      </c>
+      <c r="A56" s="89"/>
       <c r="B56" s="90"/>
-      <c r="C56" s="90" t="s">
-        <v>198</v>
-      </c>
+      <c r="C56" s="90"/>
       <c r="D56" s="90"/>
       <c r="E56" s="90"/>
       <c r="F56" s="15"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="89" t="s">
-        <v>99</v>
-      </c>
+      <c r="A57" s="89"/>
       <c r="B57" s="90"/>
-      <c r="C57" s="90" t="s">
-        <v>216</v>
-      </c>
+      <c r="C57" s="90"/>
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="89" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="B58" s="90"/>
       <c r="C58" s="90" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D58" s="90"/>
       <c r="E58" s="90"/>
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="89"/>
+      <c r="A59" s="89" t="s">
+        <v>201</v>
+      </c>
       <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
+      <c r="C59" s="90" t="s">
+        <v>198</v>
+      </c>
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="15"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="89" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B60" s="90"/>
       <c r="C60" s="90" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="89"/>
+      <c r="A61" s="89" t="s">
+        <v>176</v>
+      </c>
       <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
+      <c r="C61" s="90" t="s">
+        <v>209</v>
+      </c>
       <c r="D61" s="90"/>
       <c r="E61" s="90"/>
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="89"/>
+      <c r="A62" s="89" t="s">
+        <v>208</v>
+      </c>
       <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
+      <c r="C62" s="90" t="s">
+        <v>213</v>
+      </c>
       <c r="D62" s="90"/>
       <c r="E62" s="90"/>
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="89"/>
+      <c r="A63" s="89" t="s">
+        <v>218</v>
+      </c>
       <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
+      <c r="C63" s="90" t="s">
+        <v>204</v>
+      </c>
       <c r="D63" s="90"/>
       <c r="E63" s="90"/>
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="89"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="89"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="89"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="13"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" ht="16.35" spans="1:6">
+      <c r="A71" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="13"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" ht="16.35" spans="1:6">
-      <c r="A67" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="91"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="7" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="91"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>230</v>
+      <c r="A78" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>203</v>
+      <c r="A87" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
         <v>240</v>
       </c>
-      <c r="B94" s="7" t="s">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="95" ht="18.6" spans="1:2">
-      <c r="A95" s="92" t="s">
+      <c r="B98" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B95" s="7" t="s">
+    </row>
+    <row r="99" ht="18.6" spans="1:2">
+      <c r="A99" s="92" t="s">
         <v>243</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7632,19 +7717,20 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A70" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A71" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A72" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A73" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A74" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A75" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A76" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A79" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="A80" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A74" r:id="rId2" display="https://www.bilibili.com/video/BV1Zy4y1K7SH/?p=157&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A75" r:id="rId3" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A76" r:id="rId4" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A77" r:id="rId5" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A78" r:id="rId6" display="https://www.bilibili.com/video/BV1Qa4y1E7U1/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A79" r:id="rId7" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A80" r:id="rId8" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A83" r:id="rId9" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A84" r:id="rId10" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId11" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
-    <hyperlink ref="A83" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B94" r:id="rId13" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B95" r:id="rId14" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="A87" r:id="rId12" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B98" r:id="rId13" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B99" r:id="rId14" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B101" r:id="rId15" display="https://vue3js.cn/interview/vue3/modal_component.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7680,7 +7766,7 @@
     <row r="1" ht="16.35"/>
     <row r="2" spans="2:16">
       <c r="B2" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
@@ -7688,7 +7774,7 @@
       </c>
       <c r="E2" s="12"/>
       <c r="H2" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
@@ -7696,11 +7782,11 @@
       </c>
       <c r="K2" s="12"/>
       <c r="M2" s="46" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N2" s="47"/>
       <c r="O2" s="47" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P2" s="48"/>
     </row>
@@ -7757,7 +7843,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>76</v>
@@ -7767,7 +7853,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O4" s="53" t="s">
         <v>81</v>
@@ -7823,7 +7909,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>81</v>
@@ -7848,14 +7934,14 @@
         <v>114</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E7" s="15"/>
       <c r="H7" s="16">
         <v>0.625</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>77</v>
@@ -7902,17 +7988,17 @@
     </row>
     <row r="10" ht="16.35" spans="13:16">
       <c r="M10" s="46" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="47" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P10" s="48"/>
     </row>
     <row r="11" ht="16.35" spans="8:16">
       <c r="H11" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
@@ -7934,7 +8020,7 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
@@ -7981,7 +8067,7 @@
         <v>0.375</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>77</v>
@@ -7993,7 +8079,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O13" s="53" t="s">
         <v>79</v>
@@ -8049,7 +8135,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>81</v>
@@ -8070,14 +8156,14 @@
         <v>114</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E16" s="15"/>
       <c r="H16" s="16">
         <v>0.625</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>77</v>
@@ -8107,7 +8193,7 @@
     <row r="19" ht="16.35"/>
     <row r="20" spans="2:11">
       <c r="B20" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
@@ -8115,7 +8201,7 @@
       </c>
       <c r="E20" s="12"/>
       <c r="H20" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
@@ -8166,7 +8252,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>76</v>
@@ -8209,16 +8295,16 @@
         <v>114</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H24" s="16">
         <v>0.583333333333333</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>81</v>
@@ -8236,7 +8322,7 @@
         <v>0.625</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>77</v>
@@ -8256,7 +8342,7 @@
     <row r="27" ht="16.35"/>
     <row r="28" spans="2:11">
       <c r="B28" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
@@ -8264,7 +8350,7 @@
       </c>
       <c r="E28" s="12"/>
       <c r="H28" s="27" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="28" t="s">
@@ -8303,7 +8389,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>79</v>
@@ -8313,7 +8399,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>76</v>
@@ -8347,7 +8433,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>79</v>
@@ -8357,7 +8443,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J32" s="34" t="s">
         <v>81</v>
@@ -8372,14 +8458,14 @@
         <v>114</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E33" s="15"/>
       <c r="H33" s="35">
         <v>0.625</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J33" s="37" t="s">
         <v>77</v>
@@ -8426,10 +8512,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O47"/>
+  <dimension ref="B1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
@@ -8448,29 +8534,30 @@
     <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="16.35"/>
     <row r="2" spans="2:15">
       <c r="B2" s="27" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E2" s="29"/>
       <c r="G2" s="27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J2" s="29"/>
       <c r="L2" s="27" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O2" s="29"/>
     </row>
@@ -8517,7 +8604,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>87</v>
@@ -8529,7 +8616,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>76</v>
@@ -8555,7 +8642,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>79</v>
@@ -8591,7 +8678,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>79</v>
@@ -8672,21 +8759,22 @@
       <c r="N8" s="40"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="10" ht="16.35" spans="2:10">
+    <row r="9" ht="16.35"/>
+    <row r="10" spans="2:10">
       <c r="B10" s="27" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="41" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E10" s="42"/>
       <c r="G10" s="27" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J10" s="29"/>
     </row>
@@ -8721,7 +8809,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>76</v>
@@ -8733,7 +8821,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>76</v>
@@ -8808,25 +8896,26 @@
       </c>
       <c r="J15" s="38"/>
     </row>
+    <row r="17" ht="16.35"/>
     <row r="18" spans="2:10">
       <c r="B18" s="27" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E18" s="29"/>
       <c r="G18" s="27" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" ht="16.35" spans="2:10">
+    <row r="19" spans="2:10">
       <c r="B19" s="30" t="s">
         <v>2</v>
       </c>
@@ -8857,7 +8946,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>76</v>
@@ -8893,7 +8982,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>79</v>
@@ -8944,21 +9033,22 @@
       </c>
       <c r="J23" s="38"/>
     </row>
+    <row r="25" ht="16.35"/>
     <row r="26" spans="2:10">
       <c r="B26" s="27" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E26" s="29"/>
       <c r="G26" s="27" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J26" s="29"/>
     </row>
@@ -8993,7 +9083,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>76</v>
@@ -9031,7 +9121,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>79</v>
@@ -9080,21 +9170,22 @@
       </c>
       <c r="J31" s="38"/>
     </row>
+    <row r="33" ht="16.35"/>
     <row r="34" spans="2:10">
       <c r="B34" s="27" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E34" s="29"/>
       <c r="G34" s="27" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J34" s="29"/>
     </row>
@@ -9129,7 +9220,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>76</v>
@@ -9163,7 +9254,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I37" s="34" t="s">
         <v>79</v>
@@ -9212,13 +9303,14 @@
       </c>
       <c r="J39" s="38"/>
     </row>
+    <row r="41" ht="16.35"/>
     <row r="42" spans="7:10">
       <c r="G42" s="27" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J42" s="29"/>
     </row>
@@ -9255,7 +9347,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>79</v>
@@ -9278,7 +9370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="7:10">
+    <row r="47" ht="16.35" spans="7:10">
       <c r="G47" s="35">
         <v>0.708333333333333</v>
       </c>
@@ -9355,7 +9447,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>76</v>
@@ -9379,10 +9471,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D5" s="14"/>
     </row>
@@ -9428,7 +9520,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
@@ -9455,7 +9547,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>79</v>
@@ -9467,7 +9559,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>79</v>
@@ -9479,7 +9571,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>79</v>
@@ -9489,7 +9581,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="16"/>
       <c r="B9" s="14" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>79</v>
@@ -9501,7 +9593,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>79</v>
@@ -9513,7 +9605,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9521,7 +9613,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9529,7 +9621,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9537,13 +9629,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -9570,7 +9662,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>79</v>
@@ -9582,7 +9674,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>79</v>
@@ -9594,7 +9686,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>79</v>
@@ -9604,7 +9696,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="16"/>
       <c r="B22" s="14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>79</v>
@@ -9616,7 +9708,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>79</v>
@@ -9652,7 +9744,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
@@ -9679,7 +9771,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>79</v>
@@ -9691,7 +9783,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>79</v>
@@ -9703,7 +9795,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>79</v>
@@ -9713,7 +9805,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="16"/>
       <c r="B6" s="14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>79</v>
@@ -9725,7 +9817,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>79</v>
@@ -9760,201 +9852,201 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:1">

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="375">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -1423,13 +1423,22 @@
     <t>https://www.bilibili.com/video/BV1rA4y1f7mM/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
+    <t>react课程珠峰全家桶</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
     <t>react课程</t>
   </si>
   <si>
-    <t>https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
-  </si>
-  <si>
     <t>https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>单点登录--小野森森</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV114421U7e8/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
     <t>恒逸，振荡起伏，除非有异动</t>
@@ -1709,13 +1718,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="SimSun"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -5267,10 +5276,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -5406,9 +5415,20 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -5428,6 +5448,7 @@
     <hyperlink ref="C12" r:id="rId13" display="https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C22" r:id="rId14" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C23" r:id="rId15" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C25" r:id="rId16" display="https://www.bilibili.com/video/BV114421U7e8/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5455,12 +5476,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7254,8 +7275,8 @@
   <sheetPr/>
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="10"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="398">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -1441,10 +1441,79 @@
     <t>https://www.bilibili.com/video/BV114421U7e8/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
-    <t>恒逸，振荡起伏，除非有异动</t>
-  </si>
-  <si>
-    <t>永艺：期待涨停，防止跳水</t>
+    <t>2023字节DevOps</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1pP411z7p8/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>渡一面试题</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1oE421u71n/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>TS基础教程</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1wR4y1377K/?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=5</t>
+  </si>
+  <si>
+    <t>html+js+CSS基础面试题</t>
+  </si>
+  <si>
+    <t>JS高级面试题</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>源码</t>
+  </si>
+  <si>
+    <t>monorepo</t>
+  </si>
+  <si>
+    <t>react面试题</t>
+  </si>
+  <si>
+    <t>小程序面试题</t>
+  </si>
+  <si>
+    <t>项目设计</t>
+  </si>
+  <si>
+    <t>git+devops面试</t>
+  </si>
+  <si>
+    <t>项目面试题</t>
+  </si>
+  <si>
+    <t>打包vite和webpack面试题</t>
+  </si>
+  <si>
+    <t>管理系统项目设计</t>
+  </si>
+  <si>
+    <t>可视化大屏项目设计</t>
+  </si>
+  <si>
+    <t>移动端项目设计</t>
+  </si>
+  <si>
+    <t>个人项目</t>
+  </si>
+  <si>
+    <t>低代码平台、</t>
+  </si>
+  <si>
+    <t>npm组件库</t>
+  </si>
+  <si>
+    <t>微前端框架应用</t>
+  </si>
+  <si>
+    <t>算法及数据结构</t>
   </si>
 </sst>
 </file>
@@ -1718,13 +1787,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="SimSun"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -5276,10 +5345,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -5314,7 +5383,7 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -5330,7 +5399,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -5429,6 +5498,30 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>375</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5449,6 +5542,8 @@
     <hyperlink ref="C22" r:id="rId14" display="https://www.bilibili.com/video/BV1bS4y1b7NV?p=137&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C23" r:id="rId15" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C25" r:id="rId16" display="https://www.bilibili.com/video/BV114421U7e8/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C30" r:id="rId17" display="https://www.bilibili.com/video/BV1oE421u71n/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C32" r:id="rId18" display="https://www.bilibili.com/video/BV1wR4y1377K/?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5458,30 +5553,121 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.3" customWidth="1"/>
+    <col min="1" max="1" width="24.8" customWidth="1"/>
+    <col min="2" max="2" width="32.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>45582</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>374</v>
+      <c r="A1" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -7276,7 +7462,7 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -8119,7 +8305,7 @@
       <c r="F67" s="19"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="80" t="s">
         <v>224</v>
       </c>
       <c r="B68" s="93"/>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="11"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="401">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -1411,6 +1411,12 @@
     <t>https://www.bilibili.com/video/BV1VS4y1U7Pj/?p=47&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
+    <t>珠峰vue3源码1</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1gZyaY8EZM/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
     <t>尚硅谷--js高级知识</t>
   </si>
   <si>
@@ -1514,6 +1520,9 @@
   </si>
   <si>
     <t>算法及数据结构</t>
+  </si>
+  <si>
+    <t>nginx</t>
   </si>
 </sst>
 </file>
@@ -5347,8 +5356,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -5457,71 +5466,76 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="3"/>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5544,6 +5558,7 @@
     <hyperlink ref="C25" r:id="rId16" display="https://www.bilibili.com/video/BV114421U7e8/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C30" r:id="rId17" display="https://www.bilibili.com/video/BV1oE421u71n/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C32" r:id="rId18" display="https://www.bilibili.com/video/BV1wR4y1377K/?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=5"/>
+    <hyperlink ref="C13" r:id="rId19" display="https://www.bilibili.com/video/BV1gZyaY8EZM/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5553,10 +5568,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -5570,12 +5585,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5583,22 +5598,22 @@
         <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -5608,66 +5623,71 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B26" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>397</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -7459,10 +7479,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="B68" sqref="A71 B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -8329,7 +8349,9 @@
       <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="92"/>
+      <c r="A70" s="92" t="s">
+        <v>205</v>
+      </c>
       <c r="B70" s="93"/>
       <c r="C70" s="93"/>
       <c r="D70" s="93"/>
@@ -8337,42 +8359,49 @@
       <c r="F70" s="19"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="19"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="19"/>
-    </row>
-    <row r="72" spans="6:6">
+      <c r="E72" s="6"/>
       <c r="F72" s="19"/>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="17"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+    <row r="73" spans="6:6">
       <c r="F73" s="19"/>
     </row>
-    <row r="74" ht="16.35" spans="1:6">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="94"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="5"/>
+    <row r="74" spans="1:6">
+      <c r="A74" s="17"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="19"/>
+    </row>
+    <row r="75" ht="16.35" spans="1:6">
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="94"/>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="5"/>
@@ -8392,83 +8421,86 @@
     <row r="83" spans="1:1">
       <c r="A83" s="5"/>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="5"/>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5"/>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="5"/>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>236</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="102" ht="18.6" spans="1:2">
-      <c r="A102" s="95" t="s">
+    <row r="103" ht="18.6" spans="1:2">
+      <c r="A103" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>240</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8492,10 +8524,10 @@
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId2" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
-    <hyperlink ref="A90" r:id="rId3" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B101" r:id="rId4" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B102" r:id="rId5" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B104" r:id="rId6" display="https://vue3js.cn/interview/vue3/modal_component.html"/>
+    <hyperlink ref="A91" r:id="rId3" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B102" r:id="rId4" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B103" r:id="rId5" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B105" r:id="rId6" display="https://vue3js.cn/interview/vue3/modal_component.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="10"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="学习计划" sheetId="9" r:id="rId3"/>
     <sheet name="2024_Q2" sheetId="11" r:id="rId4"/>
     <sheet name="2024_Q3" sheetId="16" r:id="rId5"/>
-    <sheet name="2024_Q4" sheetId="18" r:id="rId6"/>
+    <sheet name="2025_Q1" sheetId="18" r:id="rId6"/>
     <sheet name="8月" sheetId="12" r:id="rId7"/>
     <sheet name="9月" sheetId="13" r:id="rId8"/>
     <sheet name="10月" sheetId="15" r:id="rId9"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="416">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -1009,6 +1009,18 @@
     <t>2个月</t>
   </si>
   <si>
+    <t>HTML+CSS</t>
+  </si>
+  <si>
+    <t>10道题</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>vue</t>
+  </si>
+  <si>
     <t>CRM课程</t>
   </si>
   <si>
@@ -1150,6 +1162,21 @@
     <t>活动清单(8月12日)</t>
   </si>
   <si>
+    <t>活动清单(1月20日)</t>
+  </si>
+  <si>
+    <t>TS小野</t>
+  </si>
+  <si>
+    <t>渡一面试题</t>
+  </si>
+  <si>
+    <t>小野设计模式</t>
+  </si>
+  <si>
+    <t>2023字节DevOps</t>
+  </si>
+  <si>
     <t>需求开发</t>
   </si>
   <si>
@@ -1423,12 +1450,24 @@
     <t>https://www.bilibili.com/video/BV1Wb411H7Pj/?p=9&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
-    <t>JS面试提</t>
+    <t>JS面试题目</t>
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1rA4y1f7mM/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
+    <t>小野--设计模式</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Py4y1D7TA?spm_id_from=333.788.recommend_more_video.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>小野TS训练营</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Jt4y1k7dS?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=6</t>
+  </si>
+  <si>
     <t>react课程珠峰全家桶</t>
   </si>
   <si>
@@ -1447,22 +1486,28 @@
     <t>https://www.bilibili.com/video/BV114421U7e8/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
-    <t>2023字节DevOps</t>
-  </si>
-  <si>
     <t>https://www.bilibili.com/video/BV1pP411z7p8/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
-    <t>渡一面试题</t>
-  </si>
-  <si>
     <t>https://www.bilibili.com/video/BV1oE421u71n/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
+    <t>web综合面试题</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV141421U7jr/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
     <t>TS基础教程</t>
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1wR4y1377K/?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=5</t>
+  </si>
+  <si>
+    <t>react2025</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1ZNy1YGEkS/?spm_id_from=333.788.recommend_more_video.2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
     <t>html+js+CSS基础面试题</t>
@@ -1796,13 +1841,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="SimSun"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2030,7 +2075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2216,6 +2261,45 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2517,7 +2601,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2529,34 +2613,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2641,7 +2725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2768,22 +2852,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2813,28 +2909,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2885,7 +2981,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2894,51 +2990,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2951,7 +3047,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2966,10 +3062,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3317,11 +3413,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="103" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="107" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3341,7 +3437,7 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="108" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3350,7 +3446,7 @@
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="109" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3359,14 +3455,14 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="109" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="17"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="105"/>
+      <c r="C6" s="109"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="17"/>
@@ -3374,7 +3470,7 @@
       <c r="C7" s="19"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6"/>
@@ -3396,25 +3492,25 @@
       <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="107"/>
+      <c r="C11" s="111"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="98"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="102"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="17" t="s">
@@ -3436,7 +3532,7 @@
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="114" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="6"/>
@@ -3447,7 +3543,7 @@
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="114" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="6"/>
@@ -3458,14 +3554,14 @@
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="110"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="6"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="20"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="110"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="6"/>
       <c r="E19" s="19"/>
     </row>
@@ -3496,40 +3592,40 @@
       <c r="A23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="106" t="s">
+      <c r="C23" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="106" t="s">
+      <c r="D23" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="107" t="s">
+      <c r="E23" s="111" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A24" s="101"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="98"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="102"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="17" t="s">
@@ -3559,15 +3655,15 @@
       <c r="I27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="80" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="111">
+      <c r="A28" s="115">
         <v>44536</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="46">
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -3585,11 +3681,11 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="76"/>
+      <c r="J28" s="80"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="100"/>
-      <c r="B29" s="42">
+      <c r="A29" s="104"/>
+      <c r="B29" s="46">
         <v>0.416666666666667</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -3601,11 +3697,11 @@
       <c r="F29" s="6">
         <v>3</v>
       </c>
-      <c r="J29" s="76"/>
+      <c r="J29" s="80"/>
     </row>
     <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="100"/>
-      <c r="B30" s="42">
+      <c r="A30" s="104"/>
+      <c r="B30" s="46">
         <v>0.5625</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -3617,11 +3713,11 @@
       <c r="F30" s="6">
         <v>3</v>
       </c>
-      <c r="J30" s="76"/>
+      <c r="J30" s="80"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="100"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="46"/>
       <c r="D31" s="6" t="s">
         <v>36</v>
       </c>
@@ -3631,31 +3727,31 @@
       <c r="F31" s="6">
         <v>4</v>
       </c>
-      <c r="J31" s="76"/>
+      <c r="J31" s="80"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="100"/>
-      <c r="J32" s="76"/>
+      <c r="A32" s="104"/>
+      <c r="J32" s="80"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
-      <c r="A33" s="101"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="84"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="88"/>
     </row>
     <row r="34" ht="16.35"/>
     <row r="35" spans="1:3">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="103" t="s">
+      <c r="B35" s="101"/>
+      <c r="C35" s="107" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3675,7 +3771,7 @@
       <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="109" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3684,7 +3780,7 @@
       <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="105" t="s">
+      <c r="C38" s="109" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3693,7 +3789,7 @@
       <c r="B39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="105" t="s">
+      <c r="C39" s="109" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3702,7 +3798,7 @@
       <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="105" t="s">
+      <c r="C40" s="109" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3712,7 +3808,7 @@
       <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="6"/>
@@ -3734,25 +3830,25 @@
       <c r="A45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="107"/>
+      <c r="C45" s="111"/>
     </row>
     <row r="46" ht="16.35" spans="1:3">
-      <c r="A46" s="101"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
     </row>
     <row r="47" ht="16.35"/>
     <row r="48" spans="1:5">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="98"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="102"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="17" t="s">
@@ -3776,7 +3872,7 @@
       <c r="B50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="110" t="s">
+      <c r="C50" s="114" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="6"/>
@@ -3789,7 +3885,7 @@
       <c r="B51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="110" t="s">
+      <c r="C51" s="114" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="6"/>
@@ -3802,7 +3898,7 @@
       <c r="B52" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="110"/>
+      <c r="C52" s="114"/>
       <c r="D52" s="6"/>
       <c r="E52" s="19"/>
     </row>
@@ -3813,7 +3909,7 @@
       <c r="B53" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="110"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="6"/>
       <c r="E53" s="19"/>
     </row>
@@ -3844,39 +3940,39 @@
       <c r="A57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="106" t="s">
+      <c r="B57" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="106" t="s">
+      <c r="C57" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="106" t="s">
+      <c r="D57" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="107" t="s">
+      <c r="E57" s="111" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="16.35" spans="1:5">
-      <c r="A58" s="101"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="84"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="88"/>
     </row>
     <row r="59" ht="16.35"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="17" t="s">
@@ -3908,10 +4004,10 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="111">
+      <c r="A62" s="115">
         <v>44536</v>
       </c>
-      <c r="B62" s="42">
+      <c r="B62" s="46">
         <v>0.395833333333333</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3931,8 +4027,8 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="100"/>
-      <c r="B63" s="42">
+      <c r="A63" s="104"/>
+      <c r="B63" s="46">
         <v>0.416666666666667</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -3946,8 +4042,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="100"/>
-      <c r="B64" s="42">
+      <c r="A64" s="104"/>
+      <c r="B64" s="46">
         <v>0.5625</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -3961,8 +4057,8 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="100"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="104"/>
+      <c r="B65" s="46"/>
       <c r="D65" s="6" t="s">
         <v>36</v>
       </c>
@@ -3974,26 +4070,26 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="100"/>
+      <c r="A66" s="104"/>
     </row>
     <row r="67" ht="16.35" spans="1:9">
-      <c r="A67" s="101"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="87"/>
     </row>
     <row r="69" ht="16.35"/>
     <row r="70" spans="1:3">
-      <c r="A70" s="96" t="s">
+      <c r="A70" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="97"/>
-      <c r="C70" s="103" t="s">
+      <c r="B70" s="101"/>
+      <c r="C70" s="107" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4013,7 +4109,7 @@
       <c r="B72" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="105" t="s">
+      <c r="C72" s="109" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4022,7 +4118,7 @@
       <c r="B73" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="105" t="s">
+      <c r="C73" s="109" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4031,7 +4127,7 @@
       <c r="B74" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="105" t="s">
+      <c r="C74" s="109" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4040,7 +4136,7 @@
       <c r="B75" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="105" t="s">
+      <c r="C75" s="109" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4049,7 +4145,7 @@
       <c r="B76" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="105" t="s">
+      <c r="C76" s="109" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4059,7 +4155,7 @@
       <c r="C77" s="19"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="92" t="s">
+      <c r="A78" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="6"/>
@@ -4081,25 +4177,25 @@
       <c r="A81" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="106" t="s">
+      <c r="B81" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="107"/>
+      <c r="C81" s="111"/>
     </row>
     <row r="82" ht="16.35" spans="1:3">
-      <c r="A82" s="101"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="84"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="88"/>
     </row>
     <row r="83" ht="16.35"/>
     <row r="84" spans="1:5">
-      <c r="A84" s="108" t="s">
+      <c r="A84" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="109"/>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109"/>
-      <c r="E84" s="98"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="113"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="102"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="17" t="s">
@@ -4121,7 +4217,7 @@
       <c r="B86" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="110" t="s">
+      <c r="C86" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="6"/>
@@ -4132,7 +4228,7 @@
       <c r="B87" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="110" t="s">
+      <c r="C87" s="114" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="6"/>
@@ -4145,7 +4241,7 @@
       <c r="B88" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="110" t="s">
+      <c r="C88" s="114" t="s">
         <v>50</v>
       </c>
       <c r="D88" s="6"/>
@@ -4156,7 +4252,7 @@
       <c r="B89" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="110"/>
+      <c r="C89" s="114"/>
       <c r="D89" s="6"/>
       <c r="E89" s="19"/>
     </row>
@@ -4189,39 +4285,39 @@
       <c r="A93" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="106" t="s">
+      <c r="B93" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="106" t="s">
+      <c r="C93" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="106" t="s">
+      <c r="D93" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="107" t="s">
+      <c r="E93" s="111" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:5">
-      <c r="A94" s="101"/>
-      <c r="B94" s="83"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="84"/>
+      <c r="A94" s="105"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="88"/>
     </row>
     <row r="95" ht="16.35"/>
     <row r="96" spans="1:9">
-      <c r="A96" s="108" t="s">
+      <c r="A96" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="109"/>
-      <c r="C96" s="109"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="109"/>
-      <c r="F96" s="109"/>
-      <c r="G96" s="109"/>
-      <c r="H96" s="109"/>
-      <c r="I96" s="109"/>
+      <c r="B96" s="113"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="113"/>
+      <c r="E96" s="113"/>
+      <c r="F96" s="113"/>
+      <c r="G96" s="113"/>
+      <c r="H96" s="113"/>
+      <c r="I96" s="113"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="17" t="s">
@@ -4253,10 +4349,10 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="111">
+      <c r="A98" s="115">
         <v>44536</v>
       </c>
-      <c r="B98" s="42">
+      <c r="B98" s="46">
         <v>0.395833333333333</v>
       </c>
       <c r="C98" s="6" t="s">
@@ -4276,8 +4372,8 @@
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="100"/>
-      <c r="B99" s="42">
+      <c r="A99" s="104"/>
+      <c r="B99" s="46">
         <v>0.416666666666667</v>
       </c>
       <c r="D99" s="6" t="s">
@@ -4291,8 +4387,8 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="100"/>
-      <c r="B100" s="42">
+      <c r="A100" s="104"/>
+      <c r="B100" s="46">
         <v>0.5625</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -4306,33 +4402,33 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="100"/>
-      <c r="B101" s="42"/>
+      <c r="A101" s="104"/>
+      <c r="B101" s="46"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="100"/>
+      <c r="A102" s="104"/>
     </row>
     <row r="103" ht="16.35" spans="1:9">
-      <c r="A103" s="101"/>
-      <c r="B103" s="83"/>
-      <c r="C103" s="83"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="83"/>
+      <c r="A103" s="105"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="87"/>
+      <c r="G103" s="87"/>
+      <c r="H103" s="87"/>
+      <c r="I103" s="87"/>
     </row>
     <row r="104" ht="16.35"/>
     <row r="105" spans="1:3">
-      <c r="A105" s="96" t="s">
+      <c r="A105" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="97"/>
-      <c r="C105" s="103" t="s">
+      <c r="B105" s="101"/>
+      <c r="C105" s="107" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4354,7 +4450,7 @@
       <c r="B107" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="105" t="s">
+      <c r="C107" s="109" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4363,7 +4459,7 @@
       <c r="B108" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="105" t="s">
+      <c r="C108" s="109" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4372,7 +4468,7 @@
       <c r="B109" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="105" t="s">
+      <c r="C109" s="109" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4381,7 +4477,7 @@
       <c r="B110" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="105" t="s">
+      <c r="C110" s="109" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4390,7 +4486,7 @@
       <c r="B111" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="105" t="s">
+      <c r="C111" s="109" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4400,7 +4496,7 @@
       <c r="C112" s="19"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="92" t="s">
+      <c r="A113" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="6"/>
@@ -4422,27 +4518,27 @@
       <c r="A116" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="106" t="s">
+      <c r="B116" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="107"/>
+      <c r="C116" s="111"/>
     </row>
     <row r="117" ht="16.35" spans="1:3">
-      <c r="A117" s="101" t="s">
+      <c r="A117" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="83"/>
-      <c r="C117" s="84"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="88"/>
     </row>
     <row r="118" ht="16.35"/>
     <row r="119" spans="1:5">
-      <c r="A119" s="108" t="s">
+      <c r="A119" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="109"/>
-      <c r="C119" s="109"/>
-      <c r="D119" s="109"/>
-      <c r="E119" s="98"/>
+      <c r="B119" s="113"/>
+      <c r="C119" s="113"/>
+      <c r="D119" s="113"/>
+      <c r="E119" s="102"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="17" t="s">
@@ -4466,7 +4562,7 @@
       <c r="B121" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="110" t="s">
+      <c r="C121" s="114" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="6"/>
@@ -4479,7 +4575,7 @@
       <c r="B122" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="110" t="s">
+      <c r="C122" s="114" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="6"/>
@@ -4492,7 +4588,7 @@
       <c r="B123" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="110" t="s">
+      <c r="C123" s="114" t="s">
         <v>57</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -4507,7 +4603,7 @@
       <c r="B124" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="110" t="s">
+      <c r="C124" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="6"/>
@@ -4542,39 +4638,39 @@
       <c r="A128" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="106" t="s">
+      <c r="B128" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="106" t="s">
+      <c r="C128" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="106" t="s">
+      <c r="D128" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="107" t="s">
+      <c r="E128" s="111" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" ht="16.35" spans="1:5">
-      <c r="A129" s="101"/>
-      <c r="B129" s="83"/>
-      <c r="C129" s="83"/>
-      <c r="D129" s="83"/>
-      <c r="E129" s="84"/>
+      <c r="A129" s="105"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="87"/>
+      <c r="D129" s="87"/>
+      <c r="E129" s="88"/>
     </row>
     <row r="130" ht="16.35"/>
     <row r="131" spans="1:9">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
-      <c r="G131" s="109"/>
-      <c r="H131" s="109"/>
-      <c r="I131" s="109"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="17" t="s">
@@ -4606,10 +4702,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="111">
+      <c r="A133" s="115">
         <v>44536</v>
       </c>
-      <c r="B133" s="42">
+      <c r="B133" s="46">
         <v>0.395833333333333</v>
       </c>
       <c r="C133" s="6" t="s">
@@ -4629,8 +4725,8 @@
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="100"/>
-      <c r="B134" s="42">
+      <c r="A134" s="104"/>
+      <c r="B134" s="46">
         <v>0.416666666666667</v>
       </c>
       <c r="D134" s="6" t="s">
@@ -4647,8 +4743,8 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="100"/>
-      <c r="B135" s="42">
+      <c r="A135" s="104"/>
+      <c r="B135" s="46">
         <v>0.5625</v>
       </c>
       <c r="D135" s="6" t="s">
@@ -4662,8 +4758,8 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="100"/>
-      <c r="B136" s="42">
+      <c r="A136" s="104"/>
+      <c r="B136" s="46">
         <v>0.659722222222222</v>
       </c>
       <c r="D136" s="6" t="s">
@@ -4677,28 +4773,28 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="100"/>
+      <c r="A137" s="104"/>
     </row>
     <row r="138" ht="16.35" spans="1:9">
-      <c r="A138" s="101"/>
-      <c r="B138" s="83"/>
-      <c r="C138" s="83"/>
-      <c r="D138" s="83"/>
-      <c r="E138" s="83"/>
-      <c r="F138" s="83">
+      <c r="A138" s="105"/>
+      <c r="B138" s="87"/>
+      <c r="C138" s="87"/>
+      <c r="D138" s="87"/>
+      <c r="E138" s="87"/>
+      <c r="F138" s="87">
         <v>11</v>
       </c>
-      <c r="G138" s="83"/>
-      <c r="H138" s="83"/>
-      <c r="I138" s="83"/>
+      <c r="G138" s="87"/>
+      <c r="H138" s="87"/>
+      <c r="I138" s="87"/>
     </row>
     <row r="139" ht="16.35"/>
     <row r="140" spans="1:3">
-      <c r="A140" s="96" t="s">
+      <c r="A140" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="97"/>
-      <c r="C140" s="103" t="s">
+      <c r="B140" s="101"/>
+      <c r="C140" s="107" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4720,7 +4816,7 @@
       <c r="B142" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="105" t="s">
+      <c r="C142" s="109" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4731,7 +4827,7 @@
       <c r="B143" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="105" t="s">
+      <c r="C143" s="109" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4742,7 +4838,7 @@
       <c r="B144" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="105" t="s">
+      <c r="C144" s="109" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4753,7 +4849,7 @@
       <c r="B145" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="105" t="s">
+      <c r="C145" s="109" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4762,7 +4858,7 @@
       <c r="B146" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="105" t="s">
+      <c r="C146" s="109" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4771,7 +4867,7 @@
       <c r="B147" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="105" t="s">
+      <c r="C147" s="109" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4781,7 +4877,7 @@
       <c r="C148" s="19"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="92" t="s">
+      <c r="A149" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="6"/>
@@ -4792,7 +4888,7 @@
       <c r="B150" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C150" s="105" t="s">
+      <c r="C150" s="109" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4826,25 +4922,25 @@
       <c r="A155" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="106" t="s">
+      <c r="B155" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="107"/>
+      <c r="C155" s="111"/>
     </row>
     <row r="156" ht="16.35" spans="1:3">
-      <c r="A156" s="101"/>
-      <c r="B156" s="83"/>
-      <c r="C156" s="84"/>
+      <c r="A156" s="105"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="88"/>
     </row>
     <row r="157" ht="16.35"/>
     <row r="158" spans="1:5">
-      <c r="A158" s="108" t="s">
+      <c r="A158" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="109"/>
-      <c r="C158" s="109"/>
-      <c r="D158" s="109"/>
-      <c r="E158" s="98"/>
+      <c r="B158" s="113"/>
+      <c r="C158" s="113"/>
+      <c r="D158" s="113"/>
+      <c r="E158" s="102"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="17" t="s">
@@ -4868,7 +4964,7 @@
       <c r="B160" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="110" t="s">
+      <c r="C160" s="114" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="6"/>
@@ -4881,7 +4977,7 @@
       <c r="B161" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="110" t="s">
+      <c r="C161" s="114" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="6"/>
@@ -4894,7 +4990,7 @@
       <c r="B162" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="110" t="s">
+      <c r="C162" s="114" t="s">
         <v>48</v>
       </c>
       <c r="D162" s="6"/>
@@ -4947,39 +5043,39 @@
       <c r="A168" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B168" s="106" t="s">
+      <c r="B168" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="106" t="s">
+      <c r="C168" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="106" t="s">
+      <c r="D168" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="107" t="s">
+      <c r="E168" s="111" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="169" ht="16.35" spans="1:5">
-      <c r="A169" s="101"/>
-      <c r="B169" s="83"/>
-      <c r="C169" s="83"/>
-      <c r="D169" s="83"/>
-      <c r="E169" s="84"/>
+      <c r="A169" s="105"/>
+      <c r="B169" s="87"/>
+      <c r="C169" s="87"/>
+      <c r="D169" s="87"/>
+      <c r="E169" s="88"/>
     </row>
     <row r="170" ht="16.35"/>
     <row r="171" spans="1:9">
-      <c r="A171" s="108" t="s">
+      <c r="A171" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B171" s="109"/>
-      <c r="C171" s="109"/>
-      <c r="D171" s="109"/>
-      <c r="E171" s="109"/>
-      <c r="F171" s="109"/>
-      <c r="G171" s="109"/>
-      <c r="H171" s="109"/>
-      <c r="I171" s="109"/>
+      <c r="B171" s="113"/>
+      <c r="C171" s="113"/>
+      <c r="D171" s="113"/>
+      <c r="E171" s="113"/>
+      <c r="F171" s="113"/>
+      <c r="G171" s="113"/>
+      <c r="H171" s="113"/>
+      <c r="I171" s="113"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="17" t="s">
@@ -5011,10 +5107,10 @@
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="111">
+      <c r="A173" s="115">
         <v>44536</v>
       </c>
-      <c r="B173" s="42">
+      <c r="B173" s="46">
         <v>0.440972222222222</v>
       </c>
       <c r="C173" s="6" t="s">
@@ -5036,8 +5132,8 @@
       <c r="I173" s="6"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="100"/>
-      <c r="B174" s="112">
+      <c r="A174" s="104"/>
+      <c r="B174" s="116">
         <v>0.461805555555556</v>
       </c>
       <c r="D174" t="s">
@@ -5057,8 +5153,8 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="100"/>
-      <c r="B175" s="112">
+      <c r="A175" s="104"/>
+      <c r="B175" s="116">
         <v>0.65625</v>
       </c>
       <c r="D175" t="s">
@@ -5123,7 +5219,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -5136,201 +5232,201 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B1" s="7"/>
       <c r="D1" s="6" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B2" s="8"/>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B7" s="11"/>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -5354,10 +5450,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -5369,34 +5465,34 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -5404,138 +5500,170 @@
         <v>224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="4" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>368</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>375</v>
-      </c>
-      <c r="C28" t="s">
-        <v>376</v>
+        <v>284</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>377</v>
+        <v>282</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>378</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>390</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" t="s">
-        <v>379</v>
+      <c r="B32" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5557,8 +5685,13 @@
     <hyperlink ref="C23" r:id="rId15" display="https://www.bilibili.com/video/BV1bg411c7K8/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C25" r:id="rId16" display="https://www.bilibili.com/video/BV114421U7e8/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C30" r:id="rId17" display="https://www.bilibili.com/video/BV1oE421u71n/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="C32" r:id="rId18" display="https://www.bilibili.com/video/BV1wR4y1377K/?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=5"/>
+    <hyperlink ref="C32" r:id="rId18" display="https://www.bilibili.com/video/BV1wR4y1377K/?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=5" tooltip="https://www.bilibili.com/video/BV1wR4y1377K/?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=5"/>
     <hyperlink ref="C13" r:id="rId19" display="https://www.bilibili.com/video/BV1gZyaY8EZM/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C19" r:id="rId20" display="https://www.bilibili.com/video/BV1Py4y1D7TA?spm_id_from=333.788.recommend_more_video.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C31" r:id="rId21" display="https://www.bilibili.com/video/BV141421U7jr/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C20" r:id="rId22" display="https://www.bilibili.com/video/BV1Jt4y1k7dS?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=6"/>
+    <hyperlink ref="C28" r:id="rId23" display="https://www.bilibili.com/video/BV1pP411z7p8/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C34" r:id="rId24" display="https://www.bilibili.com/video/BV1ZNy1YGEkS/?spm_id_from=333.788.recommend_more_video.2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5571,7 +5704,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -5585,12 +5718,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5598,22 +5731,22 @@
         <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -5623,71 +5756,71 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5714,14 +5847,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="98"/>
+      <c r="D1" s="102"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
@@ -5814,7 +5947,7 @@
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="18"/>
@@ -5839,38 +5972,38 @@
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="99"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="100"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="100"/>
+      <c r="A14" s="104"/>
       <c r="D14" s="19"/>
     </row>
     <row r="15" ht="16.35" spans="1:4">
-      <c r="A15" s="101"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="94"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="98"/>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="101"/>
+      <c r="C17" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="98"/>
+      <c r="D17" s="102"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
@@ -5967,7 +6100,7 @@
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="18"/>
@@ -5992,38 +6125,38 @@
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="99"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="100"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="100"/>
+      <c r="A30" s="104"/>
       <c r="D30" s="19"/>
     </row>
     <row r="31" ht="16.35" spans="1:4">
-      <c r="A31" s="101"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="94"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="98"/>
     </row>
     <row r="32" ht="16.35"/>
     <row r="33" spans="1:4">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="98"/>
+      <c r="D33" s="102"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="17" t="s">
@@ -6118,7 +6251,7 @@
       <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="18"/>
@@ -6143,38 +6276,38 @@
       <c r="A44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="99" t="s">
+      <c r="B44" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="99"/>
+      <c r="C44" s="103"/>
       <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="100"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="100"/>
+      <c r="A46" s="104"/>
       <c r="D46" s="19"/>
     </row>
     <row r="47" ht="16.35" spans="1:4">
-      <c r="A47" s="101"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="94"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="98"/>
     </row>
     <row r="48" ht="16.35"/>
     <row r="49" spans="1:4">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97" t="s">
+      <c r="B49" s="101"/>
+      <c r="C49" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="98"/>
+      <c r="D49" s="102"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="17" t="s">
@@ -6267,7 +6400,7 @@
       <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="92" t="s">
+      <c r="A57" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="18"/>
@@ -6292,38 +6425,38 @@
       <c r="A60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="99" t="s">
+      <c r="B60" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="99"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="100"/>
+      <c r="A61" s="104"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="100"/>
+      <c r="A62" s="104"/>
       <c r="D62" s="19"/>
     </row>
     <row r="63" ht="16.35" spans="1:4">
-      <c r="A63" s="101"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="94"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="98"/>
     </row>
     <row r="64" ht="16.35"/>
     <row r="65" spans="1:4">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="97" t="s">
+      <c r="B65" s="101"/>
+      <c r="C65" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="98"/>
+      <c r="D65" s="102"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="17" t="s">
@@ -6412,7 +6545,7 @@
       <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="18"/>
@@ -6440,13 +6573,13 @@
       <c r="B76" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="99" t="s">
+      <c r="C76" s="103" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="48">
+      <c r="A77" s="52">
         <v>0.395833333333333</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -6467,18 +6600,18 @@
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
-      <c r="D79" s="94"/>
+      <c r="D79" s="98"/>
     </row>
     <row r="80" ht="16.35"/>
     <row r="81" spans="1:4">
-      <c r="A81" s="96" t="s">
+      <c r="A81" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="97"/>
-      <c r="C81" s="97" t="s">
+      <c r="B81" s="101"/>
+      <c r="C81" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="98"/>
+      <c r="D81" s="102"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="17" t="s">
@@ -6579,7 +6712,7 @@
       <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="92" t="s">
+      <c r="A90" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="18"/>
@@ -6607,13 +6740,13 @@
       <c r="B93" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="99" t="s">
+      <c r="C93" s="103" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="48">
+      <c r="A94" s="52">
         <v>0.395833333333333</v>
       </c>
       <c r="B94" s="18" t="s">
@@ -6625,7 +6758,7 @@
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="48">
+      <c r="A95" s="52">
         <v>0.541666666666667</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -6637,7 +6770,7 @@
       <c r="D95" s="19"/>
     </row>
     <row r="96" ht="16.35" spans="1:4">
-      <c r="A96" s="102">
+      <c r="A96" s="106">
         <v>0.583333333333333</v>
       </c>
       <c r="B96" s="23" t="s">
@@ -6646,18 +6779,18 @@
       <c r="C96" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="94"/>
+      <c r="D96" s="98"/>
     </row>
     <row r="98" ht="16.35"/>
     <row r="99" spans="1:4">
-      <c r="A99" s="96" t="s">
+      <c r="A99" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="97"/>
-      <c r="C99" s="97" t="s">
+      <c r="B99" s="101"/>
+      <c r="C99" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="98"/>
+      <c r="D99" s="102"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="17" t="s">
@@ -6728,7 +6861,7 @@
       <c r="D105" s="19"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="92" t="s">
+      <c r="A106" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="18"/>
@@ -6756,13 +6889,13 @@
       <c r="B109" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="99" t="s">
+      <c r="C109" s="103" t="s">
         <v>101</v>
       </c>
       <c r="D109" s="19"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="48">
+      <c r="A110" s="52">
         <v>0.395833333333333</v>
       </c>
       <c r="B110" s="18" t="s">
@@ -6774,7 +6907,7 @@
       <c r="D110" s="19"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="48">
+      <c r="A111" s="52">
         <v>0.541666666666667</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -6786,7 +6919,7 @@
       <c r="D111" s="19"/>
     </row>
     <row r="112" ht="16.35" spans="1:4">
-      <c r="A112" s="102">
+      <c r="A112" s="106">
         <v>0.583333333333333</v>
       </c>
       <c r="B112" s="23" t="s">
@@ -6795,18 +6928,18 @@
       <c r="C112" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="94"/>
+      <c r="D112" s="98"/>
     </row>
     <row r="113" ht="16.35"/>
     <row r="114" spans="1:4">
-      <c r="A114" s="96" t="s">
+      <c r="A114" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="97"/>
-      <c r="C114" s="97" t="s">
+      <c r="B114" s="101"/>
+      <c r="C114" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="98"/>
+      <c r="D114" s="102"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="17" t="s">
@@ -6877,7 +7010,7 @@
       <c r="D120" s="19"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="92" t="s">
+      <c r="A121" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="18"/>
@@ -6905,13 +7038,13 @@
       <c r="B124" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="99" t="s">
+      <c r="C124" s="103" t="s">
         <v>101</v>
       </c>
       <c r="D124" s="19"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="48">
+      <c r="A125" s="52">
         <v>0.395833333333333</v>
       </c>
       <c r="B125" s="18" t="s">
@@ -6923,7 +7056,7 @@
       <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="48">
+      <c r="A126" s="52">
         <v>0.541666666666667</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -6935,7 +7068,7 @@
       <c r="D126" s="19"/>
     </row>
     <row r="127" ht="16.35" spans="1:4">
-      <c r="A127" s="102">
+      <c r="A127" s="106">
         <v>0.583333333333333</v>
       </c>
       <c r="B127" s="23" t="s">
@@ -6944,18 +7077,18 @@
       <c r="C127" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D127" s="94"/>
+      <c r="D127" s="98"/>
     </row>
     <row r="128" ht="16.35"/>
     <row r="129" spans="1:4">
-      <c r="A129" s="96" t="s">
+      <c r="A129" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="97"/>
-      <c r="C129" s="97" t="s">
+      <c r="B129" s="101"/>
+      <c r="C129" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="98"/>
+      <c r="D129" s="102"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="17" t="s">
@@ -7032,7 +7165,7 @@
       <c r="D135" s="19"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="92" t="s">
+      <c r="A136" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="18"/>
@@ -7060,13 +7193,13 @@
       <c r="B139" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="99" t="s">
+      <c r="C139" s="103" t="s">
         <v>101</v>
       </c>
       <c r="D139" s="19"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="48">
+      <c r="A140" s="52">
         <v>0.395833333333333</v>
       </c>
       <c r="B140" s="18" t="s">
@@ -7078,7 +7211,7 @@
       <c r="D140" s="19"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="48">
+      <c r="A141" s="52">
         <v>0.541666666666667</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -7090,7 +7223,7 @@
       <c r="D141" s="19"/>
     </row>
     <row r="142" ht="16.35" spans="1:4">
-      <c r="A142" s="102">
+      <c r="A142" s="106">
         <v>0.583333333333333</v>
       </c>
       <c r="B142" s="23" t="s">
@@ -7099,18 +7232,18 @@
       <c r="C142" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="94"/>
+      <c r="D142" s="98"/>
     </row>
     <row r="143" ht="16.35"/>
     <row r="144" spans="1:4">
-      <c r="A144" s="96" t="s">
+      <c r="A144" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="97"/>
-      <c r="C144" s="97" t="s">
+      <c r="B144" s="101"/>
+      <c r="C144" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="98"/>
+      <c r="D144" s="102"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="17" t="s">
@@ -7187,7 +7320,7 @@
       <c r="D150" s="19"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="92" t="s">
+      <c r="A151" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="18"/>
@@ -7215,13 +7348,13 @@
       <c r="B154" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="99" t="s">
+      <c r="C154" s="103" t="s">
         <v>101</v>
       </c>
       <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="48">
+      <c r="A155" s="52">
         <v>0.395833333333333</v>
       </c>
       <c r="B155" s="18" t="s">
@@ -7233,7 +7366,7 @@
       <c r="D155" s="19"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="48">
+      <c r="A156" s="52">
         <v>0.541666666666667</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -7245,7 +7378,7 @@
       <c r="D156" s="19"/>
     </row>
     <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="102">
+      <c r="A157" s="106">
         <v>0.583333333333333</v>
       </c>
       <c r="B157" s="23" t="s">
@@ -7254,7 +7387,7 @@
       <c r="C157" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="94"/>
+      <c r="D157" s="98"/>
     </row>
     <row r="158" ht="16.35"/>
     <row r="159" spans="1:4">
@@ -7338,9 +7471,9 @@
       </c>
     </row>
     <row r="165" ht="16.35" spans="1:4">
-      <c r="A165" s="46"/>
-      <c r="B165" s="47"/>
-      <c r="C165" s="47"/>
+      <c r="A165" s="50"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="51"/>
       <c r="D165" s="24"/>
     </row>
     <row r="166" ht="16.35"/>
@@ -7429,9 +7562,9 @@
       <c r="D173" s="19"/>
     </row>
     <row r="174" ht="16.35" spans="1:4">
-      <c r="A174" s="46"/>
-      <c r="B174" s="47"/>
-      <c r="C174" s="47"/>
+      <c r="A174" s="50"/>
+      <c r="B174" s="51"/>
+      <c r="C174" s="51"/>
       <c r="D174" s="24"/>
     </row>
   </sheetData>
@@ -7479,10 +7612,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B68" sqref="A71 B68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -7496,174 +7629,174 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="72" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="76" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="78" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="81"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="80"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="17" t="s">
@@ -7675,7 +7808,7 @@
       <c r="D12" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" ht="16.35" spans="1:6">
       <c r="A13" s="22" t="s">
@@ -7685,11 +7818,11 @@
         <v>159</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6"/>
@@ -7746,122 +7879,122 @@
       </c>
     </row>
     <row r="21" ht="16.35" spans="8:8">
-      <c r="H21" s="85"/>
+      <c r="H21" s="89"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:6">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="86" t="s">
+      <c r="F23" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="91"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70" t="s">
+      <c r="B24" s="74"/>
+      <c r="C24" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="78" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70" t="s">
+      <c r="B26" s="74"/>
+      <c r="C26" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="74" t="s">
+      <c r="E26" s="74"/>
+      <c r="F26" s="78" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="94" t="s">
         <v>178</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="91" t="s">
+      <c r="F27" s="95" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93" t="s">
+      <c r="B28" s="97"/>
+      <c r="C28" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="97" t="s">
         <v>181</v>
       </c>
       <c r="F28" s="19" t="s">
@@ -7869,503 +8002,503 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93" t="s">
+      <c r="B29" s="97"/>
+      <c r="C29" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="81" t="s">
         <v>184</v>
       </c>
       <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="92"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93" t="s">
+      <c r="A30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97" t="s">
         <v>185</v>
       </c>
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="92"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93" t="s">
+      <c r="A31" s="96"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97" t="s">
         <v>186</v>
       </c>
       <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93" t="s">
+      <c r="B32" s="97"/>
+      <c r="C32" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="97" t="s">
         <v>181</v>
       </c>
       <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
       <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="93" t="s">
+      <c r="C34" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
       <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93" t="s">
+      <c r="B35" s="97"/>
+      <c r="C35" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77" t="s">
+      <c r="B36" s="81"/>
+      <c r="C36" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="93" t="s">
+      <c r="D36" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="93"/>
+      <c r="E36" s="97"/>
       <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93" t="s">
+      <c r="B37" s="97"/>
+      <c r="C37" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
       <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
       <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="92"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="92"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93" t="s">
+      <c r="B42" s="97"/>
+      <c r="C42" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="D42" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="E42" s="93"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93" t="s">
+      <c r="B43" s="97"/>
+      <c r="C43" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
       <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93" t="s">
+      <c r="B44" s="97"/>
+      <c r="C44" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
       <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93" t="s">
+      <c r="B45" s="97"/>
+      <c r="C45" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
       <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93" t="s">
+      <c r="B46" s="97"/>
+      <c r="C46" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
       <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
       <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="92" t="s">
+      <c r="A48" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93" t="s">
+      <c r="B48" s="97"/>
+      <c r="C48" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
       <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93" t="s">
+      <c r="B49" s="97"/>
+      <c r="C49" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
       <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93" t="s">
+      <c r="B50" s="97"/>
+      <c r="C50" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
       <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93" t="s">
+      <c r="B51" s="97"/>
+      <c r="C51" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
       <c r="F51" s="19"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
       <c r="F52" s="19"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="92"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
       <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="92"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
       <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="93"/>
-      <c r="C55" s="77" t="s">
+      <c r="B55" s="97"/>
+      <c r="C55" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
       <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="92"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
       <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="92"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
       <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="80" t="s">
+      <c r="A58" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="93" t="s">
+      <c r="B58" s="97"/>
+      <c r="C58" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="93" t="s">
+      <c r="D58" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="93"/>
+      <c r="E58" s="97"/>
       <c r="F58" s="19"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="93" t="s">
+      <c r="C59" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
       <c r="F59" s="19"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="80" t="s">
+      <c r="A60" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="93"/>
-      <c r="C60" s="77" t="s">
+      <c r="B60" s="97"/>
+      <c r="C60" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
       <c r="F60" s="19"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93" t="s">
+      <c r="B61" s="97"/>
+      <c r="C61" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
       <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93" t="s">
+      <c r="B62" s="97"/>
+      <c r="C62" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
       <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="B63" s="93"/>
-      <c r="C63" s="93" t="s">
+      <c r="B63" s="97"/>
+      <c r="C63" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="93"/>
-      <c r="E63" s="93"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
       <c r="F63" s="19"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="B64" s="93"/>
-      <c r="C64" s="93" t="s">
+      <c r="B64" s="97"/>
+      <c r="C64" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
       <c r="F64" s="19"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="92"/>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
       <c r="F65" s="19"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="92" t="s">
+      <c r="A66" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93" t="s">
+      <c r="B66" s="97"/>
+      <c r="C66" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="E66" s="93"/>
+      <c r="E66" s="97"/>
       <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="92" t="s">
+      <c r="A67" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93" t="s">
+      <c r="B67" s="97"/>
+      <c r="C67" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="93"/>
-      <c r="E67" s="93"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
       <c r="F67" s="19"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="80" t="s">
+      <c r="A68" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93" t="s">
+      <c r="B68" s="97"/>
+      <c r="C68" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
       <c r="F68" s="19"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93" t="s">
+      <c r="B69" s="97"/>
+      <c r="C69" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
       <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="92" t="s">
+      <c r="A70" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="93"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="93"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
       <c r="F70" s="19"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="92" t="s">
+      <c r="A71" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
       <c r="F71" s="19"/>
     </row>
     <row r="72" spans="1:6">
@@ -8387,36 +8520,54 @@
     <row r="73" spans="6:6">
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="17"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+    <row r="74" spans="6:6">
       <c r="F74" s="19"/>
     </row>
-    <row r="75" ht="16.35" spans="1:6">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="94"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="5"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="5"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="5"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="5"/>
+    <row r="75" spans="6:6">
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" t="s">
+        <v>230</v>
+      </c>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" t="s">
+        <v>230</v>
+      </c>
+      <c r="F77" s="19"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="19"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="17"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="19"/>
+    </row>
+    <row r="80" ht="16.35" spans="1:6">
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="98"/>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="5"/>
@@ -8424,31 +8575,26 @@
     <row r="84" spans="1:1">
       <c r="A84" s="5"/>
     </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="5"/>
+    </row>
     <row r="87" spans="1:1">
       <c r="A87" s="5"/>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="5"/>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="3" t="s">
-        <v>230</v>
-      </c>
+    <row r="89" spans="1:1">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>232</v>
-      </c>
+      <c r="A93" s="5"/>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
@@ -8456,52 +8602,72 @@
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>205</v>
+      <c r="A96" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>236</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" ht="18.6" spans="1:2">
-      <c r="A103" s="95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>238</v>
       </c>
-      <c r="B103" s="3" t="s">
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>240</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="108" ht="18.6" spans="1:2">
+      <c r="A108" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -8524,10 +8690,10 @@
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1" display="https://www.bilibili.com/video/BV1tM4y1D7pC/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="E7" r:id="rId2" display="https://www.bilibili.com/video/BV1MP4y127kd?p=12"/>
-    <hyperlink ref="A91" r:id="rId3" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B102" r:id="rId4" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B103" r:id="rId5" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="B105" r:id="rId6" display="https://vue3js.cn/interview/vue3/modal_component.html"/>
+    <hyperlink ref="A96" r:id="rId3" display="https://www.bilibili.com/video/BV1kk4y167yv/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B107" r:id="rId4" display="https://www.bilibili.com/video/BV1a4421D7D2/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B108" r:id="rId5" display="https://www.bilibili.com/video/BV1UPbseEEdB/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="B110" r:id="rId6" display="https://vue3js.cn/interview/vue3/modal_component.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8563,7 +8729,7 @@
     <row r="1" ht="16.35"/>
     <row r="2" spans="2:16">
       <c r="B2" s="14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
@@ -8571,21 +8737,21 @@
       </c>
       <c r="E2" s="16"/>
       <c r="H2" s="14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="16"/>
-      <c r="M2" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="P2" s="51"/>
+      <c r="M2" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="17" t="s">
@@ -8612,16 +8778,16 @@
       <c r="K3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="58" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8640,22 +8806,22 @@
         <v>0.395833333333333</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>76</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="M4" s="55">
+      <c r="M4" s="59">
         <v>0.416666666666667</v>
       </c>
-      <c r="N4" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="O4" s="56" t="s">
+      <c r="N4" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="O4" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="54" t="s">
+      <c r="P4" s="58" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8680,16 +8846,16 @@
         <v>79</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="M5" s="55">
+      <c r="M5" s="59">
         <v>0.541666666666667</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="54"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="20">
@@ -8706,22 +8872,22 @@
         <v>0.583333333333333</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="M6" s="55">
+      <c r="M6" s="59">
         <v>0.583333333333333</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="54"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" ht="16.35" spans="2:16">
       <c r="B7" s="20">
@@ -8731,29 +8897,29 @@
         <v>114</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E7" s="19"/>
       <c r="H7" s="20">
         <v>0.625</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>77</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="M7" s="57">
+      <c r="M7" s="61">
         <v>0.6875</v>
       </c>
-      <c r="N7" s="58" t="s">
+      <c r="N7" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="O7" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="60"/>
+      <c r="P7" s="64"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="20"/>
@@ -8764,60 +8930,60 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
     </row>
     <row r="9" ht="16.35" spans="2:16">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="24"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="24"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
     </row>
     <row r="10" ht="16.35" spans="13:16">
-      <c r="M10" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="P10" s="51"/>
+      <c r="M10" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" ht="16.35" spans="8:16">
       <c r="H11" s="14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="53" t="s">
+      <c r="N11" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="53" t="s">
+      <c r="O11" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="54" t="s">
+      <c r="P11" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="14" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
@@ -8836,16 +9002,16 @@
       <c r="K12" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="59">
         <v>0.395833333333333</v>
       </c>
-      <c r="N12" s="53" t="s">
+      <c r="N12" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="O12" s="56" t="s">
+      <c r="O12" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="54"/>
+      <c r="P12" s="58"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="17" t="s">
@@ -8864,7 +9030,7 @@
         <v>0.375</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>77</v>
@@ -8872,16 +9038,16 @@
       <c r="K13" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="59">
         <v>0.541666666666667</v>
       </c>
-      <c r="N13" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="O13" s="56" t="s">
+      <c r="N13" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="O13" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="54"/>
+      <c r="P13" s="58"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="20">
@@ -8906,16 +9072,16 @@
       <c r="K14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="59">
         <v>0.583333333333333</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="O14" s="56" t="s">
+      <c r="O14" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="54"/>
+      <c r="P14" s="58"/>
     </row>
     <row r="15" ht="16.35" spans="2:16">
       <c r="B15" s="20">
@@ -8932,7 +9098,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>81</v>
@@ -8940,10 +9106,10 @@
       <c r="K15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="64"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="20">
@@ -8953,14 +9119,14 @@
         <v>114</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E16" s="19"/>
       <c r="H16" s="20">
         <v>0.625</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>77</v>
@@ -8978,19 +9144,19 @@
       <c r="K17" s="19"/>
     </row>
     <row r="18" ht="16.35" spans="2:11">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="24"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="24"/>
     </row>
     <row r="19" ht="16.35"/>
     <row r="20" spans="2:11">
       <c r="B20" s="14" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
@@ -8998,7 +9164,7 @@
       </c>
       <c r="E20" s="16"/>
       <c r="H20" s="14" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
@@ -9049,7 +9215,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>76</v>
@@ -9092,16 +9258,16 @@
         <v>114</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H24" s="20">
         <v>0.583333333333333</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>81</v>
@@ -9119,7 +9285,7 @@
         <v>0.625</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>77</v>
@@ -9127,19 +9293,19 @@
       <c r="K25" s="19"/>
     </row>
     <row r="26" ht="16.35" spans="2:11">
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="24"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" ht="16.35"/>
     <row r="28" spans="2:11">
       <c r="B28" s="14" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15" t="s">
@@ -9147,7 +9313,7 @@
       </c>
       <c r="E28" s="16"/>
       <c r="H28" s="30" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31" t="s">
@@ -9182,11 +9348,11 @@
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="48">
+      <c r="B30" s="52">
         <v>0.395833333333333</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>79</v>
@@ -9196,7 +9362,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J30" s="37" t="s">
         <v>76</v>
@@ -9230,7 +9396,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>79</v>
@@ -9240,7 +9406,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J32" s="37" t="s">
         <v>81</v>
@@ -9255,19 +9421,19 @@
         <v>114</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E33" s="19"/>
-      <c r="H33" s="38">
+      <c r="H33" s="42">
         <v>0.625</v>
       </c>
-      <c r="I33" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="J33" s="40" t="s">
+      <c r="I33" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="K33" s="41"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="20"/>
@@ -9276,9 +9442,9 @@
       <c r="E34" s="19"/>
     </row>
     <row r="35" ht="16.35" spans="2:5">
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="24"/>
     </row>
   </sheetData>
@@ -9312,7 +9478,7 @@
   <dimension ref="B1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A1" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
@@ -9334,27 +9500,27 @@
     <row r="1" ht="16.35"/>
     <row r="2" spans="2:15">
       <c r="B2" s="30" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E2" s="32"/>
       <c r="G2" s="30" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J2" s="32"/>
       <c r="L2" s="30" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M2" s="31"/>
       <c r="N2" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O2" s="32"/>
     </row>
@@ -9401,7 +9567,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>87</v>
@@ -9413,7 +9579,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I4" s="37" t="s">
         <v>76</v>
@@ -9439,7 +9605,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>79</v>
@@ -9509,69 +9675,69 @@
       </c>
     </row>
     <row r="7" ht="16.35" spans="2:15">
-      <c r="B7" s="38">
+      <c r="B7" s="42">
         <v>0.583333333333333</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="42">
         <v>0.708333333333333</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="L7" s="38">
+      <c r="J7" s="45"/>
+      <c r="L7" s="42">
         <v>0.708333333333333</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="42"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="43"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="6"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="43"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="6"/>
-      <c r="L8" s="42"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="47"/>
       <c r="O8" s="6"/>
     </row>
     <row r="9" ht="16.35"/>
     <row r="10" spans="2:10">
       <c r="B10" s="30" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C10" s="31"/>
-      <c r="D10" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="45"/>
+      <c r="D10" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="49"/>
       <c r="G10" s="30" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J10" s="32"/>
     </row>
@@ -9606,7 +9772,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>76</v>
@@ -9618,7 +9784,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I12" s="37" t="s">
         <v>76</v>
@@ -9670,45 +9836,45 @@
       </c>
     </row>
     <row r="15" ht="16.35" spans="2:10">
-      <c r="B15" s="38">
+      <c r="B15" s="42">
         <v>0.583333333333333</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="42">
         <v>0.708333333333333</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="17" ht="16.35"/>
     <row r="18" spans="2:10">
       <c r="B18" s="30" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E18" s="32"/>
       <c r="G18" s="30" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J18" s="32"/>
     </row>
@@ -9743,7 +9909,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>76</v>
@@ -9779,7 +9945,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I21" s="37" t="s">
         <v>79</v>
@@ -9815,37 +9981,37 @@
       </c>
     </row>
     <row r="23" ht="16.35" spans="2:10">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="G23" s="38">
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="G23" s="42">
         <v>0.708333333333333</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="41"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" spans="2:10">
       <c r="B26" s="30" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E26" s="32"/>
       <c r="G26" s="30" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J26" s="32"/>
     </row>
@@ -9880,7 +10046,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>76</v>
@@ -9918,7 +10084,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I29" s="37" t="s">
         <v>79</v>
@@ -9952,37 +10118,37 @@
       </c>
     </row>
     <row r="31" ht="16.35" spans="2:10">
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="G31" s="38">
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="G31" s="42">
         <v>0.708333333333333</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="41"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="33" ht="16.35"/>
     <row r="34" spans="2:10">
       <c r="B34" s="30" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E34" s="32"/>
       <c r="G34" s="30" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H34" s="31"/>
       <c r="I34" s="31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J34" s="32"/>
     </row>
@@ -10017,7 +10183,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>76</v>
@@ -10051,7 +10217,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I37" s="37" t="s">
         <v>79</v>
@@ -10085,29 +10251,29 @@
       </c>
     </row>
     <row r="39" ht="16.35" spans="2:10">
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="G39" s="38">
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="G39" s="42">
         <v>0.708333333333333</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="41"/>
+      <c r="J39" s="45"/>
     </row>
     <row r="41" ht="16.35"/>
     <row r="42" spans="7:10">
       <c r="G42" s="30" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H42" s="31"/>
       <c r="I42" s="31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J42" s="32"/>
     </row>
@@ -10144,7 +10310,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I45" s="37" t="s">
         <v>79</v>
@@ -10168,16 +10334,16 @@
       </c>
     </row>
     <row r="47" ht="16.35" spans="7:10">
-      <c r="G47" s="38">
+      <c r="G47" s="42">
         <v>0.708333333333333</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I47" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J47" s="41"/>
+      <c r="J47" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10203,20 +10369,101 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="10.3" customWidth="1"/>
+    <col min="3" max="3" width="16.9" customWidth="1"/>
+    <col min="4" max="4" width="19.6" customWidth="1"/>
+    <col min="5" max="5" width="24.1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>2024</v>
-      </c>
+    <row r="1" ht="16.35"/>
+    <row r="2" spans="2:5">
+      <c r="B2" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="36">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="36">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="38">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" ht="16.35" spans="2:5">
+      <c r="B7" s="42">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="46"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -10266,7 +10513,7 @@
         <v>0.395833333333333</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>76</v>
@@ -10290,10 +10537,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -10339,7 +10586,7 @@
     <row r="3" ht="16.35"/>
     <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
@@ -10366,7 +10613,7 @@
         <v>0.4375</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>79</v>
@@ -10378,7 +10625,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>79</v>
@@ -10390,7 +10637,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>79</v>
@@ -10400,7 +10647,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="20"/>
       <c r="B9" s="18" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>79</v>
@@ -10412,7 +10659,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>79</v>
@@ -10424,7 +10671,7 @@
         <v>45180</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10432,7 +10679,7 @@
         <v>45181</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10440,7 +10687,7 @@
         <v>45182</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10448,13 +10695,13 @@
         <v>45183</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" ht="16.35"/>
     <row r="17" spans="1:4">
       <c r="A17" s="14" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
@@ -10481,7 +10728,7 @@
         <v>0.4375</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>79</v>
@@ -10493,7 +10740,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>79</v>
@@ -10505,7 +10752,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>79</v>
@@ -10515,7 +10762,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="20"/>
       <c r="B22" s="18" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>79</v>
@@ -10527,7 +10774,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>79</v>
@@ -10563,7 +10810,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15" t="s">
@@ -10590,7 +10837,7 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>79</v>
@@ -10602,7 +10849,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>79</v>
@@ -10614,7 +10861,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>79</v>
@@ -10624,7 +10871,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="20"/>
       <c r="B6" s="18" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>79</v>
@@ -10636,7 +10883,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>79</v>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="418">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -1508,6 +1508,12 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1ZNy1YGEkS/?spm_id_from=333.788.recommend_more_video.2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
+    <t>3天CICD</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1v82mYDEXJ/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
     <t>html+js+CSS基础面试题</t>
@@ -5450,10 +5456,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -5664,6 +5670,14 @@
       </c>
       <c r="C34" s="3" t="s">
         <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5692,6 +5706,7 @@
     <hyperlink ref="C20" r:id="rId22" display="https://www.bilibili.com/video/BV1Jt4y1k7dS?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=6"/>
     <hyperlink ref="C28" r:id="rId23" display="https://www.bilibili.com/video/BV1pP411z7p8/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C34" r:id="rId24" display="https://www.bilibili.com/video/BV1ZNy1YGEkS/?spm_id_from=333.788.recommend_more_video.2&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C37" r:id="rId25" display="https://www.bilibili.com/video/BV1v82mYDEXJ/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5718,12 +5733,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5731,22 +5746,22 @@
         <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -5756,71 +5771,71 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B26" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -7614,8 +7629,8 @@
   <sheetPr/>
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="7"/>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" activeTab="10"/>
+    <workbookView windowWidth="27948" windowHeight="12420" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="10月" sheetId="15" r:id="rId9"/>
     <sheet name="摄影学习计划" sheetId="14" r:id="rId10"/>
     <sheet name="课程视频" sheetId="17" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId12"/>
+    <sheet name="复习安排" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="455">
   <si>
     <t>活动清单(12月20日)</t>
   </si>
@@ -1579,7 +1579,7 @@
     <t>面试题2</t>
   </si>
   <si>
-    <t>小野面试题</t>
+    <t>小野js面试题</t>
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV16p4y1x7Ew/?spm_id_from=333.788.player.switch&amp;vd_source=afbd897dda8c1c6166fce57f249edafd&amp;p=3</t>
@@ -1615,9 +1615,18 @@
     <t>https://www.bilibili.com/video/BV1vm3uzaEMn/?spm_id_from=333.1391.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
   </si>
   <si>
+    <t>codewhy数据结构及算法</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1x7411L7Q7/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd</t>
+  </si>
+  <si>
     <t>html+js+CSS基础面试题</t>
   </si>
   <si>
+    <t>一周</t>
+  </si>
+  <si>
     <t>JS高级面试题</t>
   </si>
   <si>
@@ -1642,6 +1651,12 @@
     <t>git+devops面试</t>
   </si>
   <si>
+    <t>gitCICD</t>
+  </si>
+  <si>
+    <t>nginx+docker</t>
+  </si>
+  <si>
     <t>项目面试题</t>
   </si>
   <si>
@@ -1670,9 +1685,6 @@
   </si>
   <si>
     <t>算法及数据结构</t>
-  </si>
-  <si>
-    <t>nginx</t>
   </si>
 </sst>
 </file>
@@ -1954,13 +1966,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="SimSun"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -5575,10 +5587,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -5943,6 +5955,14 @@
         <v>430</v>
       </c>
     </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>431</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.bilibili.com/video/BV1dS4y1y7vd/?p=2&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
@@ -5953,7 +5973,7 @@
     <hyperlink ref="C48" r:id="rId6" display="https://www.bilibili.com/video/BV1Wb411H7Pj/?p=9&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C7" r:id="rId7" display="https://www.bilibili.com/video/BV1pS421N7NM/?p=5&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C8" r:id="rId8" display="https://www.bilibili.com/video/BV1ny4y1i7Sh/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd" tooltip="https://www.bilibili.com/video/BV1ny4y1i7Sh/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
-    <hyperlink ref="C49" r:id="rId9" display="https://www.bilibili.com/video/BV1rA4y1f7mM/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C49" r:id="rId9" display="https://www.bilibili.com/video/BV1rA4y1f7mM/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd" tooltip="https://www.bilibili.com/video/BV1rA4y1f7mM/?spm_id_from=333.999.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C9" r:id="rId10" display="https://www.bilibili.com/video/BV1wp4y1p7aR/?p=3&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C10" r:id="rId11" display="https://www.bilibili.com/video/BV1Ac411K7EQ/?p=13&amp;spm_id_from=pageDriver&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C11" r:id="rId12" display="https://www.bilibili.com/video/BV1Pa411T7GS/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
@@ -5987,6 +6007,7 @@
     <hyperlink ref="C39" r:id="rId39" display="https://www.bilibili.com/video/BV1qFKhzLEQX/?spm_id_from=333.1391.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C38" r:id="rId40" display="https://www.bilibili.com/video/BV1TPNxz5EEv/?spm_id_from=333.1391.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
     <hyperlink ref="C53" r:id="rId41" display="https://www.bilibili.com/video/BV1vm3uzaEMn/?spm_id_from=333.1391.0.0&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
+    <hyperlink ref="C56" r:id="rId42" display="https://www.bilibili.com/video/BV1x7411L7Q7/?spm_id_from=333.337.search-card.all.click&amp;vd_source=afbd897dda8c1c6166fce57f249edafd"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5996,126 +6017,152 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.8" customWidth="1"/>
-    <col min="2" max="2" width="32.6" customWidth="1"/>
+    <col min="2" max="2" width="24.8" customWidth="1"/>
+    <col min="3" max="3" width="32.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+    <row r="1" spans="2:2">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>434</v>
+      </c>
+      <c r="B7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" t="s">
         <v>219</v>
       </c>
-      <c r="B9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="C9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>440</v>
-      </c>
-      <c r="B21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="C17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" t="s">
         <v>445</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C20" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>450</v>
+      </c>
+      <c r="C25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/番茄工作.xlsx
+++ b/番茄工作.xlsx
@@ -1966,13 +1966,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="SimSun"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -6020,7 +6020,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
